--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -408,13 +408,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Has the deadline for federal taxes changed?</v>
+        <v>What are the symptoms of COVID-19?</v>
       </c>
       <c r="B2" t="str">
-        <v>The federal deadline for filing and paying taxes has been [extended to July 15, 2020](https://www.irs.gov/newsroom/payment-deadline-extended-to-july-15-2020). \n\nSee [information on the U.S. Internal Revenue Service](https://www.irs.gov/coronavirus) for more information.\n\nMore info: [Taxes](https://covid19.ca.gov/taxes/)</v>
+        <v>### [Coronavirus symptoms](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html) include, but are not limited to:\n\n*   Fever or chills\n*   Cough\n*   Shortness of breath or difficulty breathing\n*   Fatigue\n*   Muscle or body aches\n*   Headache\n*   New loss of taste or smell\n*   Sore throat\n*   Congestion or runny nose\n*   Nausea or vomiting\n*   Diarrhea\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
       </c>
       <c r="C2" t="str">
-        <v>https://covid19.ca.gov/taxes/</v>
+        <v>https://covid19.ca.gov/symptoms-and-risks/</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve"> </v>
@@ -434,13 +434,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Are there any tax deductions for people affected by the COVID-19 outbreak?</v>
+        <v>Is there a COVID-19 symptoms self-checker?</v>
       </c>
       <c r="B3" t="str">
-        <v>No. Check with the [U.S. Internal Revenue Service](https://www.irs.gov/coronavirus), the [California Franchise Tax Board](https://www.ftb.ca.gov/), and your local government for updates.\n\nMore info: [Taxes](https://covid19.ca.gov/taxes/)</v>
+        <v>You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
       </c>
       <c r="C3" t="str">
-        <v>https://covid19.ca.gov/taxes/</v>
+        <v>https://covid19.ca.gov/symptoms-and-risks/</v>
       </c>
       <c r="D3" t="str">
         <v xml:space="preserve"> </v>
@@ -460,13 +460,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>What’s open statewide?</v>
+        <v>Who are high risk people for COVID-19?</v>
       </c>
       <c r="B4" t="str">
-        <v>**Essential services** that protect public health, public safety, and provide essential needs will remain open, such as:\n\n*   Gas stations \n*   Pharmacies\n*   Food: Grocery stores, farmers markets, food banks, convenience stores, take-out and delivery restaurants \n*   Banks \n*   Laundromats/laundry services \n*   Childcare\n*   Essential state and local government functions will also remain open, including law enforcement and offices that provide government programs and services.\n\n**Retailers** can open statewide. All will require modifications to support social distancing. This includes:\n\n*   Shopping malls\n*   Libraries\n*   Movie theaters and drive-in theaters (with modifications)\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\n**Offices** (in all sectors, not only critical infrastructure)\n\n**Limited services** which do not generally require close customer contact, such as: \n\n*   Pet grooming\n*   Dog walking\n*   Car washes\n*   Appliance repair\n*   Residential and janitorial cleaning\n*   Places of worship (with modifications)\n*   Plumbing\n\n**Outdoor museums**\n\n**Music, film, and TV production**\n\n**Professional sports (without live audiences)**\n\n**Schools and day camps**\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>### Some people are at higher risk to get very sick from COVID-19, including:\n\n*   people over 65 years old\n*   people with compromised immune systems\n*   Individuals who have serious chronic medical conditions like:\n    *   Heart disease\n    *   Diabetes\n    *   Lung disease\n*   [Smokers](https://www.nejm.org/doi/full/10.1056/NEJMoa2002032)\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
       </c>
       <c r="C4" t="str">
-        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
+        <v>https://covid19.ca.gov/symptoms-and-risks/</v>
       </c>
       <c r="D4" t="str">
         <v xml:space="preserve"> </v>
@@ -486,13 +486,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>What’s closed statewide?</v>
+        <v>What people at higher risk, seniors over 65 or compromised immune systems, should do?</v>
       </c>
       <c r="B5" t="str">
-        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person)\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n\n**What is open with county variance?**\n\nThe following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Dine-in restaurants\n*   Hair salons and barber shops\n*   Casinos\n\nCounties that are approved to progress further into the Resilience Roadmap can decide to open the following industries but are strongly encouraged to wait until June 12, 2020:\n\n*   Family entertainment centers\n*   Restaurants, wineries and bars\n*   Zoos and museums\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Cardrooms and racetracks\n*   Campgrounds and outdoor recreation\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>If you are at higher risk, you should take extra precautions to protect yourself: \n\n*   **Stay home.** It’s the most important thing you can do.\n*   **Avoid contact with people who are sick.** Isolate anyone sick in your home in a separate room, if possible.\n*   **Get food brought to your house** through family, social, or commercial networks. Wipe off containers with disinfectant wipes.\n*   **Listen to public health officials.** They may recommend community actions to reduce exposure in times of local outbreak.\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
       </c>
       <c r="C5" t="str">
-        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
+        <v>https://covid19.ca.gov/symptoms-and-risks/</v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
@@ -512,13 +512,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Is it safe to shop at open businesses?</v>
+        <v>Has the deadline for federal taxes changed?</v>
       </c>
       <c r="B6" t="str">
-        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/roadmap/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The federal deadline for filing and paying taxes has been [extended to July 15, 2020](https://www.irs.gov/newsroom/payment-deadline-extended-to-july-15-2020). \n\nSee [information on the U.S. Internal Revenue Service](https://www.irs.gov/coronavirus) for more information.\n\nMore info: [Taxes](https://covid19.ca.gov/taxes/)</v>
       </c>
       <c r="C6" t="str">
-        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
+        <v>https://covid19.ca.gov/taxes/</v>
       </c>
       <c r="D6" t="str">
         <v xml:space="preserve"> </v>
@@ -538,13 +538,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Can the Order be changed?</v>
+        <v>Are there any tax deductions for people affected by the COVID-19 outbreak?</v>
       </c>
       <c r="B7" t="str">
-        <v>Yes. The State Public Health Officer may issue new orders as the public health situation changes.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>No. Check with the [U.S. Internal Revenue Service](https://www.irs.gov/coronavirus), the [California Franchise Tax Board](https://www.ftb.ca.gov/), and your local government for updates.\n\nMore info: [Taxes](https://covid19.ca.gov/taxes/)</v>
       </c>
       <c r="C7" t="str">
-        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
+        <v>https://covid19.ca.gov/taxes/</v>
       </c>
       <c r="D7" t="str">
         <v xml:space="preserve"> </v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>How does this order interact with local orders to shelter in place? Does it supersede them?</v>
+        <v>What is the relationship between the order and these questions and answers?</v>
       </c>
       <c r="B8" t="str">
-        <v>This is a statewide order. Counties may move further into the Resilience Roadmap if they meet certain criteria.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The Governor has ordered Californians to obey the directives of the State Public Health Officer. Those directives take many forms; they include specific materials linked on this page, as well as these questions and answers. These questions and answers are directives from the State Public Health Officer, and have the same force and effect as other State Public Health Officer directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C8" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>If I am not an Essential Critical Infrastructure Worker, can I still leave the house?</v>
+        <v>When does the stay home order go into effect and how long will we stay home? What areas of the state are covered?</v>
       </c>
       <c r="B9" t="str">
-        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to patronize local businesses, or to care for friends or family members who require assistance (as set forth below). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and **do not gather with any number of people who are not members of your household.**\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The order went into effect on Thursday, March 19, 2020. The order is in place until further notice. It covers the whole state of California.\n\nAs of May 8, the stay home order was modified. In addition to essential activity, retail is allowed, along with the infrastructure to support it. As of May 12, offices, limited services, and outdoor museums are also permitted to open.\n\nSix key health and scientific [indicators](https://www.gov.ca.gov/2020/04/14/governor-newsom-outlines-six-critical-indicators-the-state-will-consider-before-modifying-the-stay-at-home-order-and-other-covid-19-interventions/) will be considered before modifying the state’s stay home order to allow additional activity under the [Resilience Roadmap](https://covid19.ca.gov/roadmap/#top).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C9" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Are mass gatherings permitted?</v>
+        <v>What’s open statewide?</v>
       </c>
       <c r="B10" t="str">
-        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are permitted so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. All other mass gatherings are prohibited until further notice.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>**Essential services** that protect public health, public safety, and provide essential needs will remain open, such as:\n\n*   Gas stations \n*   Pharmacies\n*   Food: Grocery stores, farmers markets, food banks, convenience stores, take-out and delivery restaurants \n*   Banks \n*   Laundromats/laundry services \n*   Childcare\n*   Essential state and local government functions will also remain open, including law enforcement and offices that provide government programs and services.\n\n**Retailers** can open statewide. All will require modifications to support social distancing. This includes:\n\n*   Shopping malls\n*   Libraries\n*   Movie theaters and drive-in theaters (with modifications)\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\n**Offices** (in all sectors, not only critical infrastructure)\n\n**Limited services** which do not generally require close customer contact, such as: \n\n*   Pet grooming\n*   Dog walking\n*   Car washes\n*   Appliance repair\n*   Residential and janitorial cleaning\n*   Places of worship\n*   Plumbing\n\n**Outdoor museums**\n\n**Music, film, and TV production**\n\n**Professional sports (without live audiences)**\n\n**Schools and day camps**\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C10" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Can I get a haircut?</v>
+        <v>What’s closed statewide?</v>
       </c>
       <c r="B11" t="str">
-        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then hair salons and barber shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person)\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C11" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Can I visit my family and friends?</v>
+        <v>What is open with county variance?</v>
       </c>
       <c r="B12" t="str">
-        <v>It is best to stay connected with your loved ones through phone and video calls, as visiting family and friends outside your household still presents a risk of spreading coronavirus. Keeping distance from others is especially important for people that are at higher risk of getting very sick, including older people, and people of any age who have underlying medical conditions. \n\nIf you do visit family or friends that don’t live in your home in person, take steps to keep everyone safe, like:\n\n*   Keep at least 6 feet between yourself and others, even when you wear a face covering\n*   Visit outdoors instead of indoors when possible\n*   Wear a face covering or cloth mask\n*   Wash your hands often\n*   Clean and disinfect commonly- touched surfaces\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Dine-in restaurants\n*   Hair salons and barber shops\n*   Casinos\n\nCounties that are approved to progress further into the Resilience Roadmap can decide to open the following industries but are strongly encouraged to wait until June 12, 2020:\n\n*   Family entertainment centers\n*   Restaurants, wineries and bars\n*   Zoos and museums\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Cardrooms and racetracks\n*   Campgrounds and outdoor recreation\n\nCounties that are approved to progress further into the Resilience Roadmap can decide to open the following industries but are strongly encouraged to wait until June 19, 2020:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C12" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>I want to express my political views.  How can I make my voice heard?</v>
+        <v>Can I visit my family and friends?</v>
       </c>
       <c r="B13" t="str">
-        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you **do not gather with people who are not members of your household**.  When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car protests to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It is best to stay connected with your loved ones through phone and video calls, as visiting family and friends outside your household still presents a risk of spreading coronavirus. Keeping distance from others is especially important for people that are at higher risk of getting very sick, including older people, and people of any age who have underlying medical conditions. \n\nIf you do visit family or friends that don’t live in your home in person, take steps to keep everyone safe, like:\n\n*   Keep at least 6 feet between yourself and others, even when you wear a face covering\n*   Visit outdoors instead of indoors when possible\n*   Wear a face covering or cloth mask\n*   Wash your hands often\n*   Clean and disinfect commonly-touched surfaces\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- weddings, wedding, travel, small social gathering, tourism, funeral, funerals --&gt;</v>
       </c>
       <c r="C13" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Can I engage in political protest gatherings?</v>
+        <v>Is it safe to shop at open businesses?</v>
       </c>
       <c r="B14" t="str">
-        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through six feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person protests as long as (1)  attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, and (2) physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nParticipants must maintain a physical distance of six feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed at least once every 21 days, beginning May 25, 2020. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/roadmap/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C14" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>How do I vote?</v>
+        <v>Can the Order be changed?</v>
       </c>
       <c r="B15" t="str">
-        <v>Elections are an essential activity, and the [Governor has issued executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Additionally, many in-person voting opportunities will be available: counties are required to provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) starting the Saturday before the election, and open ballot drop-box locations between October 6 and November 3, 2020. The Secretary of State and the California Department of Public Health are working on additional guidance to ensure that all Californians are able to participate in elections safely. Except where suspended by Executive Order, existing laws addressing the use of vote-by-mail ballots in California elections remain in effect.\n\nOf course, whenever you engage in any permissible activity—including the collection and drop-off of ballots, or other election-related activities (such as the collection of signatures to qualify candidates or measures for the ballot)—adhere to physical distancing and other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. The State Public Health Officer may issue new orders as the public health situation changes.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C15" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Can I go to church?</v>
+        <v>How does this order interact with local orders to shelter in place? Does it supersede them?</v>
       </c>
       <c r="B16" t="str">
-        <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>This is a statewide order. Counties may move further into the Resilience Roadmap if they meet certain criteria.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C16" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Can I practice my religious faith?</v>
+        <v>If I am not an Essential Critical Infrastructure Worker, can I still leave the house?</v>
       </c>
       <c r="B17" t="str">
-        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to engage in in-person worship and protest activities consistent with public health directives, to patronize local businesses, or to care for friends or family members who require assistance (as set forth below). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and comply with any other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C17" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>What conditions must be met to resume religious services at places of worship?</v>
+        <v>Are mass gatherings permitted?</v>
       </c>
       <c r="B18" t="str">
-        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, congregants engaging in singing, particularly in the choir, and group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower. This limitation will be in effect for the first 21 days of a county public health department’s approval of religious services and cultural ceremonies activities at places of worship within their jurisdictions.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C18" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
+        <v>Can I get a haircut?</v>
       </c>
       <c r="B19" t="str">
-        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least six feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then hair salons and barber shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C19" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>When will these conditions change for places of worship?</v>
+        <v>I want to express my political views.  How can I make my voice heard without raising public health concerns?</v>
       </c>
       <c r="B20" t="str">
-        <v>Every 21 days, the California Department of Public Health, in consultation with county Departments of Public Health, will review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship. This is because COVID-19 has an incubation period of 14 days; the 21-day interval accounts for this incubation period and provides for an additional seven days for thorough review, analysis, and preparation of modifications.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you comply with any other applicable public health directives. When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car activities to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C20" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
+        <v>Can I engage in political protest gatherings?</v>
       </c>
       <c r="B21" t="str">
-        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of six feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through six feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nState public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, and (2) physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nParticipants must maintain a physical distance of six feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C21" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Can I walk my dog? Take my pet to the vet?</v>
+        <v>How do I vote?</v>
       </c>
       <c r="B22" t="str">
-        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to distance yourself at least six feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Elections are an essential activity, and the [Governor has issued executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Additionally, many in-person voting opportunities will be available: counties are required to provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) starting the Saturday before the election, and open ballot drop-box locations between October 6 and November 3, 2020. The Secretary of State and the California Department of Public Health are working on additional guidance to ensure that all Californians are able to participate in elections safely. Except where suspended by Executive Order, existing laws addressing the use of vote-by-mail ballots in California elections remain in effect.\n\nOf course, whenever you engage in any permissible activity—including the collection and drop-off of ballots, or other election-related activities (such as the collection of signatures to qualify candidates or measures for the ballot)—adhere to physical distancing and other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C22" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Can I visit State Parks? What outdoor spaces are open?</v>
+        <v>Can I go to church?</v>
       </c>
       <c r="B23" t="str">
-        <v>State Parks, campgrounds, museums, and visitor centers have been closed to help slow the spread of the virus. A list of all closures can be found at [www.parks.ca.gov/flattenthecurve](https://urldefense.proofpoint.com/v2/url?u=http-3A__www.parks.ca.gov_flattenthecurve&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=_fPxTmPUxMvOIT4dV-3Qeb4cjflv8ev1xNzeyjEJEu8&amp;s=vM7KqvLoqg2j3Owj0qT1KhF7RlcZWasPwWAbbnYfiGo&amp;e=). See a list of some outdoor spaces that are open on the [Public recreation](https://covid19.ca.gov/public-recreation) page. Some counties will also be able to open campgrounds and RV parks starting on June 12. Californians should not travel significant distances for pleasure or recreation and should stay close to home.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice social distancing of 6 feet. This means avoiding crowded trails &amp; parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C23" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Can I travel?</v>
+        <v>Can I practice my religious faith?</v>
       </c>
       <c r="B24" t="str">
-        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C24" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
+        <v>What conditions must be met to resume religious services at places of worship?</v>
       </c>
       <c r="B25" t="str">
-        <v>[71 select DMV offices](https://www.dmv.ca.gov/portal/dmv/detail/about/foopenings) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://virtual.dmv.ca.gov/temporary-driver-license-request/), though one is not needed to drive\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago \n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, congregants engaging in singing, particularly in the choir, and group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower. Local Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of six feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be in effect for the first 21 days of a county public health department’s approval of religious services and cultural ceremonies activities at places of worship within their jurisdictions.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C25" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Can I get my smog checked?</v>
+        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
       </c>
       <c r="B26" t="str">
-        <v>The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, consumers can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least six feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C26" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Should I use cloth face coverings or masks to protect against COVID-19?</v>
+        <v>When will these conditions change for places of worship?</v>
       </c>
       <c r="B27" t="str">
-        <v>Yes,  when you must leave home to conduct activities permitted under the current roadmap stage, you should wear a cloth face covering or mask. The California Department of Public Health (CDPH) has released [Guidance on Use of Cloth Face Coverings](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Face-Coverings-Guidance.aspx).\n\nThe cloth face coverings recommended are **not** medical grade respirators, such as N95 and surgical masks.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Staying at home and physical distancing \n*   Washing hands frequently\n*   Avoiding touching eyes, nose and mouth with unwashed hands\n*   Avoiding being around people with COVID-19 symptoms\n\nThe use of cloth face coverings could reduce the transmission of COVID-19 by individuals who do not have symptoms and may reinforce physical distancing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Every 21 days, the California Department of Public Health, in consultation with county Departments of Public Health, will review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship. This is because COVID-19 has an incubation period of 14 days; the 21-day interval accounts for this incubation period and provides for an additional seven days for thorough review, analysis, and preparation of modifications.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C27" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D27" t="str">
         <v xml:space="preserve"> </v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>What is a cloth face covering?</v>
+        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
       </c>
       <c r="B28" t="str">
-        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of six feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C28" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D28" t="str">
         <v xml:space="preserve"> </v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>How should I care for a cloth face covering?</v>
+        <v>Can I walk my dog? Take my pet to the vet?</v>
       </c>
       <c r="B29" t="str">
-        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to distance yourself at least six feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C29" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D29" t="str">
         <v xml:space="preserve"> </v>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
+        <v>Can I visit State Parks? What outdoor spaces are open?</v>
       </c>
       <c r="B30" t="str">
-        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails &amp; parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C30" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D30" t="str">
         <v xml:space="preserve"> </v>
@@ -1162,13 +1162,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
+        <v>Can I travel?</v>
       </c>
       <c r="B31" t="str">
-        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\nT[esting](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C31" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D31" t="str">
         <v xml:space="preserve"> </v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
+        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
       </c>
       <c r="B32" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged cost-sharing for medically necessary screening and testing for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health](https://www.healthhelp.ca.gov/) [Care](https://github.com/cagov/covid19/issues/www.HealthHelp.ca.gov) (DMHC) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://virtual.dmv.ca.gov/temporary-driver-license-request/), though one is not needed to drive\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago \n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n    *   Behind-the-wheel driving tests are not available due to physical distancing concerns. The DMV will reschedule cancelled appointments for behind-the-wheel tests when it is safe to do so.  \n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C32" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D32" t="str">
         <v xml:space="preserve"> </v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
+        <v>Can I get my smog checked?</v>
       </c>
       <c r="B33" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, consumers can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C33" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D33" t="str">
         <v xml:space="preserve"> </v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Can I use telehealth if I am on Medicare?</v>
+        <v>Should I use cloth face coverings or masks to protect against COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes,  when you must leave home to conduct activities permitted under the current roadmap stage, you should wear a cloth face covering or mask. The California Department of Public Health (CDPH) has released [Guidance on Use of Cloth Face Coverings](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Face-Coverings-Guidance.aspx).\n\nThe cloth face coverings recommended are **not** medical grade respirators, such as N95 and surgical masks.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Staying at home and physical distancing \n*   Washing hands frequently\n*   Avoiding touching eyes, nose and mouth with unwashed hands\n*   Avoiding being around people with COVID-19 symptoms\n\nThe use of cloth face coverings could reduce the transmission of COVID-19 by individuals who do not have symptoms and may reinforce physical distancing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>I am nervous or scared. What can I do?</v>
+        <v>What is a cloth face covering?</v>
       </c>
       <c r="B35" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide shelter in place order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>How should I care for a cloth face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>**No, you will not need to renew for 90 days.** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-protect-ongoing-safety-net-services-for-most-vulnerable-californians-during-covid-19-outbreak/) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 90 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>What if I need to visit a health care provider?</v>
+        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
       </c>
       <c r="B37" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>What about routine, elective, or non-urgent medical appointments?</v>
+        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
       </c>
       <c r="B38" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. Dental services and preventive dental care may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Can I get my prescriptions filled?</v>
+        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B39" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged cost-sharing for medically necessary screening and testing for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health](https://www.healthhelp.ca.gov/) [Care](https://github.com/cagov/covid19/issues/www.HealthHelp.ca.gov) (DMHC) Help Center for assistance at [1-888-466-2219](tel:1-888-466-2219).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
+        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B40" t="str">
-        <v>You can call the statewide hotline for older Californians at 1-833-544-2374 for your non-urgent medical needs, to get meals delivered, track down prescriptions and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
+        <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B41" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text or physically distanced door knock to make sure they are okay. You can also teach them how to FaceTime, Zoom, Google Duo or use Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
+        <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B42" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide shelter in place order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B43" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>**No, you will not need to renew for 90 days.** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-protect-ongoing-safety-net-services-for-most-vulnerable-californians-during-covid-19-outbreak/) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 90 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B44" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:[800-400-7115]).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D44" t="str">
         <v xml:space="preserve"> </v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>What about routine, elective, or non-urgent medical or Dental appointments?</v>
       </c>
       <c r="B45" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. Dental services and preventive dental care may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- health care, healthcare, provider, doctor, appointment, dental, elective, surgery, operation, procedure, non-urgent, telehealth --&gt;</v>
       </c>
       <c r="C45" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D45" t="str">
         <v xml:space="preserve"> </v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>How will the payment plans work?</v>
+        <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B46" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D46" t="str">
         <v xml:space="preserve"> </v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B47" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, track down prescriptions and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D47" t="str">
         <v xml:space="preserve"> </v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B48" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text or physically distanced door knock to make sure they are okay. You can also teach them how to FaceTime, Zoom, Google Duo or use Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C48" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D48" t="str">
         <v xml:space="preserve"> </v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B49" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C49" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D49" t="str">
         <v xml:space="preserve"> </v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B50" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C50" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D50" t="str">
         <v xml:space="preserve"> </v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B51" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:[800-400-7115]).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B52" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C52" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>What do you consider a small business?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B53" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C53" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>What are excluded businesses?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B54" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C54" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B55" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C55" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>How much can I borrow?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B56" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>What are the loan terms?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B57" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>How can I apply?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B58" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B59" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>What can the money be used for?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B60" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B61" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B62" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B63" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of May 4, the U.S. SBA is accepting new applications from agricultural businesses only, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis from all businesses. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](http://tel[1-800-659-2955]) / 1-800-877-8339 (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B64" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B65" t="str">
-        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B66" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small agricultural businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B67" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B68" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B69" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B70" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of May 4, the U.S. SBA is accepting new applications from agricultural businesses only, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis from all businesses. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](http://tel[1-800-659-2955]) / 1-800-877-8339 (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B71" t="str">
-        <v>If your business is in an essential sector and remaining open during the stay home order, you should take steps to ensure the safety and health of your workers.\n\n*   Encourage sick employees to stay home.\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (pdf)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B72" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B73" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small agricultural businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>What businesses and organizations are exempt from the stay home order?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B74" t="str">
-        <v>Businesses and organizations that provide critical infrastructure for the state are exempted, including health care and public health, public safety, food and agriculture and media. See the [full list of exempt sectors (pdf)](http://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>I run/work at an exempted business or organization, as defined by the stay home order. Do I need to get an official letter of authorization from the state to operate?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B75" t="str">
-        <v>No. If your business or organization is in the list of [exempt sectors](http://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf), it may still operate. You do not need to obtain any specific authorization from the state to do so.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B76" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D76" t="str">
         <v xml:space="preserve"> </v>
@@ -2358,13 +2358,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Will families still have access to free or reduced meals if their schools close?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B77" t="str">
-        <v>The [governor’s executive order](https://www.gov.ca.gov/2020/03/13/governor-newsom-signs-executive-order-ensuring-state-funding-for-schools-even-in-event-of-physical-closure/)  ensures public schools will retain full funding. [Check your local school district](https://www.cde.ca.gov/schooldirectory)  for more information on how and where to receive services, including school meals.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D77" t="str">
         <v xml:space="preserve"> </v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B78" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D78" t="str">
         <v xml:space="preserve"> </v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B79" t="str">
-        <v>The California Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp)  to support schools in serving all students through this outbreak. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D79" t="str">
         <v xml:space="preserve"> </v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B80" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for California’s more than 6 million students in K-12 schools, pending federal approval.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D80" t="str">
         <v xml:space="preserve"> </v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B81" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C81" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Program eligibility</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B82" t="str">
-        <v>To be eligible for this program, you must:\n\n*   Work in a California healthcare facility \n    *   This includes medical transport providers and non-medical staff within health care facilities.\n    *   This also includes workers in California’s Health Corps or CAL MAT, as designated by the State.\n*   Have presumed exposure to COVID-19\n    *   This facility needs to be documented by a state or county public health official or medical professional to house COVID-19 positive patients.\n    *   Or healthcare workers who test positive for COVID-19 but do not require hospitalization\n*   Be unable to self-isolate or quarantine at home\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C82" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D82" t="str">
         <v xml:space="preserve"> </v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>How to reserve a room</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B83" t="str">
-        <v>*   Call [1-877-454-8785](tel:877-454-8785) to complete a screening process. Do not share personal health information. \n*   Show your healthcare facility employee identification at check-in. \n*   Provide a credit card or another form of deposit at check-in. \n*   The Program does not include extra services from the hotel, such as food, room service, valet, parking, or laundry. You will be responsible for incidentals. \n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C83" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D83" t="str">
         <v xml:space="preserve"> </v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Program details</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B84" t="str">
-        <v>*   For the purposes of this program, “healthcare facility” does not include in-home support services (IHSS).\n*   Cost:\n    *   If you make less than $250,000, you are eligible for a room at no charge. \n    *   If you make $250,000 or more, you are eligible for a discounted room. Rates depend on the offers provided by participating hotels.\n*   FEMA has approved this program for emergency, non-congregate sheltering, and has advised the State that healthcare workers meeting these criteria are considered an eligible population for Non-Congregate Shelter (NCS) reimbursement.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C84" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D84" t="str">
         <v xml:space="preserve"> </v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B85" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D85" t="str">
         <v xml:space="preserve"> </v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B86" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B87" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C87" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B88" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B89" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B90" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).  \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B91" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). \n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).  \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B92" t="str">
-        <v>The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). \n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B93" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C93" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D93" t="str">
         <v xml:space="preserve"> </v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B94" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C94" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B95" t="str">
-        <v>Financial institutions will not report derogatory information (_e.g._, late payments) to credit reporting agencies but may report a forbearance, which typically does not alone negatively affect a credit score.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C95" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>How long will these programs last?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B96" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impacts will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and necessity of continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (_e.g._, late payments) to credit reporting agencies but may report a forbearance, which typically does not alone negatively affect a credit score.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B97" t="str">
-        <v>At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, and nearly 200 state-chartered banks, credit unions are supporting these commitments. The state will welcome any other institution that would like to meet the moment and provide much-needed financial relief to Californians.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impacts will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and necessity of continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B98" t="str">
-        <v>These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, and nearly 200 state-chartered banks, credit unions are supporting these commitments. The state will welcome any other institution that would like to meet the moment and provide much-needed financial relief to Californians.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B99" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B100" t="str">
-        <v>You can file a complaint with the Department of Business Oversight through the complaint form on the DBO website ([https://dbo.ca.gov/file-a-complaint/](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)) or by contacting the DBO Consumer Services Office at (866) 275-2677 or (916) 327-7585 via email at [Ask.DBO@dbo.ca.gov](mailto:ASK.DBO@dbo.ca.gov).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>What kind of sick leave is available to me?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B101" t="str">
-        <v>Sick leave varies by employee. For details see [Coronavirus Disease (COVID-19): Frequently Asked Questions on laws enforced by the California Labor Commissioner’s Office](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You can file a complaint with the Department of Business Oversight through the complaint form on the DBO website ([https://dbo.ca.gov/file-a-complaint/](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)) or by contacting the DBO Consumer Services Office at (866) 275-2677 or (916) 327-7585 via email at [Ask.DBO@dbo.ca.gov](mailto:ASK.DBO@dbo.ca.gov).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>What if my employer does not have paid sick leave?</v>
+        <v>What kind of sick leave is available to me?</v>
       </c>
       <c r="B102" t="str">
-        <v>For those not able to secure paid leave, state [(California Family Rights Act)](https://ca.db101.org/ca/situations/workandbenefits/rights/program2c.htm) and federal laws [(Family and Medical Leave Act)](https://www.dol.gov/agencies/whd/fmla) may qualify you for up to 12 weeks of unpaid, job-protected leave per year.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Sick leave varies by employee. For details see [Coronavirus Disease (COVID-19): Frequently Asked Questions on laws enforced by the California Labor Commissioner’s Office](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C102" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>What if my employer does not have paid sick leave?</v>
       </c>
       <c r="B103" t="str">
-        <v>Yes, all child care facilities can open with necessary modifications. See the [](https://covid19.ca.gov/childcare/)[Child care page](https://covid19.ca.gov/childcare/). \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>For those not able to secure paid leave, state [(California Family Rights Act)](https://ca.db101.org/ca/situations/workandbenefits/rights/program2c.htm) and federal laws [(Family and Medical Leave Act)](https://www.dol.gov/agencies/whd/fmla) may qualify you for up to 12 weeks of unpaid, job-protected leave per year.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C103" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B104" t="str">
-        <v>Motel and hotel rooms may be available for families and individuals experiencing homelessness who have been exposed to COVID-19. [Contact](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) your local homeless Continuum of Care to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Yes, all child care facilities can open with necessary modifications. See the [](https://covid19.ca.gov/childcare/)[Child care page](https://covid19.ca.gov/childcare/). \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C104" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D104" t="str">
         <v xml:space="preserve"> </v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Will evictions be allowed during the stay home order?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B105" t="str">
-        <v>Yes, there is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially impacted by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), make sure to let your landlord know in writing within seven days of the rent coming due, and save documentation as proof. The order does not relieve a tenant from the obligation to pay rent, or restrict the landlord’s ability to recover rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Can landlords delay their payments while tenants might be suffering from COVID-19 and cannot pay rent?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B106" t="str">
-        <v>Yes, there are protections in effect through May 31, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests banks and other financial institutions to halt foreclosures and related evictions during this time period. Homeowners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B107" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C107" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D107" t="str">
         <v xml:space="preserve"> </v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B108" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C108" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B109" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C109" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B110" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C110" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B111" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C111" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Counties:</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B112" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C112" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>Counties:</v>
       </c>
       <c r="B113" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) for stage 2.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C113" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B114" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) for stage 2.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C114" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B115" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C115" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B116" t="str">
-        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C116" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B117" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C117" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> </v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B118" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C118" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B119" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C119" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B120" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C120" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>How do I apply?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B121" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C121" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B122" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B123" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How long do I have to apply?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B124" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B125" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B126" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Youth and Teens</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B127" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Veterans</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B128" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>Veterans</v>
       </c>
       <c r="B129" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Older Californians</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B130" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Older Californians</v>
       </c>
       <c r="B131" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B132" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B133" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Is in-language assistance available?</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B134" t="str">
-        <v>Your local health department will provide translation support in many different languages to help with communication.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Who should get tested?</v>
+        <v>Is in-language assistance available?</v>
       </c>
       <c r="B135" t="str">
-        <v>Testing is recommended for close contacts of individuals who have or are suspected of having COVID-19 and people who are exhibiting symptoms. See the [testing page for details](https://covid19.ca.gov/testing-and-treatment/#top).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your local health department will provide translation support in many different languages to help with communication.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C135" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B136" t="str">
-        <v>To learn more about testing and care, visit the [testing webpage](https://covid19.ca.gov/testing-and-treatment/). You can also search for testing locations using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Testing is recommended for close contacts of individuals who have or are suspected of having COVID-19 and people who are exhibiting symptoms. See the [testing page for details](https://covid19.ca.gov/testing-and-treatment/#top).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C136" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Can I apply for a contact tracing position?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B137" t="str">
-        <v>Contact your [local health department](https://covid19.ca.gov/state-local-resources/) to see if they are hiring contact tracing staff.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [testing webpage](https://covid19.ca.gov/testing-and-treatment/). You can also search for testing locations using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C137" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3944,13 +3944,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>County case metrics</v>
+        <v>Can I apply for a contact tracing position?</v>
       </c>
       <c r="B138" t="str">
-        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Contact your [local health department](https://covid19.ca.gov/state-local-resources/) to see if they are hiring contact tracing staff.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C138" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D138" t="str">
         <v xml:space="preserve"> </v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>County preparedness</v>
+        <v>County case metrics</v>
       </c>
       <c r="B139" t="str">
-        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C139" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>County response</v>
+        <v>County preparedness</v>
       </c>
       <c r="B140" t="str">
-        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C140" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Dine-in restaurants</v>
+        <v>County response</v>
       </c>
       <c r="B141" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C141" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B142" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C142" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Casinos</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B143" t="str">
-        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C143" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>Casinos</v>
       </c>
       <c r="B144" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C144" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B145" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Zoos and museums</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B146" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B147" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B148" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Hotels (for tourism and individual travel)</v>
       </c>
       <c r="B149" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Cardrooms and racetracks</v>
       </c>
       <c r="B150" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4282,13 +4282,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Northern California</v>
+        <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B151" t="str">
-        <v>*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Markleeville (Alpine County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C151" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D151" t="str">
         <v xml:space="preserve"> </v>
@@ -4308,13 +4308,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Southern California</v>
+        <v>Personal care services</v>
       </c>
       <c r="B152" t="str">
-        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C152" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D152" t="str">
         <v xml:space="preserve"> </v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>Northern California</v>
       </c>
       <c r="B153" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C153" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>Southern California</v>
       </c>
       <c r="B154" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C154" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B155" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C155" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B156" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C156" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D156" t="str">
         <v xml:space="preserve"> </v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B157" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D157" t="str">
         <v xml:space="preserve"> </v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B158" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D158" t="str">
         <v xml:space="preserve"> </v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B159" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C159" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Agriculture and livestock</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B160" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C160" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D160" t="str">
         <v xml:space="preserve"> </v>
@@ -4542,13 +4542,13 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Auto dealerships</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B161" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C161" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D161" t="str">
         <v xml:space="preserve"> </v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Childcare</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B162" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C162" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D162" t="str">
         <v xml:space="preserve"> </v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Communications infrastructure</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B163" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C163" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D163" t="str">
         <v xml:space="preserve"> </v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Construction</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B164" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C164" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D164" t="str">
         <v xml:space="preserve"> </v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Day camps</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B165" t="str">
-        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C165" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Delivery services</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B166" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C166" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Energy and utilities</v>
+        <v>Childcare</v>
       </c>
       <c r="B167" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C167" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B168" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C168" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Food packing</v>
+        <v>Construction</v>
       </c>
       <c r="B169" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C169" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Hotels and lodging</v>
+        <v>Day camps</v>
       </c>
       <c r="B170" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnder the current statewide Stay-at-Home order, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for Hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C170" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Life sciences</v>
+        <v>Delivery services</v>
       </c>
       <c r="B171" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Limited services</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B172" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B173" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Manufacturing</v>
+        <v>Food packing</v>
       </c>
       <c r="B174" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Mining and logging</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B175" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Life sciences</v>
       </c>
       <c r="B176" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Office workspaces</v>
+        <v>Limited services</v>
       </c>
       <c r="B177" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Outdoor museums</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B178" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Places of worship</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B179" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Ports</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B180" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B181" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B182" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Real estate transaction</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B183" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Retail</v>
+        <v>Places of worship</v>
       </c>
       <c r="B184" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Schools</v>
+        <v>Ports</v>
       </c>
       <c r="B185" t="str">
-        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Support for working families</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B186" t="str">
-        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Shopping centers</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B187" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,13 +5244,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Are churches open?</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B188" t="str">
-        <v>Yes. As of May 25, places of worship such as churches, mosques, and synagogues can open throughout the state, with modifications.</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D188" t="str">
         <v xml:space="preserve"> </v>
@@ -5270,13 +5270,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>What are the symptoms of COVID-19?</v>
+        <v>Retail</v>
       </c>
       <c r="B189" t="str">
-        <v>COVID-19 Symptoms include:\n* Fever\n* Cough\n* Shortness of breath or difficulty breathing\n* Chills\n* Repeated shaking with chills\n* Muscle pain\n* Headache\n* Sore throat\n* New loss of taste or smell\n\nMore info: (https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D189" t="str">
         <v xml:space="preserve"> </v>
@@ -5296,13 +5296,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Is there a COVID-19 symptoms self-checker?</v>
+        <v>Schools</v>
       </c>
       <c r="B190" t="str">
-        <v>Yes, you can check your symptoms by using the Symptom Screener self-checker or by contacting your doctor through telehealth.\n\nMore info: \n(https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D190" t="str">
         <v xml:space="preserve"> </v>
@@ -5322,13 +5322,13 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Who are high risk people for COVID-19?</v>
+        <v>Support for working families</v>
       </c>
       <c r="B191" t="str">
-        <v>People who are at higher risk to get very sick from COVID-19, including:\n* people over 65 years old\n* people with compromised immune systems\n* Individuals who have serious chronic medical conditions like:\n* Heart disease\n* Diabetes\n* Lung disease\n* Smokers\n\nMore info: \n\n(https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D191" t="str">
         <v xml:space="preserve"> </v>
@@ -5348,13 +5348,13 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B192" t="str">
-        <v>More info \n\n[Testing and treatmeent](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D192" t="str">
         <v xml:space="preserve"> </v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Is there a drive-through coronavirus testing location near me?</v>
+        <v>Can I get a free coronavirus test?</v>
       </c>
       <c r="B193" t="str">
-        <v>More info \n\n[Testing and treatmeent](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Yes, if you qualify. More info \n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C193" t="str">
         <v>Editorial</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Can I get a free coronavirus test?</v>
+        <v>What coronavirus/COVID-19 symptoms require immediate medical attention?</v>
       </c>
       <c r="B194" t="str">
-        <v>Yes, if you qualify. More info \n\n[Testing and treatmeent](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Seek emergency medical attention if you have any of the following warning signs:\n* Trouble breathing\n* Persistent pain or pressure in the chest\n* New confusion or inability to awaken\n* Bluish lips or face\n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C194" t="str">
         <v>Editorial</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>What coronavirus/COVID-19 symptoms require immediate medical attention?</v>
+        <v>Is there a convalescent blood plasma donation center near me?</v>
       </c>
       <c r="B195" t="str">
-        <v>"Seek emergency medical attention if you have any of the following warning signs:\n* Trouble breathing\n* Persistent pain or pressure in the chest\n* New confusion or inability to awaken\n* Bluish lips or face\n\n[Testing and treatmeent](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Please see [Donating blood plasma page](https://covid19.ca.gov/plasma/)</v>
       </c>
       <c r="C195" t="str">
         <v>Editorial</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Can a foreign medical graduate without California license work as doctor for the California Health Corps?</v>
       </c>
       <c r="B196" t="str">
-        <v>Please see [Donating blood plasma page](https://covid19.ca.gov/plasma/)</v>
+        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.)\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C196" t="str">
         <v>Editorial</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Can a foreign medical graduate without California licence work as doctor for the California Health Corps?</v>
+        <v>Can a doctor without California license work under the California Health Corps?</v>
       </c>
       <c r="B197" t="str">
-        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.)\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.). However, medical resident are permitted to participate in the California Health Corps.\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C197" t="str">
         <v>Editorial</v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Can a doctor without California license work under the California Health Corps?</v>
+        <v>Are pools open? Can I go swimming?</v>
       </c>
       <c r="B198" t="str">
-        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.). However, medical resident are permitted to participate in the California Health Corps.\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Community centers, including public pools, playgrounds, and picnic areas, are not permitted to operate in the State of California at this time.</v>
       </c>
       <c r="C198" t="str">
         <v>Editorial</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Are pools open? Can I go swimming?</v>
+        <v>Can I go camping?</v>
       </c>
       <c r="B199" t="str">
-        <v>Community centers, including public pools, playgrounds, and picnic areas, are not permitted to operate in the State of California at this time.</v>
+        <v>All California State Park campgrounds are closed to help slow the spread of COVID-19. Check the [California State Park's website](https://www.parks.ca.gov/?page_id=30350) before leaving your home to find what parks are open and new visitor guidelines. Information about open outdoor areas can be found on the [public recreation page](https://covid19.ca.gov/public-recreation/).</v>
       </c>
       <c r="C199" t="str">
         <v>Editorial</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Can I get a massage?</v>
+        <v>Where can I apply for unemployment?</v>
       </c>
       <c r="B200" t="str">
-        <v>Personal services such as nail salons, tattoo parlors, and massage clinics are not permitted to operate in the State of California at this time.</v>
+        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).</v>
       </c>
       <c r="C200" t="str">
         <v>Editorial</v>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Can I get a tattoo?</v>
+        <v>Can I go to the movies? Are movie theaters open?</v>
       </c>
       <c r="B201" t="str">
-        <v>Personal services such as nail salons, tattoo parlors, and massage clinics are not permitted to operate in the State of California at this time.</v>
+        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing.</v>
       </c>
       <c r="C201" t="str">
         <v>Editorial</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Can I go camping?</v>
+        <v>What if I don’t have health insurance? What are my options?</v>
       </c>
       <c r="B202" t="str">
-        <v>All California State Park campgrounds are closed to help slow the spread of COVID-19. Check the [California State Park's website](https://www.parks.ca.gov/?page_id=30350) before leaving your home to find what parks are open and new visitor guidelines. Information about open outdoor areas can be found on the [public recreation page](https://covid19.ca.gov/public-recreation/).</v>
+        <v>If you don’t have insurance, call “Medi-Nurse,” a 24/7 nurse advice line available at 1-877-409-9052. You can speak directly with a health professional about your symptoms, and get advice for further treatment in your area. See [Telehealth](https://covid19.ca.gov/telehealth/) for more information.</v>
       </c>
       <c r="C202" t="str">
         <v>Editorial</v>

--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -827,7 +827,7 @@
         <v>Are mass gatherings permitted?</v>
       </c>
       <c r="B18" t="str">
-        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, protest, funeral, banquet, event, event planning, outdoor, conference, symposium, rally, rallies, assembly, assemblies, convention, congregation, congregate, congregation, crowd, group, forum --&gt;</v>
       </c>
       <c r="C18" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1139,7 +1139,7 @@
         <v>Can I visit State Parks? What outdoor spaces are open?</v>
       </c>
       <c r="B30" t="str">
-        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails &amp; parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
       </c>
       <c r="C30" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Should I use cloth face coverings or masks to protect against COVID-19?</v>
+        <v>Should I use a cloth face covering or mask to protect against COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>Yes,  when you must leave home to conduct activities permitted under the current roadmap stage, you should wear a cloth face covering or mask. The California Department of Public Health (CDPH) has released [Guidance on Use of Cloth Face Coverings](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Face-Coverings-Guidance.aspx).\n\nThe cloth face coverings recommended are **not** medical grade respirators, such as N95 and surgical masks.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Staying at home and physical distancing \n*   Washing hands frequently\n*   Avoiding touching eyes, nose and mouth with unwashed hands\n*   Avoiding being around people with COVID-19 symptoms\n\nThe use of cloth face coverings could reduce the transmission of COVID-19 by individuals who do not have symptoms and may reinforce physical distancing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. When you leave home for activities permitted in your area, you should wear a [cloth face covering or mask](https://covid19.ca.gov/masks-and-ppe/#top). The California Department of Public Health (CDPH) has released [Guidance on Use of Cloth Face Coverings](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Face-Coverings-Guidance.aspx).\n\nThe cloth face coverings recommended are **not** medical grade respirators, such as N95 and surgical masks.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Stay at home and keep six feet from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nThe use of cloth face coverings could reduce the transmission of COVID-19 and may reinforce physical distancing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1269,7 +1269,7 @@
         <v>What is a cloth face covering?</v>
       </c>
       <c r="B35" t="str">
-        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1295,7 +1295,7 @@
         <v>How should I care for a cloth face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1321,7 +1321,7 @@
         <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
       </c>
       <c r="B37" t="str">
-        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1347,7 +1347,7 @@
         <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
       </c>
       <c r="B38" t="str">
-        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1373,7 +1373,7 @@
         <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B39" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged cost-sharing for medically necessary screening and testing for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health](https://www.healthhelp.ca.gov/) [Care](https://github.com/cagov/covid19/issues/www.HealthHelp.ca.gov) (DMHC) Help Center for assistance at [1-888-466-2219](tel:1-888-466-2219).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health](https://www.healthhelp.ca.gov/) [Care](https://github.com/cagov/covid19/issues/www.HealthHelp.ca.gov) (DMHC) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1399,7 +1399,7 @@
         <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B40" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1425,7 +1425,7 @@
         <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B41" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1451,7 +1451,7 @@
         <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B42" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide shelter in place order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B43" t="str">
-        <v>**No, you will not need to renew for 90 days.** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-protect-ongoing-safety-net-services-for-most-vulnerable-californians-during-covid-19-outbreak/) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 90 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1503,7 +1503,7 @@
         <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B44" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>What about routine, elective, or non-urgent medical or Dental appointments?</v>
+        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
       </c>
       <c r="B45" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. Dental services and preventive dental care may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- health care, healthcare, provider, doctor, appointment, dental, elective, surgery, operation, procedure, non-urgent, telehealth --&gt;</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C45" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1555,7 +1555,7 @@
         <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B46" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1581,7 +1581,7 @@
         <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B47" t="str">
-        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, track down prescriptions and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1607,7 +1607,7 @@
         <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B48" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text or physically distanced door knock to make sure they are okay. You can also teach them how to FaceTime, Zoom, Google Duo or use Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C48" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1633,7 +1633,7 @@
         <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B49" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C49" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1659,7 +1659,7 @@
         <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B50" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care coverage](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C50" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
       </c>
       <c r="B51" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:[800-400-7115]).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C51" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D51" t="str">
         <v xml:space="preserve"> </v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B52" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:[800-400-7115]).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C52" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>How will the payment plans work?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B53" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C53" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B54" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C54" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B55" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C55" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B56" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B57" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B58" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B59" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>What do you consider a small business?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B60" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>What are excluded businesses?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B61" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B62" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>How much can I borrow?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B63" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>What are the loan terms?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B64" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>How can I apply?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B65" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B66" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>What can the money be used for?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B67" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B68" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B69" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B70" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of May 4, the U.S. SBA is accepting new applications from agricultural businesses only, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis from all businesses. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](http://tel[1-800-659-2955]) / 1-800-877-8339 (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B71" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of May 4, the U.S. SBA is accepting new applications from agricultural businesses only, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis from all businesses. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](http://tel[1-800-659-2955]) / 1-800-877-8339 (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B72" t="str">
-        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B73" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small agricultural businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B74" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small agricultural businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B75" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B76" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B77" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B78" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B79" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B80" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B81" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C81" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D81" t="str">
         <v xml:space="preserve"> </v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B82" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C82" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B83" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C83" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B84" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C84" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B85" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B86" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D86" t="str">
         <v xml:space="preserve"> </v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B87" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C87" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B88" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B89" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B90" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B91" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).  \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B92" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). \n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B93" t="str">
-        <v>The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C93" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B94" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C94" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D94" t="str">
         <v xml:space="preserve"> </v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B95" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C95" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B96" t="str">
-        <v>Financial institutions will not report derogatory information (_e.g._, late payments) to credit reporting agencies but may report a forbearance, which typically does not alone negatively affect a credit score.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>How long will these programs last?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B97" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impacts will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and necessity of continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B98" t="str">
-        <v>At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, and nearly 200 state-chartered banks, credit unions are supporting these commitments. The state will welcome any other institution that would like to meet the moment and provide much-needed financial relief to Californians.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B99" t="str">
-        <v>These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B100" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B101" t="str">
-        <v>You can file a complaint with the Department of Business Oversight through the complaint form on the DBO website ([https://dbo.ca.gov/file-a-complaint/](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)) or by contacting the DBO Consumer Services Office at (866) 275-2677 or (916) 327-7585 via email at [Ask.DBO@dbo.ca.gov](mailto:ASK.DBO@dbo.ca.gov).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>What kind of sick leave is available to me?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B102" t="str">
-        <v>Sick leave varies by employee. For details see [Coronavirus Disease (COVID-19): Frequently Asked Questions on laws enforced by the California Labor Commissioner’s Office](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm).\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C102" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> </v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>What if my employer does not have paid sick leave?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B103" t="str">
-        <v>For those not able to secure paid leave, state [(California Family Rights Act)](https://ca.db101.org/ca/situations/workandbenefits/rights/program2c.htm) and federal laws [(Family and Medical Leave Act)](https://www.dol.gov/agencies/whd/fmla) may qualify you for up to 12 weeks of unpaid, job-protected leave per year.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C103" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D103" t="str">
         <v xml:space="preserve"> </v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B104" t="str">
-        <v>Yes, all child care facilities can open with necessary modifications. See the [](https://covid19.ca.gov/childcare/)[Child care page](https://covid19.ca.gov/childcare/). \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C104" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D104" t="str">
         <v xml:space="preserve"> </v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B105" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B106" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B107" t="str">
-        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C107" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D107" t="str">
         <v xml:space="preserve"> </v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B108" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C108" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B109" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C109" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B110" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C110" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B111" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C111" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>Counties:</v>
       </c>
       <c r="B112" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C112" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Counties:</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B113" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) for stage 2.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C113" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B114" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) for stage 2.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C114" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B115" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C115" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B116" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C116" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B117" t="str">
-        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C117" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> </v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B118" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C118" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B119" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C119" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B120" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C120" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B121" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C121" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>How do I apply?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B122" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B123" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B124" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>How long do I have to apply?</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B125" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B126" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B127" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Youth and Teens</v>
+        <v>Veterans</v>
       </c>
       <c r="B128" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Veterans</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B129" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>Older Californians</v>
       </c>
       <c r="B130" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Older Californians</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B131" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B132" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B133" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B134" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Is in-language assistance available?</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B135" t="str">
-        <v>Your local health department will provide translation support in many different languages to help with communication.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C135" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Who should get tested?</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B136" t="str">
-        <v>Testing is recommended for close contacts of individuals who have or are suspected of having COVID-19 and people who are exhibiting symptoms. See the [testing page for details](https://covid19.ca.gov/testing-and-treatment/#top).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C136" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B137" t="str">
-        <v>To learn more about testing and care, visit the [testing webpage](https://covid19.ca.gov/testing-and-treatment/). You can also search for testing locations using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C137" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Can I apply for a contact tracing position?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B138" t="str">
-        <v>Contact your [local health department](https://covid19.ca.gov/state-local-resources/) to see if they are hiring contact tracing staff.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C138" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>County case metrics</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B139" t="str">
-        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C139" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D139" t="str">
         <v xml:space="preserve"> </v>
@@ -3996,13 +3996,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>County preparedness</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B140" t="str">
-        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C140" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D140" t="str">
         <v xml:space="preserve"> </v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>County response</v>
+        <v>Can I apply for a contact tracing position?</v>
       </c>
       <c r="B141" t="str">
-        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Contact your [local health department](https://covid19.ca.gov/state-local-resources/) to see if they are hiring contact tracing staff.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C141" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D141" t="str">
         <v xml:space="preserve"> </v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Dine-in restaurants</v>
+        <v>County case metrics</v>
       </c>
       <c r="B142" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C142" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>County preparedness</v>
       </c>
       <c r="B143" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C143" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Casinos</v>
+        <v>County response</v>
       </c>
       <c r="B144" t="str">
-        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C144" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B145" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B146" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Zoos and museums</v>
+        <v>Casinos</v>
       </c>
       <c r="B147" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B148" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B149" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B150" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B151" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C151" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Personal care services</v>
+        <v>Hotels (for tourism and individual travel)</v>
       </c>
       <c r="B152" t="str">
-        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C152" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Northern California</v>
+        <v>Cardrooms and racetracks</v>
       </c>
       <c r="B153" t="str">
-        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C153" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D153" t="str">
         <v xml:space="preserve"> </v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Southern California</v>
+        <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B154" t="str">
-        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C154" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> </v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>Personal care services</v>
       </c>
       <c r="B155" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C155" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D155" t="str">
         <v xml:space="preserve"> </v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>Northern California</v>
       </c>
       <c r="B156" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C156" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>Southern California</v>
       </c>
       <c r="B157" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B158" t="str">
-        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4490,13 +4490,13 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B159" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C159" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D159" t="str">
         <v xml:space="preserve"> </v>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B160" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C160" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D160" t="str">
         <v xml:space="preserve"> </v>
@@ -4542,13 +4542,13 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B161" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C161" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D161" t="str">
         <v xml:space="preserve"> </v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
       </c>
       <c r="B162" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C162" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D162" t="str">
         <v xml:space="preserve"> </v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Resources for the California Health Corps participants</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B163" t="str">
-        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C163" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B164" t="str">
-        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C164" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Agriculture and livestock</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B165" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C165" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D165" t="str">
         <v xml:space="preserve"> </v>
@@ -4672,13 +4672,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Auto dealerships</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B166" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C166" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D166" t="str">
         <v xml:space="preserve"> </v>
@@ -4698,13 +4698,13 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Childcare</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B167" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C167" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D167" t="str">
         <v xml:space="preserve"> </v>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Communications infrastructure</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B168" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C168" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D168" t="str">
         <v xml:space="preserve"> </v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Construction</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B169" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C169" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Day camps</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B170" t="str">
-        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C170" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Delivery services</v>
+        <v>Childcare</v>
       </c>
       <c r="B171" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Energy and utilities</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B172" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Construction</v>
       </c>
       <c r="B173" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Food packing</v>
+        <v>Day camps</v>
       </c>
       <c r="B174" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Hotels and lodging</v>
+        <v>Delivery services</v>
       </c>
       <c r="B175" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Life sciences</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B176" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Limited services</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B177" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Food packing</v>
       </c>
       <c r="B178" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Manufacturing</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B179" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Mining and logging</v>
+        <v>Life sciences</v>
       </c>
       <c r="B180" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Limited services</v>
       </c>
       <c r="B181" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Office workspaces</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B182" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Outdoor museums</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B183" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Places of worship</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B184" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Ports</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B185" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B186" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B187" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Real estate transaction</v>
+        <v>Places of worship</v>
       </c>
       <c r="B188" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Retail</v>
+        <v>Ports</v>
       </c>
       <c r="B189" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Schools</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B190" t="str">
-        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Support for working families</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B191" t="str">
-        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Shopping centers</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B192" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Can I get a free coronavirus test?</v>
+        <v>Retail</v>
       </c>
       <c r="B193" t="str">
-        <v>Yes, if you qualify. More info \n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C193" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D193" t="str">
         <v xml:space="preserve"> </v>
@@ -5400,13 +5400,13 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>What coronavirus/COVID-19 symptoms require immediate medical attention?</v>
+        <v>Schools</v>
       </c>
       <c r="B194" t="str">
-        <v>Seek emergency medical attention if you have any of the following warning signs:\n* Trouble breathing\n* Persistent pain or pressure in the chest\n* New confusion or inability to awaken\n* Bluish lips or face\n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C194" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D194" t="str">
         <v xml:space="preserve"> </v>
@@ -5426,13 +5426,13 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Support for working families</v>
       </c>
       <c r="B195" t="str">
-        <v>Please see [Donating blood plasma page](https://covid19.ca.gov/plasma/)</v>
+        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D195" t="str">
         <v xml:space="preserve"> </v>
@@ -5452,13 +5452,13 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Can a foreign medical graduate without California license work as doctor for the California Health Corps?</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B196" t="str">
-        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.)\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C196" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D196" t="str">
         <v xml:space="preserve"> </v>
@@ -5478,13 +5478,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Can a doctor without California license work under the California Health Corps?</v>
+        <v>Is there a convalescent blood plasma donation center near me?</v>
       </c>
       <c r="B197" t="str">
-        <v>No. Please see California Health Corps page under Step 1, a valid California license is required for clinical practice (if you are a MD, DO, etc.). However, medical resident are permitted to participate in the California Health Corps.\n\n[California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
       </c>
       <c r="C197" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/plasma/</v>
       </c>
       <c r="D197" t="str">
         <v xml:space="preserve"> </v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Are pools open? Can I go swimming?</v>
+        <v>What coronavirus/COVID-19 symptoms require immediate medical attention?</v>
       </c>
       <c r="B198" t="str">
-        <v>Community centers, including public pools, playgrounds, and picnic areas, are not permitted to operate in the State of California at this time.</v>
+        <v>Seek emergency medical attention if you have any of the following warning signs:\n* Trouble breathing\n* Persistent pain or pressure in the chest\n* New confusion or inability to awaken\n* Bluish lips or face\n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C198" t="str">
         <v>Editorial</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Can I go camping?</v>
+        <v>Can I get a free coronavirus test?</v>
       </c>
       <c r="B199" t="str">
-        <v>All California State Park campgrounds are closed to help slow the spread of COVID-19. Check the [California State Park's website](https://www.parks.ca.gov/?page_id=30350) before leaving your home to find what parks are open and new visitor guidelines. Information about open outdoor areas can be found on the [public recreation page](https://covid19.ca.gov/public-recreation/).</v>
+        <v>Yes, if you qualify. Please see [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C199" t="str">
         <v>Editorial</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>What if I don’t have health insurance? What are my options?</v>
+        <v>Are hotels allowed to open?</v>
       </c>
       <c r="B202" t="str">
-        <v>If you don’t have insurance, call “Medi-Nurse,” a 24/7 nurse advice line available at 1-877-409-9052. You can speak directly with a health professional about your symptoms, and get advice for further treatment in your area. See [Telehealth](https://covid19.ca.gov/telehealth/) for more information.</v>
+        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations.</v>
       </c>
       <c r="C202" t="str">
         <v>Editorial</v>
@@ -5632,9 +5632,35 @@
         <v>201</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Are restaurants allowed to open?</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D203" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E203" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F203" t="str">
+        <v>false</v>
+      </c>
+      <c r="G203" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H203" t="str">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H202"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H203"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +645,7 @@
         <v>What’s closed statewide?</v>
       </c>
       <c r="B11" t="str">
-        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person)\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person), except where supporting [essential workforce activities](https://covid19.ca.gov/essential-workforce/), including but not limited to providing housing solutions, COVID-19 response, and training and instruction for the essential workforce.\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C11" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1191,7 +1191,7 @@
         <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
       </c>
       <c r="B32" t="str">
-        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://virtual.dmv.ca.gov/temporary-driver-license-request/), though one is not needed to drive\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago \n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n    *   Behind-the-wheel driving tests are not available due to physical distancing concerns. The DMV will reschedule cancelled appointments for behind-the-wheel tests when it is safe to do so.  \n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago \n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n    *   Behind-the-wheel driving tests are not available due to physical distancing concerns. The DMV will reschedule cancelled appointments for behind-the-wheel tests when it is safe to do so.  \n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C32" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Should I use a cloth face covering or mask to protect against COVID-19?</v>
+        <v>Should I wear a face covering or mask to protect against COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>Yes. When you leave home for activities permitted in your area, you should wear a [cloth face covering or mask](https://covid19.ca.gov/masks-and-ppe/#top). The California Department of Public Health (CDPH) has released [Guidance on Use of Cloth Face Coverings](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/Face-Coverings-Guidance.aspx).\n\nThe cloth face coverings recommended are **not** medical grade respirators, such as N95 and surgical masks.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Stay at home and keep six feet from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nThe use of cloth face coverings could reduce the transmission of COVID-19 and may reinforce physical distancing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Californians must wear face coverings when in public spaces, especially indoors and other areas where physical distancing is not possible. Face coverings help reduce the spread of COVID-19. \n\nThe California Department of Public Health (CDPH) has released a [Guidance](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Guidance-for-Face-Coverings_06-18-2020.pdf) for the use of face covering.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Maintain six feet of physical distance from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>What is a cloth face covering?</v>
+        <v>How well do cloth face coverings to prevent spread of COVID-19?</v>
       </c>
       <c r="B35" t="str">
-        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>There is scientific evidence to suggest that use of cloth face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Cloth face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>How should I care for a cloth face covering?</v>
+        <v>What is a cloth face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
+        <v>How should I care for a cloth face covering?</v>
       </c>
       <c r="B37" t="str">
-        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
+        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
       </c>
       <c r="B38" t="str">
-        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
+        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
       </c>
       <c r="B39" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health](https://www.healthhelp.ca.gov/) [Care](https://github.com/cagov/covid19/issues/www.HealthHelp.ca.gov) (DMHC) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
+        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B40" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [](https://www.healthhelp.ca.gov/)[California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Can I use telehealth if I am on Medicare?</v>
+        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B41" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>I am nervous or scared. What can I do?</v>
+        <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B42" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B43" t="str">
-        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>What if I need to visit a health care provider?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B44" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
+        <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B45" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C45" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Can I get my prescriptions filled?</v>
+        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
       </c>
       <c r="B46" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
+        <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B47" t="str">
-        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
+        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B48" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C48" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
+        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B49" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C49" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
+        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B50" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C50" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
+        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B51" t="str">
-        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
       </c>
       <c r="B52" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:[800-400-7115]).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C52" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D52" t="str">
         <v xml:space="preserve"> </v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B53" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C53" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>How will the payment plans work?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B54" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C54" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B55" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C55" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B56" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B57" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B58" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B59" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B60" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>What do you consider a small business?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B61" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>What are excluded businesses?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B62" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B63" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>How much can I borrow?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B64" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>What are the loan terms?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B65" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>How can I apply?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B66" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B67" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>What can the money be used for?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B68" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B69" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B70" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B71" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of May 4, the U.S. SBA is accepting new applications from agricultural businesses only, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis from all businesses. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](http://tel[1-800-659-2955]) / 1-800-877-8339 (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B72" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B73" t="str">
-        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B74" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small agricultural businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B75" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B76" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](about:blank) / 1-800-877-8339 (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B77" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B78" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B79" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B80" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B81" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C81" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B82" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C82" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D82" t="str">
         <v xml:space="preserve"> </v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B83" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C83" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B84" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C84" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B85" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B86" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B87" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C87" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D87" t="str">
         <v xml:space="preserve"> </v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B88" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B89" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B90" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B91" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B92" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B93" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C93" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B94" t="str">
-        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C94" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B95" t="str">
-        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C95" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D95" t="str">
         <v xml:space="preserve"> </v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>How long will these programs last?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B96" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B97" t="str">
-        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B98" t="str">
-        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B99" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B100" t="str">
-        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B101" t="str">
-        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B102" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C102" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> </v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B103" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C103" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B104" t="str">
-        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C104" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B105" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B106" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B107" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C107" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D107" t="str">
         <v xml:space="preserve"> </v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B108" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C108" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B109" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C109" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B110" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C110" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B111" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C111" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Counties:</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B112" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C112" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>Counties:</v>
       </c>
       <c r="B113" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) for stage 2.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C113" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B114" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) to move further ahead in the Resilience Roadmap.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C114" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B115" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C115" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B116" t="str">
-        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C116" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B117" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C117" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> </v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B118" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C118" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B119" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C119" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B120" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C120" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>How do I apply?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B121" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C121" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B122" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B123" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How long do I have to apply?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B124" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B125" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B126" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Youth and Teens</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B127" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Veterans</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B128" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>Veterans</v>
       </c>
       <c r="B129" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Older Californians</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B130" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Older Californians</v>
       </c>
       <c r="B131" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B132" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B133" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>What is a close contact?</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B134" t="str">
-        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Will contact tracers track my location?</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B135" t="str">
-        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C135" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Is contact tracing help available in my language?</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B136" t="str">
-        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C136" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Who should get tested?</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B137" t="str">
-        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C137" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B138" t="str">
-        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C138" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B139" t="str">
-        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C139" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B140" t="str">
-        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C140" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Can I apply for a contact tracing position?</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B141" t="str">
-        <v>Contact your [local health department](https://covid19.ca.gov/state-local-resources/) to see if they are hiring contact tracing staff.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C141" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>County case metrics</v>
+        <v>How do I become a contact tracer?</v>
       </c>
       <c r="B142" t="str">
-        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C142" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D142" t="str">
         <v xml:space="preserve"> </v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>County preparedness</v>
+        <v>County case metrics</v>
       </c>
       <c r="B143" t="str">
-        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C143" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>County response</v>
+        <v>County preparedness</v>
       </c>
       <c r="B144" t="str">
-        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C144" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dine-in restaurants</v>
+        <v>County response</v>
       </c>
       <c r="B145" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B146" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Casinos</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B147" t="str">
-        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>Casinos</v>
       </c>
       <c r="B148" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B149" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Zoos and museums</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B150" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B151" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C151" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B152" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C152" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Hotels (for tourism and individual travel)</v>
       </c>
       <c r="B153" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C153" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Cardrooms and racetracks</v>
       </c>
       <c r="B154" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C154" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Personal care services</v>
+        <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B155" t="str">
-        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C155" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Northern California</v>
+        <v>Personal care services</v>
       </c>
       <c r="B156" t="str">
-        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C156" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D156" t="str">
         <v xml:space="preserve"> </v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Southern California</v>
+        <v>Northern California</v>
       </c>
       <c r="B157" t="str">
-        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>Southern California</v>
       </c>
       <c r="B158" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B159" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C159" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B160" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C160" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B161" t="str">
-        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C161" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B162" t="str">
-        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C162" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
       </c>
       <c r="B163" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C163" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D163" t="str">
         <v xml:space="preserve"> </v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B164" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C164" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B165" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C165" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B166" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C166" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Resources for the California Health Corps participants</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B167" t="str">
-        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C167" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B168" t="str">
-        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C168" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Agriculture and livestock</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B169" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C169" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D169" t="str">
         <v xml:space="preserve"> </v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Auto dealerships</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B170" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C170" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Childcare</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B171" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Communications infrastructure</v>
+        <v>Childcare</v>
       </c>
       <c r="B172" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Construction</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B173" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Day camps</v>
+        <v>Construction</v>
       </c>
       <c r="B174" t="str">
-        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Delivery services</v>
+        <v>Day camps</v>
       </c>
       <c r="B175" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Energy and utilities</v>
+        <v>Delivery services</v>
       </c>
       <c r="B176" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B177" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Food packing</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B178" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Hotels and lodging</v>
+        <v>Food packing</v>
       </c>
       <c r="B179" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Life sciences</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B180" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Limited services</v>
+        <v>Life sciences</v>
       </c>
       <c r="B181" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Limited services</v>
       </c>
       <c r="B182" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Manufacturing</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B183" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Mining and logging</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B184" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B185" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Office workspaces</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B186" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Outdoor museums</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B187" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Places of worship</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B188" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Ports</v>
+        <v>Places of worship</v>
       </c>
       <c r="B189" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Ports</v>
       </c>
       <c r="B190" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B191" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Real estate transaction</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B192" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Retail</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B193" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C193" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Schools</v>
+        <v>Retail</v>
       </c>
       <c r="B194" t="str">
-        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C194" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Support for working families</v>
+        <v>Schools</v>
       </c>
       <c r="B195" t="str">
-        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Shopping centers</v>
+        <v>Support for working families</v>
       </c>
       <c r="B196" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C196" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5478,13 +5478,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B197" t="str">
-        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C197" t="str">
-        <v>https://covid19.ca.gov/plasma/</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D197" t="str">
         <v xml:space="preserve"> </v>
@@ -5504,13 +5504,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>What coronavirus/COVID-19 symptoms require immediate medical attention?</v>
+        <v>Is there a convalescent blood plasma donation center near me?</v>
       </c>
       <c r="B198" t="str">
-        <v>Seek emergency medical attention if you have any of the following warning signs:\n* Trouble breathing\n* Persistent pain or pressure in the chest\n* New confusion or inability to awaken\n* Bluish lips or face\n\n[Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
       </c>
       <c r="C198" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/plasma/</v>
       </c>
       <c r="D198" t="str">
         <v xml:space="preserve"> </v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Can I get a free coronavirus test?</v>
+        <v>Where can I apply for unemployment?</v>
       </c>
       <c r="B199" t="str">
-        <v>Yes, if you qualify. Please see [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).</v>
       </c>
       <c r="C199" t="str">
         <v>Editorial</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Where can I apply for unemployment?</v>
+        <v>Can I go to the movies? Are movie theaters open?</v>
       </c>
       <c r="B200" t="str">
-        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).</v>
+        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing.</v>
       </c>
       <c r="C200" t="str">
         <v>Editorial</v>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Can I go to the movies? Are movie theaters open?</v>
+        <v>Are hotels allowed to open?</v>
       </c>
       <c r="B201" t="str">
-        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing.</v>
+        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations.</v>
       </c>
       <c r="C201" t="str">
         <v>Editorial</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Are hotels allowed to open?</v>
+        <v>Are restaurants allowed to open?</v>
       </c>
       <c r="B202" t="str">
-        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations.</v>
+        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).</v>
       </c>
       <c r="C202" t="str">
         <v>Editorial</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Are restaurants allowed to open?</v>
+        <v>What about nail salons? Can I get my nails done?</v>
       </c>
       <c r="B203" t="str">
-        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).</v>
+        <v>[Counties that are approved to progress further into the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) can decide to open the following industries but are strongly encouraged to wait until June 19, 2020:\n\nPersonal services, like nail salons, body waxing and tattoo parlors\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C203" t="str">
         <v>Editorial</v>
@@ -5658,9 +5658,35 @@
         <v>202</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
+      </c>
+      <c r="B204" t="str">
+        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D204" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E204" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F204" t="str">
+        <v>false</v>
+      </c>
+      <c r="G204" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H204" t="str">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H203"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H204"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +645,7 @@
         <v>What’s closed statewide?</v>
       </c>
       <c r="B11" t="str">
-        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person), except where supporting [essential workforce activities](https://covid19.ca.gov/essential-workforce/), including but not limited to providing housing solutions, COVID-19 response, and training and instruction for the essential workforce.\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person), except where supporting [essential workforce activities](https://covid19.ca.gov/essential-workforce/), including but not limited to providing housing solutions, COVID-19 response, and training and instruction for the essential workforce.\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n*   Recreational team sports\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
       </c>
       <c r="C11" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Can I visit my family and friends?</v>
+        <v>Is it safe to shop at open businesses?</v>
       </c>
       <c r="B13" t="str">
-        <v>It is best to stay connected with your loved ones through phone and video calls, as visiting family and friends outside your household still presents a risk of spreading coronavirus. Keeping distance from others is especially important for people that are at higher risk of getting very sick, including older people, and people of any age who have underlying medical conditions. \n\nIf you do visit family or friends that don’t live in your home in person, take steps to keep everyone safe, like:\n\n*   Keep at least 6 feet between yourself and others, even when you wear a face covering\n*   Visit outdoors instead of indoors when possible\n*   Wear a face covering or cloth mask\n*   Wash your hands often\n*   Clean and disinfect commonly-touched surfaces\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- weddings, wedding, travel, small social gathering, tourism, funeral, funerals --&gt;</v>
+        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/roadmap/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C13" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Is it safe to shop at open businesses?</v>
+        <v>Can the Order be changed?</v>
       </c>
       <c r="B14" t="str">
-        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/roadmap/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. The State Public Health Officer may issue new orders as the public health situation changes.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C14" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Can the Order be changed?</v>
+        <v>How does this order interact with local orders to shelter in place? Does it supersede them?</v>
       </c>
       <c r="B15" t="str">
-        <v>Yes. The State Public Health Officer may issue new orders as the public health situation changes.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>This is a statewide order. Counties may move further into the Resilience Roadmap if they meet certain criteria.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C15" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>How does this order interact with local orders to shelter in place? Does it supersede them?</v>
+        <v>If I am not an Essential Critical Infrastructure Worker, can I still leave the house?</v>
       </c>
       <c r="B16" t="str">
-        <v>This is a statewide order. Counties may move further into the Resilience Roadmap if they meet certain criteria.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to engage in in-person worship and protest activities consistent with public health directives, to patronize local businesses, or to care for friends or family members who require assistance (as set forth below). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and comply with any other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C16" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>If I am not an Essential Critical Infrastructure Worker, can I still leave the house?</v>
+        <v>Are mass gatherings permitted?</v>
       </c>
       <c r="B17" t="str">
-        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to engage in in-person worship and protest activities consistent with public health directives, to patronize local businesses, or to care for friends or family members who require assistance (as set forth below). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and comply with any other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, protest, funeral, banquet, event, outdoor, conference, symposium, rally, rallies, assembly, assemblies, convention, congregation, congregate, congregation, crowd, group, forum, worship --&gt;</v>
       </c>
       <c r="C17" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Are mass gatherings permitted?</v>
+        <v>Can I get a haircut?</v>
       </c>
       <c r="B18" t="str">
-        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, protest, funeral, banquet, event, event planning, outdoor, conference, symposium, rally, rallies, assembly, assemblies, convention, congregation, congregate, congregation, crowd, group, forum --&gt;</v>
+        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then hair salons and barber shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- barbering --&gt;</v>
       </c>
       <c r="C18" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Can I get a haircut?</v>
+        <v>I want to express my political views.  How can I make my voice heard without raising public health concerns?</v>
       </c>
       <c r="B19" t="str">
-        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then hair salons and barber shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you comply with any other applicable public health directives. When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car activities to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C19" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>I want to express my political views.  How can I make my voice heard without raising public health concerns?</v>
+        <v>Can I engage in political protest gatherings?</v>
       </c>
       <c r="B20" t="str">
-        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you comply with any other applicable public health directives. When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car activities to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through six feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nState public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, and (2) physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nParticipants must maintain a physical distance of six feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C20" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Can I engage in political protest gatherings?</v>
+        <v>How do I vote?</v>
       </c>
       <c r="B21" t="str">
-        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through six feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nState public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, and (2) physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nParticipants must maintain a physical distance of six feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Elections are an essential activity, and the [Governor has issued executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Additionally, many in-person voting opportunities will be available: counties are required to provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) starting the Saturday before the election, and open ballot drop-box locations between October 6 and November 3, 2020. The Secretary of State and the California Department of Public Health are working on additional guidance to ensure that all Californians are able to participate in elections safely. Except where suspended by Executive Order, existing laws addressing the use of vote-by-mail ballots in California elections remain in effect.\n\nOf course, whenever you engage in any permissible activity—including the collection and drop-off of ballots, or other election-related activities (such as the collection of signatures to qualify candidates or measures for the ballot)—adhere to physical distancing and other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C21" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>How do I vote?</v>
+        <v>Can I go to church?</v>
       </c>
       <c r="B22" t="str">
-        <v>Elections are an essential activity, and the [Governor has issued executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Additionally, many in-person voting opportunities will be available: counties are required to provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) starting the Saturday before the election, and open ballot drop-box locations between October 6 and November 3, 2020. The Secretary of State and the California Department of Public Health are working on additional guidance to ensure that all Californians are able to participate in elections safely. Except where suspended by Executive Order, existing laws addressing the use of vote-by-mail ballots in California elections remain in effect.\n\nOf course, whenever you engage in any permissible activity—including the collection and drop-off of ballots, or other election-related activities (such as the collection of signatures to qualify candidates or measures for the ballot)—adhere to physical distancing and other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, worship, temple, wedding, funeral, baptism --&gt;</v>
       </c>
       <c r="C22" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Can I go to church?</v>
+        <v>Can I practice my religious faith?</v>
       </c>
       <c r="B23" t="str">
-        <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, temple, wedding, funeral, baptism --&gt;</v>
       </c>
       <c r="C23" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Can I practice my religious faith?</v>
+        <v>What conditions must be met to resume religious services at places of worship?</v>
       </c>
       <c r="B24" t="str">
-        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, congregants engaging in singing, particularly in the choir, and group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower. Local Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of six feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be in effect for the first 21 days of a county public health department’s approval of religious services and cultural ceremonies activities at places of worship within their jurisdictions.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C24" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>What conditions must be met to resume religious services at places of worship?</v>
+        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
       </c>
       <c r="B25" t="str">
-        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, congregants engaging in singing, particularly in the choir, and group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower. Local Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of six feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be in effect for the first 21 days of a county public health department’s approval of religious services and cultural ceremonies activities at places of worship within their jurisdictions.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least six feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C25" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
+        <v>When will these conditions change for places of worship?</v>
       </c>
       <c r="B26" t="str">
-        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least six feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Every 21 days, the California Department of Public Health, in consultation with county Departments of Public Health, will review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship. This is because COVID-19 has an incubation period of 14 days; the 21-day interval accounts for this incubation period and provides for an additional seven days for thorough review, analysis, and preparation of modifications.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C26" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>When will these conditions change for places of worship?</v>
+        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
       </c>
       <c r="B27" t="str">
-        <v>Every 21 days, the California Department of Public Health, in consultation with county Departments of Public Health, will review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship. This is because COVID-19 has an incubation period of 14 days; the 21-day interval accounts for this incubation period and provides for an additional seven days for thorough review, analysis, and preparation of modifications.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of six feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C27" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
+        <v>Can I walk my dog? Take my pet to the vet?</v>
       </c>
       <c r="B28" t="str">
-        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of six feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to distance yourself at least six feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C28" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Can I walk my dog? Take my pet to the vet?</v>
+        <v>Can I visit State Parks? What outdoor spaces are open?</v>
       </c>
       <c r="B29" t="str">
-        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to distance yourself at least six feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
       </c>
       <c r="C29" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Can I visit State Parks? What outdoor spaces are open?</v>
+        <v>Can I travel?</v>
       </c>
       <c r="B30" t="str">
-        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
+        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, travel, gathering, tourism, funeral, motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C30" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Can I travel?</v>
+        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
       </c>
       <c r="B31" t="str">
-        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\n*   On June 26, the DMV will begin behind-the-wheel driving tests. The DMV will reschedule all cancelled driving test appointments. New behind-the-wheel driving tests will not be available until all cancelled appointments are completed. \n    *   [For the health and safety of drivers and DMV staff](https://www.dmv.ca.gov/portal/news-and-media/dmv-resumes-behind-the-wheel-drive-tests-with-new-protocols-on-friday/), you must wear a face covering and will have your temperature checked before the test.\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension.\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive.\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020.\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago.\n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C31" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
+        <v>Can I get my car smog checked?</v>
       </c>
       <c r="B32" t="str">
-        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago \n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n    *   Behind-the-wheel driving tests are not available due to physical distancing concerns. The DMV will reschedule cancelled appointments for behind-the-wheel tests when it is safe to do so.  \n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It depends. Some smog check locations may be closed. The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, you can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C32" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Can I get my smog checked?</v>
+        <v>Should I wear a face covering or mask to protect against COVID-19?</v>
       </c>
       <c r="B33" t="str">
-        <v>The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, consumers can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. Californians must wear face coverings when in public spaces, especially indoors and other areas where physical distancing is not possible. Face coverings help reduce the spread of COVID-19. \n\nThe California Department of Public Health (CDPH) has released a [Guidance](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Guidance-for-Face-Coverings_06-18-2020.pdf) for the use of face covering.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Maintain six feet of physical distance from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C33" t="str">
-        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D33" t="str">
         <v xml:space="preserve"> </v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Should I wear a face covering or mask to protect against COVID-19?</v>
+        <v>How well do cloth face coverings to prevent spread of COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>Yes. Californians must wear face coverings when in public spaces, especially indoors and other areas where physical distancing is not possible. Face coverings help reduce the spread of COVID-19. \n\nThe California Department of Public Health (CDPH) has released a [Guidance](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Guidance-for-Face-Coverings_06-18-2020.pdf) for the use of face covering.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Maintain six feet of physical distance from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>There is scientific evidence to suggest that use of cloth face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Cloth face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>How well do cloth face coverings to prevent spread of COVID-19?</v>
+        <v>What is a cloth face covering?</v>
       </c>
       <c r="B35" t="str">
-        <v>There is scientific evidence to suggest that use of cloth face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Cloth face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>What is a cloth face covering?</v>
+        <v>How should I care for a cloth face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>How should I care for a cloth face covering?</v>
+        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
       </c>
       <c r="B37" t="str">
-        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
+        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
       </c>
       <c r="B38" t="str">
-        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
+        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B39" t="str">
-        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [](https://www.healthhelp.ca.gov/)[California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
+        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B40" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [](https://www.healthhelp.ca.gov/)[California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
+        <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B41" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Can I use telehealth if I am on Medicare?</v>
+        <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B42" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>I am nervous or scared. What can I do?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B43" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B44" t="str">
-        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>What if I need to visit a health care provider?</v>
+        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
       </c>
       <c r="B45" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C45" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
+        <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B46" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Can I get my prescriptions filled?</v>
+        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B47" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
+        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B48" t="str">
-        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C48" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
+        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B49" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C49" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
+        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B50" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C50" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
+        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
       </c>
       <c r="B51" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B52" t="str">
-        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C52" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D52" t="str">
         <v xml:space="preserve"> </v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B53" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C53" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B54" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C54" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>How will the payment plans work?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B55" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C55" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B56" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B57" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B58" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B59" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B60" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B61" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>What do you consider a small business?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B62" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>What are excluded businesses?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B63" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B64" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>How much can I borrow?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B65" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>What are the loan terms?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B66" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>How can I apply?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B67" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B68" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>What can the money be used for?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B69" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B70" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B71" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B72" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B73" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B74" t="str">
-        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B75" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B76" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B77" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B78" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B79" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B80" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B81" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C81" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B82" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C82" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D82" t="str">
         <v xml:space="preserve"> </v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B83" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C83" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B84" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C84" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B85" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B86" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B87" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C87" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D87" t="str">
         <v xml:space="preserve"> </v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B88" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B89" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B90" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B91" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B92" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B93" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C93" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B94" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C94" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B95" t="str">
-        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C95" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D95" t="str">
         <v xml:space="preserve"> </v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B96" t="str">
-        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>How long will these programs last?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B97" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B98" t="str">
-        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B99" t="str">
-        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B100" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B101" t="str">
-        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B102" t="str">
-        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C102" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> </v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B103" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C103" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B104" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C104" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B105" t="str">
-        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B106" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B107" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C107" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D107" t="str">
         <v xml:space="preserve"> </v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B108" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C108" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B109" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C109" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B110" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C110" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B111" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C111" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>Counties:</v>
       </c>
       <c r="B112" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C112" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Counties:</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B113" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) to move further ahead in the Resilience Roadmap.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C113" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B114" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) to move further ahead in the Resilience Roadmap.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C114" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B115" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C115" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B116" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C116" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B117" t="str">
-        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C117" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> </v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B118" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C118" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B119" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C119" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B120" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C120" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B121" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C121" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>How do I apply?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B122" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B123" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B124" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>How long do I have to apply?</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B125" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B126" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B127" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Youth and Teens</v>
+        <v>Veterans</v>
       </c>
       <c r="B128" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Veterans</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B129" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>Older Californians</v>
       </c>
       <c r="B130" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Older Californians</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B131" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B132" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B133" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B134" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>What is a close contact?</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B135" t="str">
-        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C135" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Will contact tracers track my location?</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B136" t="str">
-        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C136" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Is contact tracing help available in my language?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B137" t="str">
-        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C137" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Who should get tested?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B138" t="str">
-        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C138" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>How do I find a testing location?</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B139" t="str">
-        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C139" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B140" t="str">
-        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C140" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
+        <v>How do I become a contact tracer?</v>
       </c>
       <c r="B141" t="str">
-        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C141" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>How do I become a contact tracer?</v>
+        <v>County case metrics</v>
       </c>
       <c r="B142" t="str">
-        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C142" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D142" t="str">
         <v xml:space="preserve"> </v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>County case metrics</v>
+        <v>County preparedness</v>
       </c>
       <c r="B143" t="str">
-        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C143" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>County preparedness</v>
+        <v>County response</v>
       </c>
       <c r="B144" t="str">
-        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C144" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>County response</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B145" t="str">
-        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dine-in restaurants</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B146" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>Casinos</v>
       </c>
       <c r="B147" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Casinos</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B148" t="str">
-        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B149" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B150" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Zoos and museums</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B151" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
       </c>
       <c r="C151" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>Hotels (for tourism and individual travel)</v>
       </c>
       <c r="B152" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nThis guidance is applicable only within counties with variance attestation. Hotel and lodging services in all other counties should adhere to the guidance limitations provided by [statewide guidance](https://covid19.ca.gov/pdf/guidance-hotels.pdf), where hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C152" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>Cardrooms and racetracks</v>
       </c>
       <c r="B153" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C153" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B154" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, birdwatching, public --&gt;</v>
       </c>
       <c r="C154" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Personal care services</v>
       </c>
       <c r="B155" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Follow this [guidance for personal care services](https://files.covid19.ca.gov/pdf/expanded-personal-services--en.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- spa, esthetician, facial, electrolysis, waxing, massage office, massage clinic, massage therapist, massage parlor, masseuse, skin care, cosmetology services, electrology, massage therapy --&gt;</v>
       </c>
       <c r="C155" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Personal care services</v>
+        <v>Northern California</v>
       </c>
       <c r="B156" t="str">
-        <v>Follow this [guidance for personal care services](https://covid19.ca.gov/pdf/expanded-personal-services.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   American Canyon (Napa County)\n*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C156" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D156" t="str">
         <v xml:space="preserve"> </v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Northern California</v>
+        <v>Southern California</v>
       </c>
       <c r="B157" t="str">
-        <v>*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Bell (Los Angeles County)\n*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Southern California</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B158" t="str">
-        <v>*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B159" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C159" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B160" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C160" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B161" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C161" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
       </c>
       <c r="B162" t="str">
-        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C162" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B163" t="str">
-        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C163" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D163" t="str">
         <v xml:space="preserve"> </v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B164" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C164" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B165" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C165" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B166" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C166" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B167" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C167" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Resources for the California Health Corps participants</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B168" t="str">
-        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C168" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B169" t="str">
-        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C169" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D169" t="str">
         <v xml:space="preserve"> </v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Agriculture and livestock</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B170" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C170" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Auto dealerships</v>
+        <v>Childcare</v>
       </c>
       <c r="B171" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](https://files.covid19.ca.gov/pdf/guidance-childcare--en.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Childcare</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B172" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](http://covid19.ca.gov/pdf/guidance-childcare.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Communications infrastructure</v>
+        <v>Construction</v>
       </c>
       <c r="B173" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Construction</v>
+        <v>Day camps</v>
       </c>
       <c r="B174" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Day camps</v>
+        <v>Delivery services</v>
       </c>
       <c r="B175" t="str">
-        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Delivery services</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B176" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Energy and utilities</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B177" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Food packing</v>
       </c>
       <c r="B178" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Food packing</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B179" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Hotels and lodging</v>
+        <v>Life sciences</v>
       </c>
       <c r="B180" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Life sciences</v>
+        <v>Limited services</v>
       </c>
       <c r="B181" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Limited services</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B182" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B183" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Manufacturing</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B184" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Mining and logging</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B185" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B186" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Office workspaces</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B187" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Outdoor museums</v>
+        <v>Places of worship</v>
       </c>
       <c r="B188" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- wedding, funeral, event, assembly, choir, chorus, congregation, congregate, congregation, crowd, group --&gt;</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Places of worship</v>
+        <v>Ports</v>
       </c>
       <c r="B189" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Ports</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B190" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B191" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B192" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Real estate transaction</v>
+        <v>Retail</v>
       </c>
       <c r="B193" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C193" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Retail</v>
+        <v>Schools</v>
       </c>
       <c r="B194" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C194" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Schools</v>
+        <v>Support for working families</v>
       </c>
       <c r="B195" t="str">
-        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Support for working families</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B196" t="str">
-        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C196" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5478,13 +5478,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Shopping centers</v>
+        <v>Is there a convalescent blood plasma donation center near me?</v>
       </c>
       <c r="B197" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
       </c>
       <c r="C197" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/plasma/</v>
       </c>
       <c r="D197" t="str">
         <v xml:space="preserve"> </v>
@@ -5504,13 +5504,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Where can I apply for unemployment?</v>
       </c>
       <c r="B198" t="str">
-        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
+        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C198" t="str">
-        <v>https://covid19.ca.gov/plasma/</v>
+        <v>Editorial</v>
       </c>
       <c r="D198" t="str">
         <v xml:space="preserve"> </v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Where can I apply for unemployment?</v>
+        <v xml:space="preserve">Can I go to the movies? </v>
       </c>
       <c r="B199" t="str">
-        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).</v>
+        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing. &lt;!-- film, imax --&gt;</v>
       </c>
       <c r="C199" t="str">
         <v>Editorial</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Can I go to the movies? Are movie theaters open?</v>
+        <v>Are hotels allowed to open?</v>
       </c>
       <c r="B200" t="str">
-        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing.</v>
+        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations. &lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C200" t="str">
         <v>Editorial</v>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Are hotels allowed to open?</v>
+        <v>Are restaurants allowed to open?</v>
       </c>
       <c r="B201" t="str">
-        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations.</v>
+        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx). &lt;!-- food, pub, brew, craft distilleries --&gt;</v>
       </c>
       <c r="C201" t="str">
         <v>Editorial</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Are restaurants allowed to open?</v>
+        <v>Can I get my nails done? Can I get a massage? Can I get a facial? Can I get a tattoo?</v>
       </c>
       <c r="B202" t="str">
-        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).</v>
+        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then personal care services like nail salons, massage clinics, skin care, tattoo parlors, and piercing shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;Q](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
       </c>
       <c r="C202" t="str">
         <v>Editorial</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>What about nail salons? Can I get my nails done?</v>
+        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
       </c>
       <c r="B203" t="str">
-        <v>[Counties that are approved to progress further into the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) can decide to open the following industries but are strongly encouraged to wait until June 19, 2020:\n\nPersonal services, like nail salons, body waxing and tattoo parlors\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
       </c>
       <c r="C203" t="str">
         <v>Editorial</v>
@@ -5658,35 +5658,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="str">
-        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
-      </c>
-      <c r="B204" t="str">
-        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
-      </c>
-      <c r="C204" t="str">
-        <v>Editorial</v>
-      </c>
-      <c r="D204" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E204" t="str">
-        <v>[]</v>
-      </c>
-      <c r="F204" t="str">
-        <v>false</v>
-      </c>
-      <c r="G204" t="str">
-        <v>[]</v>
-      </c>
-      <c r="H204" t="str">
-        <v>203</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H204"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H203"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -928,7 +928,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Can I go to church?</v>
+        <v>Can I go to church for worship or a funeral?</v>
       </c>
       <c r="B22" t="str">
         <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, worship, temple, wedding, funeral, baptism --&gt;</v>
@@ -4363,7 +4363,7 @@
         <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B154" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, birdwatching, public --&gt;</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, wedding, hike, walk, bike, exercise, nature, birdwatch, guided, tour, hunt, boat, cabin, bonfire, campsite, amphitheater, sport, court, rental, public, trail, marina, bonfire, campsite,  --&gt;</v>
       </c>
       <c r="C154" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -5013,7 +5013,7 @@
         <v>Hotels and lodging</v>
       </c>
       <c r="B179" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers and customers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5247,7 +5247,7 @@
         <v>Places of worship</v>
       </c>
       <c r="B188" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- wedding, funeral, event, assembly, choir, chorus, congregation, congregate, congregation, crowd, group --&gt;</v>
+        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for staff and visitors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5325,7 +5325,7 @@
         <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B191" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5429,7 +5429,7 @@
         <v>Support for working families</v>
       </c>
       <c r="B195" t="str">
-        <v>The [support for working families](http://covid19.ca.gov/pdf/guidance-supportworkingfamilies.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [support for working families](http://files.covid19.ca.gov/pdf/guidance-supportworkingfamilies--en.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>

--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +593,7 @@
         <v>When does the stay home order go into effect and how long will we stay home? What areas of the state are covered?</v>
       </c>
       <c r="B9" t="str">
-        <v>The order went into effect on Thursday, March 19, 2020. The order is in place until further notice. It covers the whole state of California.\n\nAs of May 8, the stay home order was modified. In addition to essential activity, retail is allowed, along with the infrastructure to support it. As of May 12, offices, limited services, and outdoor museums are also permitted to open.\n\nSix key health and scientific [indicators](https://www.gov.ca.gov/2020/04/14/governor-newsom-outlines-six-critical-indicators-the-state-will-consider-before-modifying-the-stay-at-home-order-and-other-covid-19-interventions/) will be considered before modifying the state’s stay home order to allow additional activity under the [Resilience Roadmap](https://covid19.ca.gov/roadmap/#top).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The order went into effect on Thursday, March 19, 2020. The order is in place until further notice. It covers the whole state of California.\n\nAs of May 8, the stay home order was modified. In addition to essential activity, retail is allowed, along with the infrastructure to support it. As of May 12, offices, limited services, and outdoor museums are also permitted to open.\n\nSix key health and scientific [indicators](https://www.gov.ca.gov/2020/04/14/governor-newsom-outlines-six-critical-indicators-the-state-will-consider-before-modifying-the-stay-at-home-order-and-other-covid-19-interventions/) will be considered before modifying the state’s stay home order to allow additional activity.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C9" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -619,7 +619,7 @@
         <v>What’s open statewide?</v>
       </c>
       <c r="B10" t="str">
-        <v>**Essential services** that protect public health, public safety, and provide essential needs will remain open, such as:\n\n*   Gas stations \n*   Pharmacies\n*   Food: Grocery stores, farmers markets, food banks, convenience stores, take-out and delivery restaurants \n*   Banks \n*   Laundromats/laundry services \n*   Childcare\n*   Essential state and local government functions will also remain open, including law enforcement and offices that provide government programs and services.\n\n**Retailers** can open statewide. All will require modifications to support social distancing. This includes:\n\n*   Shopping malls\n*   Libraries\n*   Movie theaters and drive-in theaters (with modifications)\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\n**Offices** (in all sectors, not only critical infrastructure)\n\n**Limited services** which do not generally require close customer contact, such as: \n\n*   Pet grooming\n*   Dog walking\n*   Car washes\n*   Appliance repair\n*   Residential and janitorial cleaning\n*   Places of worship\n*   Plumbing\n\n**Outdoor museums**\n\n**Music, film, and TV production**\n\n**Professional sports (without live audiences)**\n\n**Schools and day camps**\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>**Essential services** that protect public health, public safety, and provide essential needs will remain open, such as:\n\n*   Gas stations \n*   Pharmacies\n*   Food: Grocery stores, farmers markets, food banks, convenience stores, take-out and delivery restaurants \n*   Banks \n*   Laundromats/laundry services \n*   Childcare\n*   Essential state and local government functions will also remain open, including law enforcement and offices that provide government programs and services.\n\n**Retailers** can open statewide. All will require modifications to support social distancing. This includes:\n\n*   Shopping malls (outdoor)\n*   Libraries\n*   Drive-in theaters (with modifications)\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\n**Offices** (critical infrastructure indoors and outdoors; non-critical infrastructure outdoor only)\n\n**Limited services** which do not generally require close customer contact, such as: \n\n*   Pet grooming\n*   Dog walking\n*   Car washes\n*   Appliance repair\n*   Residential and janitorial cleaning\n*   Limited services for places of worship\n*   Plumbing\n\n**Outdoor museums**\n\n**Music, film, and TV production**\n\n**Professional sports (without live audiences)**\n\n**Schools and day camps**\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C10" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -645,7 +645,7 @@
         <v>What’s closed statewide?</v>
       </c>
       <c r="B11" t="str">
-        <v>Statewide, the following are still closed:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person), except where supporting [essential workforce activities](https://covid19.ca.gov/essential-workforce/), including but not limited to providing housing solutions, COVID-19 response, and training and instruction for the essential workforce.\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n*   Recreational team sports\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
+        <v>Statewide, the following are closed:\n\n*   Bars, brewpubs, breweries, and pubs, both indoors and outdoors, unless they are offering sit-down, outdoor dine-in meals. Alcohol can only be sold in the same transaction as a meal.\n*   Public events and gatherings, like live audience sports \n*   Convention centers\n*   Theme parks and festivals\n*   Higher education (in person), except where supporting [essential workforce activities](https://covid19.ca.gov/essential-workforce/), including but not limited to providing housing solutions, COVID-19 response, and training and instruction for the essential workforce.\n*   Indoor playgrounds, like bounce centers, ball pits and laser tag\n*   Saunas and steam rooms\n*   Recreational team sports\n\nStatewide, the following must close indoor operations:\n\n*   Dine-in restaurants\n*   Wineries and tasting rooms\n*   Movie theaters\n*   Family entertainment centers\n*   Zoos and museums\n*   Cardrooms\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C11" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -671,7 +671,7 @@
         <v>What is open with county variance?</v>
       </c>
       <c r="B12" t="str">
-        <v>The following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Dine-in restaurants\n*   Hair salons and barber shops\n*   Casinos\n\nCounties that are approved to progress further into the Resilience Roadmap can decide to open the following industries but are strongly encouraged to wait until June 12, 2020:\n\n*   Family entertainment centers\n*   Restaurants, wineries and bars\n*   Zoos and museums\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Cardrooms and racetracks\n*   Campgrounds and outdoor recreation\n\nCounties that are approved to progress further into the Resilience Roadmap can decide to open the following industries but are strongly encouraged to wait until June 19, 2020:\n\n*   Personal services, like nail salons, body waxing and tattoo parlors\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Racetracks\n*   Casinos\n\nCounties that have remained on the County Monitoring List for 3 or more consecutive days are required to **close** some industries. The closures will apply for a minimum of three weeks and are subject to an extension based on epidemiologic indicators.\n\nThe following sectors must **close** indoor operations and activities unless they can be modified to operate outside or by pick-up:\n\n*   Gyms and fitness centers, like yoga and dance studios\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Indoor protests\n*   Offices for non-essential (non-critical infrastructure) sectors\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n*   Hair salons and barbershops\n*   Shopping malls\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C12" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -697,7 +697,7 @@
         <v>Is it safe to shop at open businesses?</v>
       </c>
       <c r="B13" t="str">
-        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/roadmap/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The risk of COVID-19 infection is still real for all Californians and continues to be fatal. That is why every business permitted to open should take every step humanly possible to reduce the risk of infection by following these [state guidelines](https://covid19.ca.gov/industry-guidance/#top).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C13" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -775,7 +775,7 @@
         <v>If I am not an Essential Critical Infrastructure Worker, can I still leave the house?</v>
       </c>
       <c r="B16" t="str">
-        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to engage in in-person worship and protest activities consistent with public health directives, to patronize local businesses, or to care for friends or family members who require assistance (as set forth below). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and comply with any other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. As described in more detail elsewhere in applicable state public health directives (including on this page), there are a wide range of circumstances in which you may leave your home or other place of residence, even if you are not an Essential Critical Infrastructure Worker. For example, you may leave your home to work at any business or other entity that is allowed to open, to engage in in-person worship and protest activities consistent with public health directives, to patronize local businesses, or to care for friends or family members who require assistance (as set forth under [Health care](https://covid19.ca.gov/healthcare/#top)). And errands like these are not the only reasons you may leave your home: you may also leave your home with or without a specific destination in mind (for example, to walk your dog, to engage in physical recreation, or simply to get some fresh air) as long as you maintain physical distancing and comply with any other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C16" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Are mass gatherings permitted?</v>
+        <v>Are gatherings permitted?</v>
       </c>
       <c r="B17" t="str">
-        <v>State public health directives prohibit professional, social and community mass gatherings. Gatherings are defined as—meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. All other mass gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, protest, funeral, banquet, event, outdoor, conference, symposium, rally, rallies, assembly, assemblies, convention, congregation, congregate, congregation, crowd, group, forum, worship --&gt;</v>
+        <v>State public health directives prohibit professional, social and community gatherings. Gatherings are defined as meetings or other events that bring together persons from multiple households at the same time for a shared or group experience in a single room, space, or place such as an auditorium, stadium, arena, large conference room, meeting hall, or other indoor or outdoor space. They pose an especially high danger of transmission and spread of COVID-19.\n\nOn May 25, 2020, in an effort to balance First Amendment interests with public health, the State Public Health Officer created an exception to the prohibition against mass gatherings for faith-based services and cultural ceremonies as well as protests. Those types of gatherings are now permitted indoors so long as they do not exceed 100 attendees or 25% of the capacity of the space in which the gathering is held, whichever is lower. State public health directives now do not prohibit in-person outdoor faith-based services or protests as long as face coverings are worn and physical distancing of 6 feet between persons or groups of persons from different households is maintained at all times. All other gatherings are prohibited until further notice, except as otherwise specifically permitted in state public health directives (including in applicable industry guidance).\n\nCrowds and limited physical distancing increase the risk for COVID-19. If you attended a protest, remember that confidential, free testing is available. [Find a testing location near you](https://urldefense.proofpoint.com/v2/url?u=https-3A__covid19.ca.gov_testing-2Dand-2Dtreatment_-23top&amp;d=DwMGaQ&amp;c=Lr0a7ed3egkbwePCNW4ROg&amp;r=yRsi0eKVK6Khc58oFC32XROAJ-JqVGBGabDv9P6148k&amp;m=Iul4bdNDGFuRu3rXHrxPHNWT2PT2bXFITW3YP1tzG94&amp;s=4qpOZ7lX1S5M_STTblq_XAQNu05ccIFwIyu4bvl9U3c&amp;e=). If you test negative it does not mean that you may not develop COVID-19 later on. Therefore, it is advisable that you self-isolate for 14 days if possible.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, protest, funeral, banquet, event, outdoor, conference, symposium, rally, rallies, assembly, assemblies, convention, congregation, congregate, congregation, crowd, group, forum, worship --&gt;</v>
       </c>
       <c r="C17" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -827,7 +827,7 @@
         <v>Can I get a haircut?</v>
       </c>
       <c r="B18" t="str">
-        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then hair salons and barber shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- barbering --&gt;</v>
+        <v>It depends. All indoor operations of hair salon and barbershops have closed in counties on the county monitoring list for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C18" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -879,7 +879,7 @@
         <v>Can I engage in political protest gatherings?</v>
       </c>
       <c r="B20" t="str">
-        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through six feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nState public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, and (2) physical distancing of six feet between persons or groups of persons from different households is maintained at all times. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and cloth face coverings are strongly recommended.\n\nParticipants must maintain a physical distance of six feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through 6 feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as you maintain a physical distance of 6 feet between persons or groups of persons from different households at all times. When you can’t maintain a safe physical distance of 6 feet from people not in your household, you must wear a face covering or mask. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are strongly recommended.\n\nIn counties that have been on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/) for three consecutive days, indoor protests are not currently permitted. State public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, (2) physical distancing of 6 feet between persons or groups of persons from different households is maintained at all times, and (3) singing and chanting activities are discontinued. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are required in compliance with CDPH directives.\n\nParticipants must maintain a physical distance of 6 feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C20" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Can I go to church for worship or a funeral?</v>
+        <v>Can I go to church?</v>
       </c>
       <c r="B22" t="str">
-        <v>Yes. As of May 25, places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, worship, temple, wedding, funeral, baptism --&gt;</v>
+        <v>Yes. Places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). In counties on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/), indoor services in places of worship must be discontinued but outdoor and online services are permitted.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C22" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>What conditions must be met to resume religious services at places of worship?</v>
+        <v>What conditions must be met to resume religious services and cultural ceremonies at places of worship?</v>
       </c>
       <c r="B24" t="str">
-        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, congregants engaging in singing, particularly in the choir, and group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower. Local Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of six feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be in effect for the first 21 days of a county public health department’s approval of religious services and cultural ceremonies activities at places of worship within their jurisdictions.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, singing and chanting activities must be discontinued at indoor services, and congregants engaging in group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower, and singing and chanting activities must be discontinued in indoor services. In counties on the County Monitoring List for three consecutive days, places of worship must discontinue indoor services.\n\nLocal Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of 6 feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be regularly reviewed by the California Department of Public Health.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C24" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1009,7 +1009,7 @@
         <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
       </c>
       <c r="B25" t="str">
-        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least six feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least 6 feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C25" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1035,7 +1035,7 @@
         <v>When will these conditions change for places of worship?</v>
       </c>
       <c r="B26" t="str">
-        <v>Every 21 days, the California Department of Public Health, in consultation with county Departments of Public Health, will review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship. This is because COVID-19 has an incubation period of 14 days; the 21-day interval accounts for this incubation period and provides for an additional seven days for thorough review, analysis, and preparation of modifications.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The California Department of Public Health, in consultation with county Departments of Public Health, will regularly review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C26" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1061,7 +1061,7 @@
         <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
       </c>
       <c r="B27" t="str">
-        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of six feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of 6 feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C27" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1087,7 +1087,7 @@
         <v>Can I walk my dog? Take my pet to the vet?</v>
       </c>
       <c r="B28" t="str">
-        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to distance yourself at least six feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to wear a face covering and distance yourself at least 6 feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C28" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1113,7 +1113,7 @@
         <v>Can I visit State Parks? What outdoor spaces are open?</v>
       </c>
       <c r="B29" t="str">
-        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, wedding, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
+        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
       </c>
       <c r="C29" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1139,7 +1139,7 @@
         <v>Can I travel?</v>
       </c>
       <c r="B30" t="str">
-        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face cloth covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, travel, gathering, tourism, funeral, motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nYou should check with the local health department where you are starting from, along your route, and at your planned destination for information. Know that local rules are constantly changing and may change even after you start your trip. [Check for travel updates](https://www.visitcalifornia.com/latest-covid-19-coronavirus) before you leave your home.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, travel, gathering, tourism, funeral, motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C30" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1165,7 +1165,7 @@
         <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
       </c>
       <c r="B31" t="str">
-        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a cloth mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n\n*   On June 26, the DMV will begin behind-the-wheel driving tests. The DMV will reschedule all cancelled driving test appointments. New behind-the-wheel driving tests will not be available until all cancelled appointments are completed. \n    *   [For the health and safety of drivers and DMV staff](https://www.dmv.ca.gov/portal/news-and-media/dmv-resumes-behind-the-wheel-drive-tests-with-new-protocols-on-friday/), you must wear a face covering and will have your temperature checked before the test.\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   All drivers licenses expiring between March 1 through July 31, 2020\n    *   Drivers 70 years of age and older will receive a 120-day paper extension.\n    *   Drivers 69 years of age and younger can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive.\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020.\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago.\n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n*   On June 26, the DMV will begin behind-the-wheel driving tests. The DMV will reschedule all cancelled driving test appointments. New behind-the-wheel driving tests will not be available until all cancelled appointments are completed. \n    *   [For the health and safety of drivers and DMV staff](https://www.dmv.ca.gov/portal/news-and-media/dmv-resumes-behind-the-wheel-drive-tests-with-new-protocols-on-friday/), you must wear a face covering and will have your temperature checked before the test.\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   Drivers 70 years of age and older with licenses expiring between March 1 through December 31, 2020 are valid for one year from the original expiration date.\n*   Drivers 69 years of age and younger with licenses expiring between March 1 through July 31, 2020 can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive.\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020.\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago.\n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C31" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>How well do cloth face coverings to prevent spread of COVID-19?</v>
+        <v>How well do face coverings prevent spread of COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>There is scientific evidence to suggest that use of cloth face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Cloth face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>There is scientific evidence to suggest that use of face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>What is a cloth face covering?</v>
+        <v>What is a face covering?</v>
       </c>
       <c r="B35" t="str">
-        <v>A cloth face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A cloth face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>A face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>How should I care for a cloth face covering?</v>
+        <v>How should I care for a face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>It’s a good idea to [wash your cloth face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep cloth face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your cloth face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard cloth face coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Can a senior, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
+        <v>Can a senior over 65, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
       </c>
       <c r="B51" t="str">
-        <v>All patients with full-service Medi-Cal or commercial insurance in California will have copays, coinsurance and deductibles waived for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have [copays, coinsurance and deductibles waived](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -2205,7 +2205,7 @@
         <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B71" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe SBA has resumed accepting PPP loan applications from approved lenders. The PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1% for up to 2 years. The loan is forgivable if 75% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before June 30, 2020. In addition to payroll costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off. Check the [Fact Sheet](https://home.treasury.gov/system/files/136/PPP--Fact-Sheet.pdf?mod=article_inline) and [Frequently Asked Questions](https://home.treasury.gov/system/files/136/Paycheck-Protection-Program-Frequently-Asked-Questions.pdf), and see [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away.\n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1%. For all loans made on or after June 5, the minimum term is five years. For loans made before June 5, the two-year minimum maturity remains in effect unless both the borrower and the lender agree to extend it to five years. The loan is forgivable if 60% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before December 31, 2020. In addition to payroll and benefits costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off.\n\nThe SBA is accepting PPP loan applications from approved lenders. The new deadline to apply for a PPP loan is August 8, 2020. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away. See [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. \n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2257,7 +2257,7 @@
         <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B73" t="str">
-        <v>You can find this on the Paycheck Protection Program’s Loan Forgiveness Application. The application provides detailed instructions on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the [Loan Forgiveness Application](https://content.sba.gov/sites/default/files/2020-05/3245-0407%20SBA%20Form%203508%20PPP%20Forgiveness%20Application.pdf) and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s [Loan Forgiveness Application](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20%28Revised%206.16.2020%29-fillable_0-508.pdf). The application provides detailed [instructions](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20Instructions%20%28Revised%206.16.2020%29-508.pdf) on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the Loan Forgiveness Application and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2413,7 +2413,7 @@
         <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B79" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers. If your county has received state approval to move further into the reopening [roadmap](https://covid19.ca.gov/roadmap/), you may find your industry guidance on the [County Variance](https://covid19.ca.gov/roadmap-counties/) page.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>What action is the state taking to ensure all schools are providing meaningful instruction during the pandemic whether they are physically open or closed?</v>
       </c>
       <c r="B82" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   California has made $5.3 billion in investments to support safe reopening and rigorous distance learning.\n*   Funds prioritize low-income students, English language learners, and special education students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C82" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>What determines whether schools are conducting in-person learning or distance learning?</v>
       </c>
       <c r="B83" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Using health data, schools can physically open when its county has been off the Monitoring List for 14 days and only if they follow strict health and safety requirements like masks and physical distancing. [Find the County Monitoring List here.](https://covid19.ca.gov/roadmap-counties/#track-data)\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C83" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>What are the health and safety requirements for schools doing in-person learning?</v>
       </c>
       <c r="B84" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   Everyone entering the school must do daily health checks.\n*   If someone experiences symptoms while at school, they will be sent home.\n*   Masks are required for all staff and students 3rd grade and above. Younger students should be encouraged to wear masks.\n*   Staff members must maintain 6ft distance from each other and students. Students should maintain 6ft distance as practicable.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C84" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>What happens if someone gets COVID-19 at my child’s school?</v>
       </c>
       <c r="B85" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   A classroom goes home when there is a confirmed case\n*   A school should switch to distance learning when there are multiple positive cases in multiple classroom cohorts\n*   A district should switch to distance learning if 25% of schools in the district are closed within a 14-day period\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>If my child’s school is engaged in distance learning, what should I expect?</v>
       </c>
       <c r="B86" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   New statewide requirements include:\n    *   Access to devices and connectivity for all students\n    *   Daily live interaction with teachers and other students\n    *   Classes and assignments that are challenging and are equivalent to in-person instruction\n    *   Special requirements for English language learners and special education students\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B87" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to move further into the reopening roadmap, visit [statewide industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nSome businesses and industry sectors may be open in counties that have received state approval to move further into the reopening roadmap, but are not yet permitted to reopen statewide. Visit [county variance](https://covid19.ca.gov/roadmap-counties/) to learn more.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C87" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D87" t="str">
         <v xml:space="preserve"> </v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B88" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C88" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D88" t="str">
         <v xml:space="preserve"> </v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B89" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C89" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D89" t="str">
         <v xml:space="preserve"> </v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B90" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C90" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D90" t="str">
         <v xml:space="preserve"> </v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B91" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C91" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D91" t="str">
         <v xml:space="preserve"> </v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B92" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to reopen, visit [industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B93" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C93" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B94" t="str">
-        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C94" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B95" t="str">
-        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C95" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D95" t="str">
         <v xml:space="preserve"> </v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>How long will these programs last?</v>
+        <v>Can I file a workplace safety complaint?</v>
       </c>
       <c r="B96" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Yes, you have the right to file a complaint. Find [information and instructions](https://www.dir.ca.gov/dosh/complaint.htm) for how to file a complaint. If you submit a complaint, your name must be kept confidential by law.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C96" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D96" t="str">
         <v xml:space="preserve"> </v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B97" t="str">
-        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C97" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D97" t="str">
         <v xml:space="preserve"> </v>
@@ -2904,13 +2904,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B98" t="str">
-        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C98" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D98" t="str">
         <v xml:space="preserve"> </v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B99" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C99" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D99" t="str">
         <v xml:space="preserve"> </v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B100" t="str">
-        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C100" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D100" t="str">
         <v xml:space="preserve"> </v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B101" t="str">
-        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B102" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C102" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> </v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B103" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C103" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D103" t="str">
         <v xml:space="preserve"> </v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B104" t="str">
-        <v>Yes, there are protections in effect through July 28, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C104" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D104" t="str">
         <v xml:space="preserve"> </v>
@@ -3086,13 +3086,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B105" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C105" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D105" t="str">
         <v xml:space="preserve"> </v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B106" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C106" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D106" t="str">
         <v xml:space="preserve"> </v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B107" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C107" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D107" t="str">
         <v xml:space="preserve"> </v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B108" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C108" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D108" t="str">
         <v xml:space="preserve"> </v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B109" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C109" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D109" t="str">
         <v xml:space="preserve"> </v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B110" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, there are protections in effect through September 30, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C110" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D110" t="str">
         <v xml:space="preserve"> </v>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B111" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C111" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D111" t="str">
         <v xml:space="preserve"> </v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Counties:</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B112" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C112" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B113" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nLearn more about the state’s [roadmap to recovery](https://covid19.ca.gov/roadmap/) and the list of [counties who have met the criteria](https://covid19.ca.gov/roadmap-counties/) to move further ahead in the Resilience Roadmap.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C113" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D113" t="str">
         <v xml:space="preserve"> </v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B114" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C114" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D114" t="str">
         <v xml:space="preserve"> </v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B115" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) are dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR has also developed density and health care guidance to protect all inmates and staff, and has suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020, or 60 calendar days after the date of the child’s enrollment, whichever is longer. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C115" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D115" t="str">
         <v xml:space="preserve"> </v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B116" t="str">
-        <v>Court operations vary from county to county. Please reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C116" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D116" t="str">
         <v xml:space="preserve"> </v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B117" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C117" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> </v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>County websites:</v>
       </c>
       <c r="B118" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C118" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D118" t="str">
         <v xml:space="preserve"> </v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B119" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nSee what [industries are open or closed](https://covid19.ca.gov/roadmap-counties/#track-data) in your county.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C119" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D119" t="str">
         <v xml:space="preserve"> </v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B120" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C120" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D120" t="str">
         <v xml:space="preserve"> </v>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>How do I apply?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B121" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) is dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR also requires ongoing testing for all staff working in adult institutions, suspended non-essential transfer of inmates, and suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C121" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D121" t="str">
         <v xml:space="preserve"> </v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B122" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C122" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D122" t="str">
         <v xml:space="preserve"> </v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>Do I have to report to jury duty if summoned?</v>
       </c>
       <c r="B123" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information about jury duty.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)&lt;!-- jury duty, summons, courts, court, court operations--&gt;</v>
       </c>
       <c r="C123" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D123" t="str">
         <v xml:space="preserve"> </v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How long do I have to apply?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B124" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B125" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B126" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/img/wp/listos_covid_19_immigrant_guidance_en_daf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Youth and Teens</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B127" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,13 +3684,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Veterans</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B128" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C128" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D128" t="str">
         <v xml:space="preserve"> </v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B129" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C129" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D129" t="str">
         <v xml:space="preserve"> </v>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Older Californians</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B130" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C130" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D130" t="str">
         <v xml:space="preserve"> </v>
@@ -3762,13 +3762,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B131" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C131" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D131" t="str">
         <v xml:space="preserve"> </v>
@@ -3788,13 +3788,13 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B132" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C132" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D132" t="str">
         <v xml:space="preserve"> </v>
@@ -3814,13 +3814,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B133" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C133" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D133" t="str">
         <v xml:space="preserve"> </v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>What is a close contact?</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B134" t="str">
-        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,13 +3866,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Will contact tracers track my location?</v>
+        <v>Veterans</v>
       </c>
       <c r="B135" t="str">
-        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C135" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D135" t="str">
         <v xml:space="preserve"> </v>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Is contact tracing help available in my language?</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B136" t="str">
-        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C136" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D136" t="str">
         <v xml:space="preserve"> </v>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Who should get tested?</v>
+        <v>Older Californians</v>
       </c>
       <c r="B137" t="str">
-        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C137" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D137" t="str">
         <v xml:space="preserve"> </v>
@@ -3944,13 +3944,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B138" t="str">
-        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C138" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D138" t="str">
         <v xml:space="preserve"> </v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B139" t="str">
-        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C139" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D139" t="str">
         <v xml:space="preserve"> </v>
@@ -3996,13 +3996,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B140" t="str">
-        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and isolate yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C140" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D140" t="str">
         <v xml:space="preserve"> </v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>How do I become a contact tracer?</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B141" t="str">
-        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C141" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>County case metrics</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B142" t="str">
-        <v>**Stable or down trending hospitalizations**\n\n*   Stable hospitalizations of COVID individuals on a 7-day average of daily percent change of less than 5% **OR** no more than 20 COVID hospitalizations on any single day in the past 14 days \n\n**Cases per population count and test positivity rate**\n\n*   Less than 25 new cases per 100,000 residents in the past 14 days **OR** less than 8% testing positive in the past 7 days\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C142" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D142" t="str">
         <v xml:space="preserve"> </v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>County preparedness</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B143" t="str">
-        <v>**Testing capacity** \n\n*   Minimum daily testing volume to test 1.5 per 1,000 residents, which can be met through a combination of testing of symptomatic individuals and targeted surveillance.  The county’s average daily testing volume for the past week must be provided.  If the county does not believe a testing volume of 1.5 per 1,000 residents is merited, justification must be provided. \n*   Testing availability for at least 75% of residents, as measured by a specimen collection site (including established health care providers) within 30 minutes driving time in urban areas, and 60 minutes in rural areas. \n\n**Contact tracing** \n\n*   Sufficient contact tracing so public health staff work can work with a patient to help them recall everyone with whom they have had close contact during the timeframe while they may have been infectious.  For counties that have no cases, there should be at least 15 staff per 100,000 county population trained and available for contact tracing; for counties with small populations, there must be at least one staff person trained and available.  \n\n**Hospital surge**\n\n*   County (or regional) hospital capacity to accommodate a minimum surge of 35% due to COVID-19 cases in addition to providing usual care for non-COVID-19 patients.  \n\n**SNF disease outbreak prevention and containment**\n\n*   Must have plans to prevent and mitigate infections in skilled nursing facilities (SNF)\n*   Skilled nursing facilities must have more than a 14 day supply of PPE on hand for staff, with an established process for ongoing procurement from non-state supply chains.  \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C143" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D143" t="str">
         <v xml:space="preserve"> </v>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>County response</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B144" t="str">
-        <v>*   Counties must produce plans for the following related to county-wide containment:\n    *   Availability of temporary housing units to shelter at least 15% of county residents experiencing homelessness in case of an outbreak among this population requiring isolation and quarantine of affected individuals. The county’s plans to support individuals, including those experiencing homelessness, who are not able to properly isolate in a home setting by providing them with temporary housing (including access to a private bathroom), for the duration of the necessary isolation or quarantine period must be described.\n\n*   County (or regional) hospital facilities have a robust plan to protect the hospital workforce, both clinical and nonclinical, with PPE.  \n*   Guidance for employers and essential critical infrastructure workplaces on how to structure the physical environment to protect essential workers.  \n*   Availability of supplies (disinfectant, essential protective gear) to protect essential workers. \n*   Each county must provide details on their plans to move further ahead in the Resilience Roadmap including which sectors and spaces will be opened, in what sequence, on what timeline.  Please specifically indicate where the plan differs from the state’s order.  Please note that this variance should not include sectors that are part of Stage 3.\n*   County metrics that would serve as triggers for either slowing the pace through Stage 2 or tightening modifications, including the frequency of measurement, the specific actions triggered by metric changes must be described, and how the county will inform the state of emerging concerns and how it will implement early containment measures. \n*   The county must provide details on the plan to move through opening sectors and spaces that are part of the State’s plan for Stage 2. A reminder, that this variance only covers those areas that are part of Stage 2, up to, but not including Stage 3. \n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C144" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D144" t="str">
         <v xml:space="preserve"> </v>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dine-in restaurants</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B145" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C145" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D145" t="str">
         <v xml:space="preserve"> </v>
@@ -4152,13 +4152,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B146" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C146" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D146" t="str">
         <v xml:space="preserve"> </v>
@@ -4178,13 +4178,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Casinos</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B147" t="str">
-        <v>In working with tribal governments, CDPH and DIR has released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C147" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D147" t="str">
         <v xml:space="preserve"> </v>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>How do I become a contact tracer?</v>
       </c>
       <c r="B148" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C148" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D148" t="str">
         <v xml:space="preserve"> </v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Affected counties as of 7/16/20</v>
       </c>
       <c r="B149" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Alameda\n*   Colusa\n*   Contra Costa\n*   Fresno\n*   Glenn\n*   Imperial\n*   Kings\n*   Los Angeles\n*   Madera\n*   Marin\n*   Merced\n*   Monterey\n*   Napa\n*   Orange\n*   Placer\n*   Riverside\n*   Sacramento\n*   San Benito\n*   San Bernardino\n*   San Diego\n*   San Joaquin\n*   San Luis Obispo\n*   Santa Barbara\n*   Santa Clara\n*   Solano\n*   Sonoma\n*   Stanislaus\n*   Sutter\n*   Tulare\n*   Yolo\n*   Yuba\n*   Ventura\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Zoos and museums</v>
+        <v>For attested counties not on Monitoring List</v>
       </c>
       <c r="B150" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Dine-in restaurants (outdoors only)\n*   Wineries and tasting rooms (outdoors only)\n*   Family entertainment centers (outdoors only)\n*   Zoos and museums (outdoors only)\n*   Cardrooms (outdoors only)\n*   Hair salons and barbershops\n*   Casinos\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>For counties on Monitoring List for 3 consecutive days</v>
       </c>
       <c r="B151" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](http://covid19.ca.gov/pdf/guidance-fitness.pdf) to create a safer environment for workers and patrons.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Casinos\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n\nThe following industries must close indoor operations, but they may be modified to operate outside or by pick-up:\n\n*   Dine-in restaurants\n*   Wineries and tasting rooms\n*   Movie theaters \n*   Family entertainment centers (for example: bowling alleys, miniature golf, batting cages and arcades)\n*   Zoos and museums\n*   Cardrooms\n*   Hair salons and barbershops\n*   Gyms and fitness centers\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Offices for non-critical infrastructure sectors\n*   Shopping malls \n\nNOTE: Imperial County is open to the essential workforce only (Stage One). Alameda County does not have an attestation and can only have open those industries which are open statewide.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C151" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>For counties without attestations</v>
       </c>
       <c r="B152" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nThis guidance is applicable only within counties with variance attestation. Hotel and lodging services in all other counties should adhere to the guidance limitations provided by [statewide guidance](https://covid19.ca.gov/pdf/guidance-hotels.pdf), where hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C152" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Northern California</v>
       </c>
       <c r="B153" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Alturas (Modoc County)\n*   American Canyon (Napa County)\n*   Antioch (Contra Costa County)\n*   Atascadero (San Luis Obispo County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Calistoga (Napa County)\n*   Calpine (Sierra County)\n*   Cedarville (Modoc County)\n*   Ceres (Sanislaus County)\n*   Chowchilla (Madera County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Corcoran (King County)\n*   Corona (King County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Dinuba (Tulare County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Elk Grove (Sacramento County)\n*   Exeter (Tulare County)\n*   Farmersville (Tulare County)\n*   French Camp (San Joaquin County)\n*   Fresno (Fresno County)\n*   Gridley (Butte County)\n*   Half Moon Bay (San Mateo County)\n*   Hanford (King County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kerman (Fresno County)\n*   Lakeport (Lake County)\n*   Lemoore (King County)\n*   Lewiston (Trinity County)\n*   Livingston (Merced County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Magalia (Butte County)\n*   Mammoth Lakes (Mono County)\n*   Markleeville (Alpine County)\n*   Merced (Merced County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   North San Juan (Nevada County)\n*   Oakland (Alameda County)\n*   Placerville (El Dorado County)\n*   Portarville (Tulare County)\n*   Redding (Shasta County)\n*   Redwood City (San Mateo County)\n*   Reedley (Fresno County)\n*   Rio Linda (Sacramento County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Bruno (San Mateo County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Santa Rosa (Sonoma County)\n*   Selma (Fresno County)\n*   St. Helena (Napa County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Tracy (San Joaquin County)\n*   Tulare (Tulare County)\n*   Turlock (Stanislaus County)\n*   Upper Lake (Lake County)\n*   Vallejo (Solano County)\n*   Visalia (Tulare County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n\n*   Woodlake (Tulare County)\n*   Woodland (Yolo County)\n*   Willow Creek (Humboldt County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C153" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D153" t="str">
         <v xml:space="preserve"> </v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Southern California</v>
       </c>
       <c r="B154" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, wedding, hike, walk, bike, exercise, nature, birdwatch, guided, tour, hunt, boat, cabin, bonfire, campsite, amphitheater, sport, court, rental, public, trail, marina, bonfire, campsite,  --&gt;</v>
+        <v>*   Alpine (San Diego County) \n*   Anaheim (Orange County)\n*   Apple Valley (San Bernardino County)\n*   Bakersfield (Kern County)\n*   Banning (Riverside County)\n*   Barstow (San Bernardino County)\n*   Beaumont (Riverside County)\n*   Bell (Los Angeles County)\n*   Blythe (Riverside County)\n*   Calexico (Imperial County)\n*   Cochella (Riverside County)\n*   Compton (Los Angeles County)\n*   Costa Mesa (Orange County)\n*   Delano (Kern County)\n*   Desert Hot Springs (Riverside County)\n*   El Centro (Imperial County)\n*   Fallbrook (San Diego)\n*   Fontana (San Bernardino County)\n*   Fullerton (Orange County)\n*   Gardena (Los Angeles County)\n*   Hemet (Riverside County)\n*   Hesperia (San Bernardino County)\n*   Indio (Riverside County)\n*   La Habra (Orange County)\n*   Lake Elsinore (Riverside County)\n*   Lamont (Kern County)\n*   Lancaster (Los Angeles County)\n*   Lemon Grove (San Diego County)\n*   Los Angeles (Los Angeles County)\n*   McFarland (Kern County)\n*   Oceanside (San Diego)\n*   Ontario (San Bernardino County)\n*   Palmdale (Los Angeles County)\n*   Paramount (Los Angeles County)\n*   Pasadena (Los Angeles County)\n*   Perris (Riverside County)\n*   Phelan (San Bernardino County)\n*   Pico Rivera (Los Angeles County)\n*   Pomona (Los Angeles County)\n*   Port Hueneme (Ventura County)\n*   Riverside (Riverside County)\n*   Rosamond (Kern County)\n*   San Jucinta (Riverside County)\n*   San Juan Capistrano (Orange County)\n*   Santa Maria (Santa Barbara County)\n*   Santa Paula (Ventura County)\n*   Shafter (Kern County)\n*   Valley Center (San Diego County)\n*   Victorville (San Bernardino County)\n*   Wasco (Kern County) \n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C154" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> </v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Personal care services</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B155" t="str">
-        <v>Follow this [guidance for personal care services](https://files.covid19.ca.gov/pdf/expanded-personal-services--en.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)&lt;!-- spa, esthetician, facial, electrolysis, waxing, massage office, massage clinic, massage therapist, massage parlor, masseuse, skin care, cosmetology services, electrology, massage therapy --&gt;</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C155" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D155" t="str">
         <v xml:space="preserve"> </v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Northern California</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B156" t="str">
-        <v>*   American Canyon (Napa County)\n*   Alturas (Modoc County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Bridgeport (Mono County)\n*   Cedarville (Modoc County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Half Moon Bay (San Mateo County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kirkwood (Alpine and Amador Counties)\n*   Lakeport (Lake County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Mammoth Lakes (Mono County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   Oakland (Alameda County)\n*   Quincy (Plumas County)\n*   Redwood City (San Mateo County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n*   Willow Creek (Humboldt County)\n*   Woodfords (Alpine County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C156" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Southern California</v>
+        <v>Do I need emergency treatment?</v>
       </c>
       <c r="B157" t="str">
-        <v>*   Bell (Los Angeles County)\n*   Bakersfield (Kern County)\n*   Lake Elsinore (Riverside County)\n*   Long Beach (Los Angeles County)\n*   Los Angeles (Los Angeles County)\n*   Sherman Oaks (Los Angeles County)\n*   Van Nuys (Los Angeles County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nIf you’re not sure if this applies to you, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B158" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>When can I be around other people after I had or likely had COVID-19?</v>
       </c>
       <c r="B159" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>You can be with others after:\n\n*   3 days with no fever **and**\n*   Respiratory symptoms have improved (e.g. cough, shortness of breath) **and**\n*   10 days since symptoms first appeared\n\n[CDPH](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/Expanding-Access-to-Testing-Updated-Interim-Guidance-on-Prioritization-for-COVID-19-Laboratory-Testing-0501.aspx) and [CDC](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/end-home-isolation.html) have detailed recommendations for quarantine/isolation, if you are sick with COVID-19 or tested positive for coronavirus.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C159" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B160" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C160" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>What is an antibody test? Where can I get an antibody test?</v>
       </c>
       <c r="B161" t="str">
-        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>[Antibody tests](https://www.cdc.gov/coronavirus/2019-ncov/testing/serology-overview.html) detect past infections (but not current infections). They are used to detect past COVID-19 infections in an individual and can be used to determine if you are a good candidate to [donate blood plasma](https://covid19.ca.gov/plasma). It can take 1-3 weeks after infection for your body to make antibodies. \n\nYou can find locations for both viral and antibody [tests](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401) on [California’s testing map](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C161" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>When should I seek emergency medical assistance (e. g. go to hospital for treatment, etc.) for COVID-19 / Coronavirus Symptoms?</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B162" t="str">
-        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C162" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D162" t="str">
         <v xml:space="preserve"> </v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B163" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C163" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B164" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C164" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B165" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C165" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B166" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C166" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Resources for the California Health Corps participants</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B167" t="str">
-        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   EMSA Pocket Travel Guide: [EMSA-Pocket-Travel-Guide (PDF)](https://covid19.ca.gov/pdf/EMSA-Pocket-Travel-Guide.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel Info: [CA-Health-Corps-Travel-Info (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-Travel-Info.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C167" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B168" t="str">
-        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C168" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D168" t="str">
         <v xml:space="preserve"> </v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Agriculture and livestock</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B169" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C169" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Auto dealerships</v>
+        <v>Childcare – Updated July 17!</v>
       </c>
       <c r="B170" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](https://files.covid19.ca.gov/pdf/guidance-childcare--en.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C170" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Childcare</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B171" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](https://files.covid19.ca.gov/pdf/guidance-childcare--en.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Communications infrastructure</v>
+        <v>Construction</v>
       </c>
       <c r="B172" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Construction</v>
+        <v>Day camps – Updated July 17!</v>
       </c>
       <c r="B173" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The updated [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Day camps</v>
+        <v>Delivery services</v>
       </c>
       <c r="B174" t="str">
-        <v>The [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- skill, clinic, youth, sports, league, recreational, team --&gt;</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Delivery services</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B175" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Energy and utilities</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B176" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Food packing</v>
       </c>
       <c r="B177" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Food packing</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B178" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers and customers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Hotels and lodging</v>
+        <v>Life sciences</v>
       </c>
       <c r="B179" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers and customers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Life sciences</v>
+        <v>Limited services</v>
       </c>
       <c r="B180" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- laundromat, dry cleaner, laundry, auto repair, car wash, landscaper, door to door, sales, pet groom, dog walk, entry to private residences, community 2 facilities, residential, janitorial, cleaning services, house keep, house clean, HVAC, appliance repair, electrician, plumbers, mechanical trade, handyperson, handyman, general contractors, lessees, subcontractors --&gt;</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Limited services</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B181" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B182" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Manufacturing</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B183" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Mining and logging</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B184" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B185" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Office workspaces</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B186" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Outdoor museums</v>
+        <v>Places of worship and cultural ceremonies</v>
       </c>
       <c r="B187" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) and cultural ceremonies, like weddings and funerals, provides guidelines to create a safer environment for workers and visitors. Guidance last updated July 6, 2020. Review the guidance, prepare a plan, and post the [checklist for places of worship](https://files.covid19.ca.gov/pdf/checklist-places-of-worship.pdf) and cultural ceremonies in your workplace to show workers and visitors that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Places of worship</v>
+        <v>Ports</v>
       </c>
       <c r="B188" t="str">
-        <v>This [guidance for the places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) provides guidelines to create a safer environment for staff and visitors.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Ports</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B189" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B190" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B191" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Real estate transaction</v>
+        <v>Retail</v>
       </c>
       <c r="B192" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Retail</v>
+        <v>Schools – Updated July 17!</v>
       </c>
       <c r="B193" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [updated guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines for in-person learning and distance learning. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nSchools have been closed for in-person instruction since mid-March 2020 due to the COVID-19 pandemic. School closures to in-person instruction were part of a broader set of recommendations intended to reduce the spread of COVID-19. For more detailed direction on measures to be taken when a student, teacher, or staff member has symptoms or is diagnosed with COVID-19, please see the [COVID-19 and Reopening Framework for K-12 Schools in California](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Schools%20Reopening%20Recommendations.pdf).\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C193" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Schools</v>
+        <v>Support for working families</v>
       </c>
       <c r="B194" t="str">
-        <v>This [interim guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines to create a safer environment for student, family, and staff populations. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [support for working families](http://files.covid19.ca.gov/pdf/guidance-supportworkingfamilies--en.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C194" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Support for working families</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B195" t="str">
-        <v>The [support for working families](http://files.covid19.ca.gov/pdf/guidance-supportworkingfamilies--en.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Shopping centers</v>
+        <v>Take-out restaurants</v>
       </c>
       <c r="B196" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Statewide industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for restaurants providing take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C196" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5478,13 +5478,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B197" t="str">
-        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C197" t="str">
-        <v>https://covid19.ca.gov/plasma/</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D197" t="str">
         <v xml:space="preserve"> </v>
@@ -5504,13 +5504,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Where can I apply for unemployment?</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B198" t="str">
-        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers and customers. Review the guidance, prepare a plan, and post the [checklist for hair salons](https://files.covid19.ca.gov/pdf/checklist-hair-salons.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C198" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D198" t="str">
         <v xml:space="preserve"> </v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v xml:space="preserve">Can I go to the movies? </v>
+        <v>Casinos</v>
       </c>
       <c r="B199" t="str">
-        <v>Yes, movie theaters and drive-in movie theaters can open statewide with modifications to support physical distancing. &lt;!-- film, imax --&gt;</v>
+        <v>In working with tribal governments, CDPH and DIR have released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for casinos](https://files.covid19.ca.gov/pdf/checklist-casinos.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C199" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D199" t="str">
         <v xml:space="preserve"> </v>
@@ -5556,13 +5556,13 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Are hotels allowed to open?</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B200" t="str">
-        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations. &lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for movie theaters and family entertainment centers](https://files.covid19.ca.gov/pdf/checklist-family-entertainment.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C200" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D200" t="str">
         <v xml:space="preserve"> </v>
@@ -5582,13 +5582,13 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Are restaurants allowed to open?</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B201" t="str">
-        <v>Restaurants across the state can be open for take out or delivery services. [Restaurants, bars, wineries and lounges](https://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) may be open [only in counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx). &lt;!-- food, pub, brew, craft distilleries --&gt;</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for restaurants, wineries, and bars](https://files.covid19.ca.gov/pdf/checklist-restaurants-bars.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C201" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D201" t="str">
         <v xml:space="preserve"> </v>
@@ -5608,13 +5608,13 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Can I get my nails done? Can I get a massage? Can I get a facial? Can I get a tattoo?</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B202" t="str">
-        <v>It depends. If your county has been approved to move further in the Resilience Roadmap, then personal care services like nail salons, massage clinics, skin care, tattoo parlors, and piercing shops may reopen in your area. See the list of [counties with a variance](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx).\n\nMore info: [Stay home Q&amp;Q](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for zoos, museums](https://files.covid19.ca.gov/pdf/checklist-zoos-museums.pdf), galleries, and aquariums in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C202" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D202" t="str">
         <v xml:space="preserve"> </v>
@@ -5634,13 +5634,13 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B203" t="str">
-        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
+        <v>Follow this [guidance for gyms and fitness centers](https://files.covid19.ca.gov/pdf/guidance-fitness--en.pdf), including yoga and dance studios, to create a safer environment for workers and patrons. Guidance last updated July 1, 2020. Review the guidance, prepare a plan, and post the [checklist for gyms and fitness centers](https://files.covid19.ca.gov/pdf/checklist-fitness.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C203" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D203" t="str">
         <v xml:space="preserve"> </v>
@@ -5658,9 +5658,399 @@
         <v>202</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Hotels (for tourism and individual travel)</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nThis guidance is applicable only within counties with variance attestation. Hotel and lodging services in all other counties should adhere to the guidance limitations provided by [statewide guidance](https://covid19.ca.gov/pdf/guidance-hotels.pdf), where hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+      </c>
+      <c r="C204" t="str">
+        <v>https://covid19.ca.gov/industry-guidance/</v>
+      </c>
+      <c r="D204" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E204" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F204" t="str">
+        <v>false</v>
+      </c>
+      <c r="G204" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H204" t="str">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Cardrooms and racetracks</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for cardrooms](https://files.covid19.ca.gov/pdf/checklist-cardrooms-racetracks.pdf), race tracks, and satellite wagering in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+      </c>
+      <c r="C205" t="str">
+        <v>https://covid19.ca.gov/industry-guidance/</v>
+      </c>
+      <c r="D205" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E205" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F205" t="str">
+        <v>false</v>
+      </c>
+      <c r="G205" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H205" t="str">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Campgrounds and outdoor recreation</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the checklist for campgrounds in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, wedding, hike, walk, bike, exercise, nature, birdwatch, guided, tour, hunt, boat, cabin, bonfire, campsite, amphitheater, sport, court, rental, public, trail, marina, bonfire, campsite,  --&gt;</v>
+      </c>
+      <c r="C206" t="str">
+        <v>https://covid19.ca.gov/industry-guidance/</v>
+      </c>
+      <c r="D206" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E206" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F206" t="str">
+        <v>false</v>
+      </c>
+      <c r="G206" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H206" t="str">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Personal care services</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Follow this [guidance for personal care services](https://files.covid19.ca.gov/pdf/expanded-personal-services--en.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for personal care services](https://files.covid19.ca.gov/pdf/checklist-expanded-personal-care-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+      </c>
+      <c r="C207" t="str">
+        <v>https://covid19.ca.gov/industry-guidance/</v>
+      </c>
+      <c r="D207" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E207" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F207" t="str">
+        <v>false</v>
+      </c>
+      <c r="G207" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H207" t="str">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Outdoor dining</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Follow this [guidance for restaurants providing outdoor dining, take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+      </c>
+      <c r="C208" t="str">
+        <v>https://covid19.ca.gov/industry-guidance/</v>
+      </c>
+      <c r="D208" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E208" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F208" t="str">
+        <v>false</v>
+      </c>
+      <c r="G208" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H208" t="str">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Is there a convalescent blood plasma donation center near me?</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
+      </c>
+      <c r="C209" t="str">
+        <v>https://covid19.ca.gov/plasma/</v>
+      </c>
+      <c r="D209" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E209" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F209" t="str">
+        <v>false</v>
+      </c>
+      <c r="G209" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H209" t="str">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Where can I apply for unemployment?</v>
+      </c>
+      <c r="B210" t="str">
+        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D210" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E210" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F210" t="str">
+        <v>false</v>
+      </c>
+      <c r="G210" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H210" t="str">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Are hotels allowed to open?</v>
+      </c>
+      <c r="B211" t="str">
+        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations. &lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D211" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E211" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F211" t="str">
+        <v>false</v>
+      </c>
+      <c r="G211" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H211" t="str">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
+      </c>
+      <c r="B212" t="str">
+        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D212" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E212" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F212" t="str">
+        <v>false</v>
+      </c>
+      <c r="G212" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H212" t="str">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>What is Larry David's advice?</v>
+      </c>
+      <c r="B213" t="str">
+        <v>&lt;blockquote class="twitter-tweet"&gt;&lt;p lang="en" dir="ltr"&gt;“You’re hurting old people like me. Well, not me... I’ll never see you.”&lt;br&gt;&lt;br&gt;Larry David wants everyone to stay home to protect older Californians from &lt;a href="https://twitter.com/hashtag/COVID19?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#COVID19&lt;/a&gt;! &lt;br&gt;He does not do these things. &lt;br&gt;Listen to Larry.&lt;a href="https://twitter.com/hashtag/StayHomeSaveLives?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#StayHomeSaveLives&lt;/a&gt;&lt;a href="https://t.co/snYe5v55Rw"&gt;https://t.co/snYe5v55Rw&lt;/a&gt; &lt;a href="https://t.co/C5cKOaAufE"&gt;pic.twitter.com/C5cKOaAufE&lt;/a&gt;&lt;/p&gt;&amp;mdash; Office of the Governor of California (@CAgovernor) &lt;a href="https://twitter.com/CAgovernor/status/1245110728199045120?ref_src=twsrc%5Etfw"&gt;March 31, 2020&lt;/a&gt;&lt;/blockquote&gt; &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D213" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E213" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F213" t="str">
+        <v>false</v>
+      </c>
+      <c r="G213" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H213" t="str">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Can I get my nails done? Can I get a massage? Can I get a facial? Can I get a tattoo?</v>
+      </c>
+      <c r="B214" t="str">
+        <v>It depends. All indoor operations of nail salons, tattoo parlors, and massage places have closed in counties on the county monitoring list for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D214" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E214" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F214" t="str">
+        <v>false</v>
+      </c>
+      <c r="G214" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H214" t="str">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v xml:space="preserve">Can I go to the movies? </v>
+      </c>
+      <c r="B215" t="str">
+        <v xml:space="preserve">Effective July 13, 2020, indoor movie theaters are closed in all counties. Drive-in movie theaters with modifications to support physical distancing may be open.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C215" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D215" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E215" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F215" t="str">
+        <v>false</v>
+      </c>
+      <c r="G215" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H215" t="str">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Can I go to a restaurant? Can I go to a winery or a brewery?</v>
+      </c>
+      <c r="B216" t="str">
+        <v xml:space="preserve">Indoor operations of all dine-in restaurants are closed in all counties. Restaurants across the state can be open for take out, drive through, delivery, and outdoor dining. \n\nIndoor operations for wineries and tasting rooms are closed in all counties. All bars, brewpubs, breweries, and pubs are closed statewide for both indoor and outdoor operations, unless they offer sit-down, outdoor dine-in meals. Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C216" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D216" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E216" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F216" t="str">
+        <v>false</v>
+      </c>
+      <c r="G216" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H216" t="str">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Are restaurants allowed to open?</v>
+      </c>
+      <c r="B217" t="str">
+        <v xml:space="preserve">Restaurants across the state can be open for [take out, drive through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf). Indoor operations for dine-in restaurants are closed in all counties. Bars, brewpubs, breweries, and pubs must close both indoor and outdoor operations unless they are offering [sit-down, outdoor dine-in meals](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf). Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Industry guidance](https://covid19.ca.gov/industry-guidance/) and [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C217" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D217" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E217" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F217" t="str">
+        <v>false</v>
+      </c>
+      <c r="G217" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H217" t="str">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Where can I find the list of essential critical infrastructure sectors?</v>
+      </c>
+      <c r="B218" t="str">
+        <v xml:space="preserve">Visit [Essential workforce](https://covid19.ca.gov/essential-workforce/) to learn about what workers and sectors are included. </v>
+      </c>
+      <c r="C218" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D218" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E218" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F218" t="str">
+        <v>false</v>
+      </c>
+      <c r="G218" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H218" t="str">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H203"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H218"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,7 +671,7 @@
         <v>What is open with county variance?</v>
       </c>
       <c r="B12" t="str">
-        <v>The following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Racetracks\n*   Casinos\n\nCounties that have remained on the County Monitoring List for 3 or more consecutive days are required to **close** some industries. The closures will apply for a minimum of three weeks and are subject to an extension based on epidemiologic indicators.\n\nThe following sectors must **close** indoor operations and activities unless they can be modified to operate outside or by pick-up:\n\n*   Gyms and fitness centers, like yoga and dance studios\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Indoor protests\n*   Offices for non-essential (non-critical infrastructure) sectors\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n*   Hair salons and barbershops\n*   Shopping malls\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The following may open only in [counties approved to move further in the Resilience Roadmap](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx):\n\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Racetracks\n*   Casinos\n\nCounties that have remained on the County Monitoring List for 3 or more consecutive days are required to **close** some industries.\n\nThe following sectors must **close** indoor operations and activities unless they can be modified to operate outside or by pick-up:\n\n*   Gyms and fitness centers, like yoga and dance studios\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Indoor protests\n*   Offices for non-essential (non-critical infrastructure) sectors\n*   Personal care services, like nail salons and body waxing\n*   Hair salons and barbershops\n*   Shopping malls\n\nShops that offer tattoos, piercings and electrolysis may not be operated outdoors and must close.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C12" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -827,7 +827,7 @@
         <v>Can I get a haircut?</v>
       </c>
       <c r="B18" t="str">
-        <v>It depends. All indoor operations of hair salon and barbershops have closed in counties on the county monitoring list for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It depends. Hair salons and barbershops are open in counties not on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/). However, all indoor operations for these businesses are closed in counties that are on this list. Outdoor hair services may be available.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C18" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -905,7 +905,7 @@
         <v>How do I vote?</v>
       </c>
       <c r="B21" t="str">
-        <v>Elections are an essential activity, and the [Governor has issued executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Additionally, many in-person voting opportunities will be available: counties are required to provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) starting the Saturday before the election, and open ballot drop-box locations between October 6 and November 3, 2020. The Secretary of State and the California Department of Public Health are working on additional guidance to ensure that all Californians are able to participate in elections safely. Except where suspended by Executive Order, existing laws addressing the use of vote-by-mail ballots in California elections remain in effect.\n\nOf course, whenever you engage in any permissible activity—including the collection and drop-off of ballots, or other election-related activities (such as the collection of signatures to qualify candidates or measures for the ballot)—adhere to physical distancing and other applicable public health directives.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Elections are an essential activity. The Governor has issued [executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Most counties will provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) in-person starting the Saturday before the election.Open ballot drop-box locations will be available between October 6 and November 3, 2020. Existing laws addressing the use of vote-by-mail ballots in California elections remain in effect except where suspended by Executive Order. Find [guidance for the safe administration of elections](https://elections.cdn.sos.ca.gov/ccrov/pdf/2020/july/20154jl.pdf) during COVID-19.\n\n Visit [online voter registration](https://registertovote.ca.gov/) to register to vote or check your voter registration status. \n\nPractice physical distancing and follow other applicable public health directives while engaged in election-related activities. These include collection and drop-off of ballots, and collection of signatures to qualify candidates or measures for the ballot.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C21" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>What if I don’t have health insurance and I need screening,  testing, or treatment for COVID-19?</v>
+        <v>What if I don’t have health insurance and I need screening, testing, or treatment for COVID-19?</v>
       </c>
       <c r="B37" t="str">
-        <v>The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of medically necessary screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free medically necessary [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>I want to get screened or tested for COVID-19. I have insurance, but what will this cost me out-of-pocket?</v>
+        <v>Does my health plan have to cover my COVID-19 test?</v>
       </c>
       <c r="B38" t="str">
-        <v>Nothing. The state agencies that regulate health care in California have mandated that all full-service insurance plans (including Medi-Cal) waive copayments, coinsurance, and deductibles for medically necessary screening and testing for COVID-19. This includes emergency room, urgent care, or provider office visits when the purpose of the visit is to be screened and tested for COVID-19.\n\n[Testing](https://covid19.ca.gov/testing-and-treatment/) for COVID-19 is covered by insurance, Medicare, and Medi-Cal. If you have no insurance, it’s paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). As a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes, if you’re experiencing COVID-19 symptoms, you think you were exposed to someone who has COVID-19, or the test is otherwise medically necessary for your situation. \n\nIf you have symptoms of COVID-19 or you think you’ve been exposed to someone with COVID-19, under federal law, you can obtain a COVID-19 test anywhere and your health plan must pay for the test. \n\nIf you don’t have symptoms and don’t think you’ve been exposed to someone with COVID-19, but you are an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, your health plan must cover your COVID-19 test. However, you must contact your health plan before getting testing. \n\nIf you don’t have symptoms, don’t think you’ve been exposed to someone with COVID-19, and aren’t an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, and you think you need a test, please contact your health plan or health care provider for further guidance.\n\nAs a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
+        <v>How long will I have to wait to get a test?</v>
       </c>
       <c r="B39" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [](https://www.healthhelp.ca.gov/)[California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Your wait time depends on why you are seeking a test. \n\n**If you have symptoms of COVID-19 or think you were exposed,** under federal law, you can go immediately to any available testing site. Find a testing site on our [Testing page,](https://covid19.ca.gov/testing-and-treatment/#top) or call your health plan so they can direct you to an available testing location. \n\n**If you don’t have symptoms or suspected exposure, and you are an** [**essential worker**](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf)**,** your health plan must offer you a test appointment within 48 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, then you can go to any available testing site and your health plan will pay for the test. \n\n**If you don’t have symptoms or suspected exposure, and you are not an essential worker,** if your provider determines a COVID-19 test is medically necessary for you, your health plan must offer you a test appointment within 96 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, you can go to any available testing site.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
+        <v>I get my health care coverage through my employer, who has a “self-insured” plan. Do the California Department of Managed Health Care (DMHC) regulations apply to me?</v>
       </c>
       <c r="B40" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Self-insured plans are regulated by the federal government, rather than the state. If you have symptoms of COVID-19 or you were exposed to someone who you know or suspect has COVID-19, under federal law, your employer’s self-insured plan must cover your test. In all other instances, you should talk to your employer’s self-insured plan to find out whether they will cover COVID-19 testing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Can I use telehealth if I am on Medicare?</v>
+        <v>How does my health plan know if I’m an essential worker?</v>
       </c>
       <c r="B41" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Your health plan can ask you questions about why you want a COVID-19 test and about the nature of your work. They can ask these questions to help determine whether a COVID-19 test is medically necessary for you. \n\nHowever, your health plan can’t ask you to provide further documentation or evidence of your work status. For example, your health plan can’t ask you to provide written proof of where you work or the conditions of your workplace.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>I am nervous or scared. What can I do?</v>
+        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B42" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B43" t="str">
-        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>What if I need to visit a health care provider?</v>
+        <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B44" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
+        <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B45" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C45" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Can I get my prescriptions filled?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B46" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
+        <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B47" t="str">
-        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
+        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
       </c>
       <c r="B48" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C48" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
+        <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B49" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C49" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
+        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B50" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C50" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Can a senior over 65, disabled, uninsured or undocumented immigrant get free COVID-19 / Coronavirus test or treatment?</v>
+        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B51" t="str">
-        <v>All patients with full-service Medi-Cal or commercial insurance in California will have [copays, coinsurance and deductibles waived](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B52" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C52" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D52" t="str">
         <v xml:space="preserve"> </v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B53" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C53" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D53" t="str">
         <v xml:space="preserve"> </v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>How will the payment plans work?</v>
+        <v>Can I get free COVID-19 testing or treatment if I am a senior over 65, disabled, uninsured, or an undocumented immigrant?</v>
       </c>
       <c r="B54" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have [copays, coinsurance and deductibles waived](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of medically necessary coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C54" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D54" t="str">
         <v xml:space="preserve"> </v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B55" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C55" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B56" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B57" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B58" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B59" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B60" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>What do you consider a small business?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B61" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>What are excluded businesses?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B62" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B63" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>How much can I borrow?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B64" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>What are the loan terms?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B65" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>How can I apply?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B66" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B67" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>What can the money be used for?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B68" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B69" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B70" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B71" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1%. For all loans made on or after June 5, the minimum term is five years. For loans made before June 5, the two-year minimum maturity remains in effect unless both the borrower and the lender agree to extend it to five years. The loan is forgivable if 60% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before December 31, 2020. In addition to payroll and benefits costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off.\n\nThe SBA is accepting PPP loan applications from approved lenders. The new deadline to apply for a PPP loan is August 8, 2020. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away. See [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. \n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B72" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B73" t="str">
-        <v>You can find this on the Paycheck Protection Program’s [Loan Forgiveness Application](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20%28Revised%206.16.2020%29-fillable_0-508.pdf). The application provides detailed [instructions](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20Instructions%20%28Revised%206.16.2020%29-508.pdf) on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the Loan Forgiveness Application and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B74" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1%. For all loans made on or after June 5, the minimum term is five years. For loans made before June 5, the two-year minimum maturity remains in effect unless both the borrower and the lender agree to extend it to five years. The loan is forgivable if 60% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before December 31, 2020. In addition to payroll and benefits costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off.\n\nThe SBA is accepting PPP loan applications from approved lenders. The new deadline to apply for a PPP loan is August 8, 2020. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away. See [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. \n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B75" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B76" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s [Loan Forgiveness Application](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20%28Revised%206.16.2020%29-fillable_0-508.pdf). The application provides detailed [instructions](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20Instructions%20%28Revised%206.16.2020%29-508.pdf) on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the Loan Forgiveness Application and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B77" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B78" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B79" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B80" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B81" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C81" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>What action is the state taking to ensure all schools are providing meaningful instruction during the pandemic whether they are physically open or closed?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B82" t="str">
-        <v>*   California has made $5.3 billion in investments to support safe reopening and rigorous distance learning.\n*   Funds prioritize low-income students, English language learners, and special education students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C82" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D82" t="str">
         <v xml:space="preserve"> </v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>What determines whether schools are conducting in-person learning or distance learning?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B83" t="str">
-        <v>Using health data, schools can physically open when its county has been off the Monitoring List for 14 days and only if they follow strict health and safety requirements like masks and physical distancing. [Find the County Monitoring List here.](https://covid19.ca.gov/roadmap-counties/#track-data)\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C83" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D83" t="str">
         <v xml:space="preserve"> </v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>What are the health and safety requirements for schools doing in-person learning?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B84" t="str">
-        <v>*   Everyone entering the school must do daily health checks.\n*   If someone experiences symptoms while at school, they will be sent home.\n*   Masks are required for all staff and students 3rd grade and above. Younger students should be encouraged to wear masks.\n*   Staff members must maintain 6ft distance from each other and students. Students should maintain 6ft distance as practicable.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C84" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D84" t="str">
         <v xml:space="preserve"> </v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>What happens if someone gets COVID-19 at my child’s school?</v>
+        <v>What action is the state taking to ensure all schools are providing meaningful instruction during the pandemic whether they are physically open or closed?</v>
       </c>
       <c r="B85" t="str">
-        <v>*   A classroom goes home when there is a confirmed case\n*   A school should switch to distance learning when there are multiple positive cases in multiple classroom cohorts\n*   A district should switch to distance learning if 25% of schools in the district are closed within a 14-day period\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   California has made $5.3 billion in investments to support safe reopening and rigorous distance learning.\n*   Funds prioritize low-income students, English language learners, and special education students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C85" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>If my child’s school is engaged in distance learning, what should I expect?</v>
+        <v>What determines whether schools are conducting in-person learning or distance learning?</v>
       </c>
       <c r="B86" t="str">
-        <v>*   New statewide requirements include:\n    *   Access to devices and connectivity for all students\n    *   Daily live interaction with teachers and other students\n    *   Classes and assignments that are challenging and are equivalent to in-person instruction\n    *   Special requirements for English language learners and special education students\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Using health data, schools can physically open when its county has been off the Monitoring List for 14 days and only if they follow strict health and safety requirements like masks and physical distancing. [Find the County Monitoring List here.](https://covid19.ca.gov/roadmap-counties/#track-data)\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>What are the health and safety requirements for schools doing in-person learning?</v>
       </c>
       <c r="B87" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   Everyone entering the school must do daily health checks.\n*   If someone experiences symptoms while at school, they will be sent home.\n*   Masks are required for all staff and students 3rd grade and above. Younger students should be encouraged to wear masks.\n*   Staff members must maintain 6ft distance from each other and students. Students should maintain 6ft distance as practicable.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C87" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>What happens if someone gets COVID-19 at my child’s school?</v>
       </c>
       <c r="B88" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   A classroom goes home when there is a confirmed case\n*   A school should switch to distance learning when there are multiple positive cases in multiple classroom cohorts\n*   A district should switch to distance learning if 25% of schools in the district are closed within a 14-day period\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>If my child’s school is engaged in distance learning, what should I expect?</v>
       </c>
       <c r="B89" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   New statewide requirements include:\n    *   Access to devices and connectivity for all students\n    *   Daily live interaction with teachers and other students\n    *   Classes and assignments that are challenging and are equivalent to in-person instruction\n    *   Special requirements for English language learners and special education students\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B90" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B91" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B92" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to reopen, visit [industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C92" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D92" t="str">
         <v xml:space="preserve"> </v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B93" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C93" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D93" t="str">
         <v xml:space="preserve"> </v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B94" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C94" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D94" t="str">
         <v xml:space="preserve"> </v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B95" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to reopen, visit [industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C95" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Can I file a workplace safety complaint?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B96" t="str">
-        <v>Yes, you have the right to file a complaint. Find [information and instructions](https://www.dir.ca.gov/dosh/complaint.htm) for how to file a complaint. If you submit a complaint, your name must be kept confidential by law.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B97" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B98" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>Can I file a workplace safety complaint?</v>
       </c>
       <c r="B99" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Yes, you have the right to file a complaint. Find [information and instructions](https://www.dir.ca.gov/dosh/complaint.htm) for how to file a complaint. If you submit a complaint, your name must be kept confidential by law.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B100" t="str">
-        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B101" t="str">
-        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C101" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D101" t="str">
         <v xml:space="preserve"> </v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>How long will these programs last?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B102" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C102" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> </v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B103" t="str">
-        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C103" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D103" t="str">
         <v xml:space="preserve"> </v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B104" t="str">
-        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C104" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B105" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B106" t="str">
-        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B107" t="str">
-        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C107" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B108" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C108" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D108" t="str">
         <v xml:space="preserve"> </v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B109" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C109" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D109" t="str">
         <v xml:space="preserve"> </v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B110" t="str">
-        <v>Yes, there are protections in effect through September 30, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C110" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D110" t="str">
         <v xml:space="preserve"> </v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B111" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C111" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B112" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C112" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B113" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>Yes, there are protections in effect through September 30, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C113" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D113" t="str">
         <v xml:space="preserve"> </v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B114" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C114" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D114" t="str">
         <v xml:space="preserve"> </v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B115" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020, or 60 calendar days after the date of the child’s enrollment, whichever is longer. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C115" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D115" t="str">
         <v xml:space="preserve"> </v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B116" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C116" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B117" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C117" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>County websites:</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B118" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020, or 60 calendar days after the date of the child’s enrollment, whichever is longer. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C118" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D118" t="str">
         <v xml:space="preserve"> </v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B119" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nSee what [industries are open or closed](https://covid19.ca.gov/roadmap-counties/#track-data) in your county.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C119" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D119" t="str">
         <v xml:space="preserve"> </v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B120" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C120" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D120" t="str">
         <v xml:space="preserve"> </v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>County websites:</v>
       </c>
       <c r="B121" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) is dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR also requires ongoing testing for all staff working in adult institutions, suspended non-essential transfer of inmates, and suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C121" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B122" t="str">
-        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nSee what [industries are open or closed](https://covid19.ca.gov/roadmap-counties/#track-data) in your county.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Do I have to report to jury duty if summoned?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B123" t="str">
-        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information about jury duty.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)&lt;!-- jury duty, summons, courts, court, court operations--&gt;</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B124" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) is dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR also requires ongoing testing for all staff working in adult institutions, suspended non-essential transfer of inmates, and suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C124" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D124" t="str">
         <v xml:space="preserve"> </v>
@@ -3606,13 +3606,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B125" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C125" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D125" t="str">
         <v xml:space="preserve"> </v>
@@ -3632,13 +3632,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Do I have to report to jury duty if summoned?</v>
       </c>
       <c r="B126" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information about jury duty.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)&lt;!-- jury duty, summons, courts, court, court operations--&gt;</v>
       </c>
       <c r="C126" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D126" t="str">
         <v xml:space="preserve"> </v>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B127" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C127" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>How do I apply?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B128" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B129" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](https://files.covid19.ca.gov/pdf/COVID_immigrant_guidance--en.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B130" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>How long do I have to apply?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B131" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B132" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B133" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Youth and Teens</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B134" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C134" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D134" t="str">
         <v xml:space="preserve"> </v>
@@ -3866,13 +3866,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Veterans</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B135" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C135" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D135" t="str">
         <v xml:space="preserve"> </v>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B136" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C136" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D136" t="str">
         <v xml:space="preserve"> </v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Older Californians</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B137" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C137" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Veterans</v>
       </c>
       <c r="B138" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C138" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B139" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C139" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>Older Californians</v>
       </c>
       <c r="B140" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C140" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>What is a close contact?</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B141" t="str">
-        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C141" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D141" t="str">
         <v xml:space="preserve"> </v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Will contact tracers track my location?</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B142" t="str">
-        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C142" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D142" t="str">
         <v xml:space="preserve"> </v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Is contact tracing help available in my language?</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B143" t="str">
-        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C143" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D143" t="str">
         <v xml:space="preserve"> </v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Who should get tested?</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B144" t="str">
-        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C144" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B145" t="str">
-        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B146" t="str">
-        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B147" t="str">
-        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>How do I become a contact tracer?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B148" t="str">
-        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Affected counties as of 7/16/20</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B149" t="str">
-        <v>*   Alameda\n*   Colusa\n*   Contra Costa\n*   Fresno\n*   Glenn\n*   Imperial\n*   Kings\n*   Los Angeles\n*   Madera\n*   Marin\n*   Merced\n*   Monterey\n*   Napa\n*   Orange\n*   Placer\n*   Riverside\n*   Sacramento\n*   San Benito\n*   San Bernardino\n*   San Diego\n*   San Joaquin\n*   San Luis Obispo\n*   Santa Barbara\n*   Santa Clara\n*   Solano\n*   Sonoma\n*   Stanislaus\n*   Sutter\n*   Tulare\n*   Yolo\n*   Yuba\n*   Ventura\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C149" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D149" t="str">
         <v xml:space="preserve"> </v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>For attested counties not on Monitoring List</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B150" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Dine-in restaurants (outdoors only)\n*   Wineries and tasting rooms (outdoors only)\n*   Family entertainment centers (outdoors only)\n*   Zoos and museums (outdoors only)\n*   Cardrooms (outdoors only)\n*   Hair salons and barbershops\n*   Casinos\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C150" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D150" t="str">
         <v xml:space="preserve"> </v>
@@ -4282,13 +4282,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>For counties on Monitoring List for 3 consecutive days</v>
+        <v>How do I become a contact tracer?</v>
       </c>
       <c r="B151" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Casinos\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n\nThe following industries must close indoor operations, but they may be modified to operate outside or by pick-up:\n\n*   Dine-in restaurants\n*   Wineries and tasting rooms\n*   Movie theaters \n*   Family entertainment centers (for example: bowling alleys, miniature golf, batting cages and arcades)\n*   Zoos and museums\n*   Cardrooms\n*   Hair salons and barbershops\n*   Gyms and fitness centers\n*   Personal care services, like nail salons, body waxing and tattoo parlors\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Offices for non-critical infrastructure sectors\n*   Shopping malls \n\nNOTE: Imperial County is open to the essential workforce only (Stage One). Alameda County does not have an attestation and can only have open those industries which are open statewide.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C151" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D151" t="str">
         <v xml:space="preserve"> </v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>For counties without attestations</v>
+        <v>County Monitoring List</v>
       </c>
       <c r="B152" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>*   Alameda\n*   Butte (on the list less than 3 days)\n*   Colusa\n*   Contra Costa\n*   Fresno\n*   Glenn\n*   Imperial\n*   Kern (on the list less than 3 days)\n*   Kings\n*   Los Angeles\n*   Madera\n*   Marin\n*   Merced\n*   Monterey\n*   Napa\n*   Orange\n*   Placer\n*   Riverside\n*   Sacramento\n*   San Benito\n*   San Bernardino\n*   San Diego\n*   San Francisco\n*   San Joaquin\n*   San Luis Obispo\n*   Santa Barbara\n*   Santa Clara\n*   Solano\n*   Sonoma\n*   Stanislaus\n*   Sutter\n*   Tulare\n*   Ventura\n*   Yolo\n*   Yuba\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C152" t="str">
         <v>https://covid19.ca.gov/roadmap-counties/</v>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Northern California</v>
+        <v>For attested counties not on Monitoring List</v>
       </c>
       <c r="B153" t="str">
-        <v>*   Alturas (Modoc County)\n*   American Canyon (Napa County)\n*   Antioch (Contra Costa County)\n*   Atascadero (San Luis Obispo County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Calistoga (Napa County)\n*   Calpine (Sierra County)\n*   Cedarville (Modoc County)\n*   Ceres (Sanislaus County)\n*   Chowchilla (Madera County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Corcoran (King County)\n*   Corona (King County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Dinuba (Tulare County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Elk Grove (Sacramento County)\n*   Exeter (Tulare County)\n*   Farmersville (Tulare County)\n*   French Camp (San Joaquin County)\n*   Fresno (Fresno County)\n*   Gridley (Butte County)\n*   Half Moon Bay (San Mateo County)\n*   Hanford (King County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kerman (Fresno County)\n*   Lakeport (Lake County)\n*   Lemoore (King County)\n*   Lewiston (Trinity County)\n*   Livingston (Merced County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Magalia (Butte County)\n*   Mammoth Lakes (Mono County)\n*   Markleeville (Alpine County)\n*   Merced (Merced County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   North San Juan (Nevada County)\n*   Oakland (Alameda County)\n*   Placerville (El Dorado County)\n*   Portarville (Tulare County)\n*   Redding (Shasta County)\n*   Redwood City (San Mateo County)\n*   Reedley (Fresno County)\n*   Rio Linda (Sacramento County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Bruno (San Mateo County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Santa Rosa (Sonoma County)\n*   Selma (Fresno County)\n*   St. Helena (Napa County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Tracy (San Joaquin County)\n*   Tulare (Tulare County)\n*   Turlock (Stanislaus County)\n*   Upper Lake (Lake County)\n*   Vallejo (Solano County)\n*   Visalia (Tulare County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n\n*   Woodlake (Tulare County)\n*   Woodland (Yolo County)\n*   Willow Creek (Humboldt County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Dine-in restaurants (outdoors only)\n*   Wineries and tasting rooms (outdoors only)\n*   Family entertainment centers (outdoors only)\n*   Zoos and museums (outdoors only)\n*   Cardrooms (outdoors only)\n*   Casinos\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Personal care services, like nail salons and body waxing\n*   Hair salons and barbershops\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C153" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D153" t="str">
         <v xml:space="preserve"> </v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Southern California</v>
+        <v>For counties on Monitoring List for 3 consecutive days</v>
       </c>
       <c r="B154" t="str">
-        <v>*   Alpine (San Diego County) \n*   Anaheim (Orange County)\n*   Apple Valley (San Bernardino County)\n*   Bakersfield (Kern County)\n*   Banning (Riverside County)\n*   Barstow (San Bernardino County)\n*   Beaumont (Riverside County)\n*   Bell (Los Angeles County)\n*   Blythe (Riverside County)\n*   Calexico (Imperial County)\n*   Cochella (Riverside County)\n*   Compton (Los Angeles County)\n*   Costa Mesa (Orange County)\n*   Delano (Kern County)\n*   Desert Hot Springs (Riverside County)\n*   El Centro (Imperial County)\n*   Fallbrook (San Diego)\n*   Fontana (San Bernardino County)\n*   Fullerton (Orange County)\n*   Gardena (Los Angeles County)\n*   Hemet (Riverside County)\n*   Hesperia (San Bernardino County)\n*   Indio (Riverside County)\n*   La Habra (Orange County)\n*   Lake Elsinore (Riverside County)\n*   Lamont (Kern County)\n*   Lancaster (Los Angeles County)\n*   Lemon Grove (San Diego County)\n*   Los Angeles (Los Angeles County)\n*   McFarland (Kern County)\n*   Oceanside (San Diego)\n*   Ontario (San Bernardino County)\n*   Palmdale (Los Angeles County)\n*   Paramount (Los Angeles County)\n*   Pasadena (Los Angeles County)\n*   Perris (Riverside County)\n*   Phelan (San Bernardino County)\n*   Pico Rivera (Los Angeles County)\n*   Pomona (Los Angeles County)\n*   Port Hueneme (Ventura County)\n*   Riverside (Riverside County)\n*   Rosamond (Kern County)\n*   San Jucinta (Riverside County)\n*   San Juan Capistrano (Orange County)\n*   Santa Maria (Santa Barbara County)\n*   Santa Paula (Ventura County)\n*   Shafter (Kern County)\n*   Valley Center (San Diego County)\n*   Victorville (San Bernardino County)\n*   Wasco (Kern County) \n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Casinos\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n\nThe following industries must close indoor operations, but they may be modified to operate outside or by pick-up:\n\n*   Dine-in restaurants\n*   Wineries and tasting rooms\n*   Movie theaters \n*   Family entertainment centers (for example: bowling alleys, miniature golf, batting cages and arcades)\n*   Zoos and museums\n*   Cardrooms\n*   Gyms and fitness centers\n*   Personal care services, like nail salons and body waxing\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Offices for non-critical infrastructure sectors\n*   Shopping malls \n\nNOTE: Imperial County is open to the essential workforce only (Stage One). Alameda County does not have an attestation and can only have open those industries which are open statewide.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C154" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> </v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>How do I get a drive-through test?</v>
+        <v>For counties without attestations</v>
       </c>
       <c r="B155" t="str">
-        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
       </c>
       <c r="C155" t="str">
-        <v>https://covid19.ca.gov/testing-and-treatment/</v>
+        <v>https://covid19.ca.gov/roadmap-counties/</v>
       </c>
       <c r="D155" t="str">
         <v xml:space="preserve"> </v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
+        <v>Northern California</v>
       </c>
       <c r="B156" t="str">
-        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Alturas (Modoc County)\n*   American Canyon (Napa County)\n*   Antioch (Contra Costa County)\n*   Atascadero (San Luis Obispo County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Calistoga (Napa County)\n*   Calpine (Sierra County)\n*   Cedarville (Modoc County)\n*   Ceres (Sanislaus County)\n*   Chowchilla (Madera County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Corcoran (King County)\n*   Corona (King County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Dinuba (Tulare County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Elk Grove (Sacramento County)\n*   Exeter (Tulare County)\n*   Farmersville (Tulare County)\n*   French Camp (San Joaquin County)\n*   Fresno (Fresno County)\n*   Gridley (Butte County)\n*   Half Moon Bay (San Mateo County)\n*   Hanford (King County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kerman (Fresno County)\n*   Lakeport (Lake County)\n*   Lemoore (King County)\n*   Lewiston (Trinity County)\n*   Livingston (Merced County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Magalia (Butte County)\n*   Mammoth Lakes (Mono County)\n*   Markleeville (Alpine County)\n*   Mendota (Fresno County)\n*   Merced (Merced County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   North San Juan (Nevada County)\n*   Oakland (Alameda County)\n*   Placerville (El Dorado County)\n*   Porterville (Tulare County)\n*   Redding (Shasta County)\n*   Redwood City (San Mateo County)\n*   Reedley (Fresno County)\n*   Rio Linda (Sacramento County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Bruno (San Mateo County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Santa Rosa (Sonoma County)\n*   Selma (Fresno County)\n*   St. Helena (Napa County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Tracy (San Joaquin County)\n*   Tulare (Tulare County)\n*   Turlock (Stanislaus County)\n*   Upper Lake (Lake County)\n*   Vallejo (Solano County)\n*   Visalia (Tulare County)\n*   Willow Creek (Humboldt County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n\n*   Woodlake (Tulare County)\n*   Woodland (Yolo County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C156" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Do I need emergency treatment?</v>
+        <v>Southern California</v>
       </c>
       <c r="B157" t="str">
-        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nIf you’re not sure if this applies to you, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>*   Alpine (San Diego County) \n*   Anaheim (Orange County)\n*   Apple Valley (San Bernardino County)\n*   Bakersfield (Kern County)\n*   Banning (Riverside County)\n*   Barstow (San Bernardino County)\n*   Beaumont (Riverside County)\n*   Bell (Los Angeles County)\n*   Blythe (Riverside County)\n*   Calexico (Imperial County)\n*   Coachella (Riverside County)\n*   Compton (Los Angeles County)\n*   Costa Mesa (Orange County)\n*   Delano (Kern County)\n*   Desert Hot Springs (Riverside County)\n*   El Centro (Imperial County)\n*   Fallbrook (San Diego)\n*   Fontana (San Bernardino County)\n*   Fullerton (Orange County)\n*   Gardena (Los Angeles County)\n*   Hemet (Riverside County)\n*   Hesperia (San Bernardino County)\n*   Indio (Riverside County)\n*   La Habra (Orange County)\n*   Lake Elsinore (Riverside County)\n*   Lamont (Kern County)\n*   Lancaster (Los Angeles County)\n*   Lemon Grove (San Diego County)\n*   Los Angeles (Los Angeles County)\n*   McFarland (Kern County)\n*   Oceanside (San Diego)\n*   Ontario (San Bernardino County)\n*   Palmdale (Los Angeles County)\n*   Paramount (Los Angeles County)\n*   Pasadena (Los Angeles County)\n*   Perris (Riverside County)\n*   Phelan (San Bernardino County)\n*   Pico Rivera (Los Angeles County)\n*   Pomona (Los Angeles County)\n*   Port Hueneme (Ventura County)\n*   Riverside (Riverside County)\n*   Rosamond (Kern County)\n*   San Jucinta (Riverside County)\n*   San Juan Capistrano (Orange County)\n*   Santa Maria (Santa Barbara County)\n*   Santa Paula (Ventura County)\n*   Shafter (Kern County)\n*   Valley Center (San Diego County)\n*   Victorville (San Bernardino County)\n*   Wasco (Kern County) \n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C157" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
+        <v>How do I get a drive-through test?</v>
       </c>
       <c r="B158" t="str">
-        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>There are two steps to this process: screening and testing. First, you will create an account and take the online screener. If your answers from the screener determine you are eligible at this time, you will receive details on how and where to get tested. Once tested, you’ll be informed via email or phone when your COVID-19 test results are available.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C158" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>When can I be around other people after I had or likely had COVID-19?</v>
+        <v>Why am I asked to create an account for drive-through testing using Verily’s Project Baseline?</v>
       </c>
       <c r="B159" t="str">
-        <v>You can be with others after:\n\n*   3 days with no fever **and**\n*   Respiratory symptoms have improved (e.g. cough, shortness of breath) **and**\n*   10 days since symptoms first appeared\n\n[CDPH](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/Expanding-Access-to-Testing-Updated-Interim-Guidance-on-Prioritization-for-COVID-19-Laboratory-Testing-0501.aspx) and [CDC](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/end-home-isolation.html) have detailed recommendations for quarantine/isolation, if you are sick with COVID-19 or tested positive for coronavirus.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>For the Baseline COVID-19 Program to work, Verily needs a way to authenticate users to appropriately protect their information. Verily turned to Google for this service because Google Account provides best-in-class authentication. We ask that you link to an existing Google Account or create a new Google Account (which can be done with any email address). This lets Verily authenticate your account, and securely and privately contact you during the screening and testing process. All the data provided by Baseline COVID-19 Program users for screening is stored separately and not directly linked to a user’s Google Account.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C159" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>How can I find a coronavirus testing location near me?</v>
+        <v>Do I need emergency treatment?</v>
       </c>
       <c r="B160" t="str">
-        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>If you develop any of these warning signs for COVID-19, get emergency medical attention immediately:\n\n*   Trouble breathing\n*   Persistent pain or pressure in the chest\n*   New confusion \n*   Inability to awake or stay awake\n*   Bluish lips or face\n\nThere are other, less-common symptoms. Please call your medical provider if you have any symptoms that are severe or concerning to you.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the operator you have coronavirus symptoms so ambulance workers can be ready to treat you safely.\n\nIf you’re not sure if this applies to you, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C160" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>What is an antibody test? Where can I get an antibody test?</v>
+        <v>I have mild COVID-19 symptoms. How long do I have to isolate at home?</v>
       </c>
       <c r="B161" t="str">
-        <v>[Antibody tests](https://www.cdc.gov/coronavirus/2019-ncov/testing/serology-overview.html) detect past infections (but not current infections). They are used to detect past COVID-19 infections in an individual and can be used to determine if you are a good candidate to [donate blood plasma](https://covid19.ca.gov/plasma). It can take 1-3 weeks after infection for your body to make antibodies. \n\nYou can find locations for both viral and antibody [tests](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401) on [California’s testing map](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>Follow the Centers for Disease Control and Prevention (CDC) guidance on [ending self-isolation](https://www.cdc.gov/coronavirus/2019-ncov/hcp/disposition-in-home-patients.html).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C161" t="str">
         <v>https://covid19.ca.gov/testing-and-treatment/</v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>What are the pay and benefits for California Health Corps professionals?</v>
+        <v>When can I be around other people after I had or likely had COVID-19?</v>
       </c>
       <c r="B162" t="str">
-        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>You can be with others after:\n\n*   3 days with no fever **and**\n*   Respiratory symptoms have improved (e.g. cough, shortness of breath) **and**\n*   10 days since symptoms first appeared\n\n[CDPH](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/Expanding-Access-to-Testing-Updated-Interim-Guidance-on-Prioritization-for-COVID-19-Laboratory-Testing-0501.aspx) and [CDC](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/end-home-isolation.html) have detailed recommendations for quarantine/isolation, if you are sick with COVID-19 or tested positive for coronavirus.\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C162" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D162" t="str">
         <v xml:space="preserve"> </v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
+        <v>How can I find a coronavirus testing location near me?</v>
       </c>
       <c r="B163" t="str">
-        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Find a testing location\n-----------------------\n\n&gt; [See the map](https://arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C163" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D163" t="str">
         <v xml:space="preserve"> </v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
+        <v>What is an antibody test? Where can I get an antibody test?</v>
       </c>
       <c r="B164" t="str">
-        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>[Antibody tests](https://www.cdc.gov/coronavirus/2019-ncov/testing/serology-overview.html) detect past infections (but not current infections). They are used to detect past COVID-19 infections in an individual and can be used to determine if you are a good candidate to [donate blood plasma](https://covid19.ca.gov/plasma). It can take 1-3 weeks after infection for your body to make antibodies. \n\nYou can find locations for both viral and antibody [tests](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401) on [California’s testing map](https://www.arcgis.com/apps/Nearby/index.html?appid=43118dc0d5d348d8ab20a81967a15401).\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
       </c>
       <c r="C164" t="str">
-        <v>https://covid19.ca.gov/healthcorps/</v>
+        <v>https://covid19.ca.gov/testing-and-treatment/</v>
       </c>
       <c r="D164" t="str">
         <v xml:space="preserve"> </v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>How do I return to the California Health Corps application after logging out?</v>
+        <v>What are the pay and benefits for California Health Corps professionals?</v>
       </c>
       <c r="B165" t="str">
-        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Salary rates for most of the health care professionals being hired for this emergency are listed in the [CalHR Pay Scales](https://www.calhr.ca.gov/Pay%20Scales%20Library/PS_Sec_05.pdf) (pages 5.12 and 5.13). In addition, CalHR has established pay rates for medical roles that don’t have a corresponding regular classification and pay schedule, such as paramedics and EMTs. CalHR will determine specific salary and benefits after conducting a review of each application.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C165" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Resources for the California Health Corps participants</v>
+        <v>Some healthcare professions are not listed. Are health professionals who are not listed (e.g., Medical Technicians, Lab Technicians, etc.) eligible for the California Health Corps?</v>
       </c>
       <c r="B166" t="str">
-        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>California Health Corps are currently only accepting applications for the healthcare professions listed on the website. However, we are constantly re-evaluating our needs during this fluid situation and will open the registration for other professionals, if the need arises.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C166" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
+        <v>When can I expect to hear a response after completing my California Health Corps registration?</v>
       </c>
       <c r="B167" t="str">
-        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
+        <v>Currently we anticipate the process may take up to two weeks, since an incredible number of responses are received and need to prioritize certain parts of the state, where the needs are the greatest. We will begin to contact the volunteers after verification of credentials, and based on current and anticipated needs.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C167" t="str">
         <v>https://covid19.ca.gov/healthcorps/</v>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Agriculture and livestock</v>
+        <v>How do I return to the California Health Corps application after logging out?</v>
       </c>
       <c r="B168" t="str">
-        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Visit [https://healthcarevolunteers.ca.gov/](https://healthcarevolunteers.ca.gov/) and use the account you created while applying to correct or update any information you want.\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C168" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D168" t="str">
         <v xml:space="preserve"> </v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Auto dealerships</v>
+        <v>Resources for the California Health Corps participants</v>
       </c>
       <c r="B169" t="str">
-        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>*   SNF Orientation: [SNF-Nursing-Staff-Orientation (PDF)](https://covid19.ca.gov/pdf/SNF-Nursing-Staff-Orientation.pdf)\n*   Program FAQ details: [CA-Health-Corps-FAQ (PDF)](https://covid19.ca.gov/pdf/CA-Health-Corps-FAQ.pdf)\n*   How to file a complaint: [How-to-file-a-complaint (PDF)](https://covid19.ca.gov/pdf/How-to-file-a-complaint.pdf)\n*   Direct deposit: [std699-Direct-Deposit (PDF)](https://covid19.ca.gov/pdf/std699-Direct-Deposit.pdf)\n*   Travel expense claim: [Std262-Travel-Expense-Claim (PDF)](https://covid19.ca.gov/pdf/Std262-Travel-Expense-Claim.pdf)\n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C169" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D169" t="str">
         <v xml:space="preserve"> </v>
@@ -4776,13 +4776,13 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Childcare – Updated July 17!</v>
+        <v>Can a doctor with out of state Licence or foreign medical graduate without California license work for the California Health Corps?</v>
       </c>
       <c r="B170" t="str">
-        <v>All childcare facilities can open with necessary modifications. The updated [guidance for childcare industry](https://files.covid19.ca.gov/pdf/guidance-childcare--en.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>To be eligible for COVID-19 emergency medical staffing roles, you must:\n\n*   Have a valid California License for clinical practice (if you are a MD, DO, etc.) \n*   **OR** are a medical resident or nursing student \n\nMore info: [California Health Corps](https://covid19.ca.gov/healthcorps/)</v>
       </c>
       <c r="C170" t="str">
-        <v>https://covid19.ca.gov/industry-guidance/</v>
+        <v>https://covid19.ca.gov/healthcorps/</v>
       </c>
       <c r="D170" t="str">
         <v xml:space="preserve"> </v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Communications infrastructure</v>
+        <v>Agriculture and livestock</v>
       </c>
       <c r="B171" t="str">
-        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the agriculture and livestock industry](http://covid19.ca.gov/pdf/guidance-agriculture.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the agriculture and livestock industry](http://covid19.ca.gov/pdf/checklist-agriculture.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C171" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Construction</v>
+        <v>Auto dealerships</v>
       </c>
       <c r="B172" t="str">
-        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the automobile dealerships and rental operators industry](http://covid19.ca.gov/pdf/guidance-auto-dealerships.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the automobile dealerships and rental operators](http://covid19.ca.gov/pdf/checklist-auto-dealerships.pdf) industry in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C172" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Day camps – Updated July 17!</v>
+        <v>Childcare – Updated July 20</v>
       </c>
       <c r="B173" t="str">
-        <v>The updated [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening.  Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>All childcare facilities can open with necessary modifications. The updated [guidance for the childcare industry](https://files.covid19.ca.gov/pdf/guidance-childcare--en.pdf) provides guidelines to minimize the spread of COVID-19 and ensure the safety of children, providers, and families. As programs begin to reopen and other programs transition from emergency childcare for essential workers to enhanced regular operations, all providers must apply new and updated policies and requirements and must update their emergency preparedness plan.\n\nReview the guidance, prepare a plan, and post the [checklist for childcare](https://files.covid19.ca.gov/pdf/checklist-childcare--en.pdf) in your facility to show employees and families that you’ve reduced the risk and are open for operation.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C173" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Delivery services</v>
+        <v>Communications infrastructure</v>
       </c>
       <c r="B174" t="str">
-        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the communications infrastructure industry](http://covid19.ca.gov/pdf/guidance-communications.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the communications infrastructure industry](http://covid19.ca.gov/pdf/checklist-communications.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C174" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Energy and utilities</v>
+        <v>Construction</v>
       </c>
       <c r="B175" t="str">
-        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the construction industry](http://covid19.ca.gov/pdf/guidance-construction.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the construction industry](http://covid19.ca.gov/pdf/checklist-construction.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C175" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Family friendly practices for employers</v>
+        <v>Day camps – Updated July 20</v>
       </c>
       <c r="B176" t="str">
-        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The updated [guidance for day camps](http://covid19.ca.gov/pdf/guidance-daycamps.pdf) provides guidelines to create a plan for safe re-opening. Implementation of these guidelines should be tailored for each setting. Implementation requires training and support for staff and adequate consideration of camper and family needs. All decisions about following these recommendations should be made in collaboration with local health officials and other authorities, and should depend on the levels of COVID-19 community transmission and the capacities of the local public health and healthcare systems, among other relevant factors.\n\nReview the guidance, prepare a plan, and post the [checklist for day camps](https://files.covid19.ca.gov/pdf/checklist-daycamps--en.pdf) in your facility to show employees, campers, and families that you’ve reduced the risk and are open for operation.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C176" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4958,10 +4958,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Food packing</v>
+        <v>Delivery services</v>
       </c>
       <c r="B177" t="str">
-        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the delivery services industry](http://covid19.ca.gov/pdf/guidance-delivery-services.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the delivery services industry](http://covid19.ca.gov/pdf/checklist-delivery-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C177" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Hotels and lodging</v>
+        <v>Energy and utilities</v>
       </c>
       <c r="B178" t="str">
-        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers and customers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the energy and utilities industry](http://covid19.ca.gov/pdf/guidance-energy.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the energy and utilities industry](http://covid19.ca.gov/pdf/checklist-energy.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C178" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Life sciences</v>
+        <v>Family friendly practices for employers</v>
       </c>
       <c r="B179" t="str">
-        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for family friendly practices for employers](http://covid19.ca.gov/pdf/guidance-familyfriendlypracticesemployers.pdf) provides guidelines for family-friendly practices to keep employees safe and be responsive to their needs in order to ensure continued productivity. As workplaces reopen, employees will require both child care supports and workplace flexibility. Work-life balance policies will become even more important and continued investment in family-friendly workplace policies by employers is critical.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C179" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Limited services</v>
+        <v>Food packing</v>
       </c>
       <c r="B180" t="str">
-        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- laundromat, dry cleaner, laundry, auto repair, car wash, landscaper, door to door, sales, pet groom, dog walk, entry to private residences, community 2 facilities, residential, janitorial, cleaning services, house keep, house clean, HVAC, appliance repair, electrician, plumbers, mechanical trade, handyperson, handyman, general contractors, lessees, subcontractors --&gt;</v>
+        <v>The [guidance for facilities that process or pack meat, dairy, or produce](http://covid19.ca.gov/pdf/guidance-food-packing.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for facilities that process or pack meat, dairy or produce](http://covid19.ca.gov/pdf/checklist-food-packing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C180" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Logistics and warehousing facilities</v>
+        <v>Hotels and lodging</v>
       </c>
       <c r="B181" t="str">
-        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the hotels and lodging](http://covid19.ca.gov/pdf/guidance-hotels.pdf) provides guidelines to counties not [approved for variance](https://covid19.ca.gov/roadmap-counties/) create a safer environment for workers and customers.\n\nUnless your county has been approved to move further in the roadmap, hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nSeparate guidance for hotels and lodging services in counties with variance attestation [can be found here](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf).\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C181" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Manufacturing</v>
+        <v>Life sciences</v>
       </c>
       <c r="B182" t="str">
-        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the life sciences industry](http://covid19.ca.gov/pdf/guidance-life-sciences.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the life sciences industry](http://covid19.ca.gov/pdf/checklist-life-sciences.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C182" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Mining and logging</v>
+        <v>Limited services</v>
       </c>
       <c r="B183" t="str">
-        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Limited Services are defined as those which do not generally require close contact. Follow this [guidance for Limited Services](https://covid19.ca.gov/pdf/guidance-limited-services.pdf) to create a safer environment for workers and patrons.\n\nFaith-based counseling can reopen within the following parameters:\n\n1.  Counselling services are permissible in-person where the service cannot reasonably be practiced remotely;\n2.  Counselling services should adopt state guidance on Limited Services, where applicable;\n3.  This designation does not permit gatherings beyond counselling to members of a single household.\n\nReview the guidance, prepare a plan, and post the [checklist for Limited Services](https://covid19.ca.gov/pdf/checklist-limited-services.pdf) in your workplace to show clients and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- laundromat, dry cleaner, laundry, auto repair, car wash, landscaper, door to door, sales, pet groom, dog walk, entry to private residences, community 2 facilities, residential, janitorial, cleaning services, house keep, house clean, HVAC, appliance repair, electrician, plumbers, mechanical trade, handyperson, handyman, general contractors, lessees, subcontractors --&gt;</v>
       </c>
       <c r="C183" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Music, film, and TV production</v>
+        <v>Logistics and warehousing facilities</v>
       </c>
       <c r="B184" t="str">
-        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for businesses operating in the logistics/warehousing industry](http://covid19.ca.gov/pdf/guidance-logistics-warehousing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post  the [checklist for the logistics/warehousing industry](http://covid19.ca.gov/pdf/checklist-logistics-warehousing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C184" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Office workspaces</v>
+        <v>Manufacturing</v>
       </c>
       <c r="B185" t="str">
-        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the manufacturing industry](http://covid19.ca.gov/pdf/guidance-manufacturing.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the manufacturing industry](http://covid19.ca.gov/pdf/checklist-manufacturing.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C185" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Outdoor museums</v>
+        <v>Mining and logging</v>
       </c>
       <c r="B186" t="str">
-        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [guidance for the mining and logging industries](http://covid19.ca.gov/pdf/guidance-mining-logging.pdf) provides guidelines to create a safer environment for workers.  \n  \nReview the guidance, prepare a plan, and post the [checklist for the mining and logging industries](http://covid19.ca.gov/pdf/checklist-mining-logging.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C186" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Places of worship and cultural ceremonies</v>
+        <v>Music, film, and TV production</v>
       </c>
       <c r="B187" t="str">
-        <v>This [guidance for places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) and cultural ceremonies, like weddings and funerals, provides guidelines to create a safer environment for workers and visitors. Guidance last updated July 6, 2020. Review the guidance, prepare a plan, and post the [checklist for places of worship](https://files.covid19.ca.gov/pdf/checklist-places-of-worship.pdf) and cultural ceremonies in your workplace to show workers and visitors that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Music, TV and film production may resume in California, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdictions of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, productions, cast, crew and other industry workers should abide by safety protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/industry-guidance/#top) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C187" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Ports</v>
+        <v>Office workspaces</v>
       </c>
       <c r="B188" t="str">
-        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for office workspaces](http://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) to create a safer environment for workers.\n\nFaith-based office workspaces can reopen within the following parameters:\n\n1.  Faith-based facilities are considered “offices” only for those employed by the organization and where the facility is their regular place of work.\n2.  The employer should implement state guidance relating to offices before reopening the facility for employees.\n3.  This designation does not permit gatherings of non-employees, such as the organization’s congregation.\n\nReview the guidance, prepare a plan, and post the [checklist for office workspaces](http://covid19.ca.gov/pdf/checklist-office-workspaces.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C188" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Professional sports (without live audiences)</v>
+        <v>Outdoor museums</v>
       </c>
       <c r="B189" t="str">
-        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for outdoor museums](https://covid19.ca.gov/pdf/guidance-outdoor-museums.pdf) to create a safer environment for workers and patrons.\n\nReview the guidance, prepare a plan, and post the [checklist for outdoor museums](http://covid19.ca.gov/pdf/checklist-outdoor-museums.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C189" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Public transit and intercity passenger rail</v>
+        <v>Places of worship and cultural ceremonies</v>
       </c>
       <c r="B190" t="str">
-        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for places of worship](http://covid19.ca.gov/pdf/guidance-places-of-worship.pdf) and cultural ceremonies, like weddings and funerals, provides guidelines to create a safer environment for workers and visitors. Guidance last updated July 6, 2020. Review the guidance, prepare a plan, and post the [checklist for places of worship](https://files.covid19.ca.gov/pdf/checklist-places-of-worship.pdf) and cultural ceremonies in your workplace to show workers and visitors that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C190" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Real estate transaction</v>
+        <v>Ports</v>
       </c>
       <c r="B191" t="str">
-        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for the port industry](http://covid19.ca.gov/pdf/guidance-ports.pdf) provides guidelines to create a safer environment for workers. Review the guidance, prepare a plan, and post the [checklist for the port industry](http://covid19.ca.gov/pdf/checklist-ports.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C191" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Retail</v>
+        <v>Professional sports (without live audiences)</v>
       </c>
       <c r="B192" t="str">
-        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Professional sports in California may resume training and competition without live audiences, recommended no sooner than June 12, 2020 and subject to approval by county public health officers within the jurisdiction of operations following their review of local epidemiological data including cases per 100,000 population, rate of test positivity, and local preparedness to support a health care surge, vulnerable populations, contact tracing and testing.  \n  \nTo reduce the risk of COVID-19 transmission, athletes, coaching staff, medical staff, broadcasting staff and others at sporting facilities or events should abide by COVID-19 protocols agreed by labor and management, which may be further enhanced by county public health officers. Back office staff and management should adhere to [Office Workspace guidelines](https://covid19.ca.gov/pdf/guidance-office-workspaces.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission. Retail staff should adhere to [Retail guidelines](https://covid19.ca.gov/pdf/guidance-retail.pdf) published by the California Department of Public Health and the California Department of Industrial Relations, to reduce the risk of COVID-19 transmission.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C192" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Schools – Updated July 17!</v>
+        <v>Public transit and intercity passenger rail</v>
       </c>
       <c r="B193" t="str">
-        <v>This [updated guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines for in-person learning and distance learning. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities.\n\nSchools have been closed for in-person instruction since mid-March 2020 due to the COVID-19 pandemic. School closures to in-person instruction were part of a broader set of recommendations intended to reduce the spread of COVID-19. For more detailed direction on measures to be taken when a student, teacher, or staff member has symptoms or is diagnosed with COVID-19, please see the [COVID-19 and Reopening Framework for K-12 Schools in California](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Schools%20Reopening%20Recommendations.pdf).\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for public transit agencies](http://covid19.ca.gov/pdf/guidance-transit-rail.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for public transit agencies](http://covid19.ca.gov/pdf/checklist-transit-rail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C193" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Support for working families</v>
+        <v>Real estate transaction</v>
       </c>
       <c r="B194" t="str">
-        <v>The [support for working families](http://files.covid19.ca.gov/pdf/guidance-supportworkingfamilies--en.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for businesses operating in the real estate industry](http://covid19.ca.gov/pdf/guidance-real-estate.pdf) provides guidelines to create a safer environment for workers.  \nReview the guidance, prepare a plan, and post the [checklist for the real estate industry](http://covid19.ca.gov/pdf/checklist-real-estate.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C194" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Shopping centers</v>
+        <v>Retail</v>
       </c>
       <c r="B195" t="str">
-        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for retailers](http://covid19.ca.gov/pdf/guidance-retail.pdf) to create a safer environment for workers and customers.\n\nRetailers and libraries can re-open, along with the manufacturing and logistics sectors that support retail. Drive-in and movie theaters can re-open with additional considerations.\n\nRetail doesn’t include personal services such as beauty salons, but does include the sale of goods such as:\n\n*   Bookstores\n*   Jewelry stores\n*   Toy stores\n*   Clothing and shoe stores\n*   Home and furnishing stores\n*   Sporting goods stores\n*   Florists\n\nRetail stores identified in the [essential workforce list](https://covid19.ca.gov/essential-workforce/) can open for in-store shopping. They include:\n\n*   Retail facilities specializing in medical goods and supplies\n*   Grocery stores, pharmacies, convenience stores, and other retail that sells food or beverage products, and animal/pet food\n*   Fuel centers such as gas stations and truck stops\n*   Hardware and building materials stores, consumer electronics, technology and appliances retail\n\nReview the guidance, prepare a plan, and post the [checklist for retail](http://covid19.ca.gov/pdf/checklist-retail.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C195" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Take-out restaurants</v>
+        <v>Schools – Updated July 20</v>
       </c>
       <c r="B196" t="str">
-        <v>Follow this [guidance for restaurants providing take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [updated guidance for schools and school-based programs](http://covid19.ca.gov/pdf/guidance-schools.pdf) provides guidelines for in-person learning and distance learning. This guidance will be updated as new data and practices emerge. The guidelines and considerations do not reflect the full scope of issues that school communities will need to address, which range from day-to-day site-based logistics to the social and emotional well-being of students and staff. Further guidance is forthcoming, including on school-based sports and extracurricular activities. All decisions about following this guidance should be made in collaboration with local health officials and other authorities. Review the guidance, prepare a plan, and post the [checklist for schools](https://files.covid19.ca.gov/pdf/checklist-schools--en.pdf) in your facility to show employees, students, and families that you’ve reduced the risk and are open for operation.\n\nSchools have been closed for in-person instruction since mid-March 2020 due to the COVID-19 pandemic. School closures to in-person instruction were part of a broader set of recommendations intended to reduce the spread of COVID-19. For more detailed direction on measures to be taken when a student, teacher, or staff member has symptoms or is diagnosed with COVID-19, please see the [COVID-19 and Reopening Framework for K-12 Schools in California](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Schools%20Reopening%20Recommendations.pdf).\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C196" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Dine-in restaurants</v>
+        <v>Support for working families</v>
       </c>
       <c r="B197" t="str">
-        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>The [support for working families](http://files.covid19.ca.gov/pdf/guidance-supportworkingfamilies--en.pdf) guidance provides information to help you locate child care, find assistance to pay for child care, and connect you to additional supports for your family. As stay-at-home orders are lifted for additional industries to promote California’s economic recovery, the need for child care and other supports for working families increases.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C197" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Hair salons and barbershops</v>
+        <v>Shopping centers</v>
       </c>
       <c r="B198" t="str">
-        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers and customers. Review the guidance, prepare a plan, and post the [checklist for hair salons](https://files.covid19.ca.gov/pdf/checklist-hair-salons.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for shopping centers](https://covid19.ca.gov/pdf/guidance-shopping-centers.pdf) to create a safer environment for workers and customers.  \n  \nInterior stores in shopping malls can do curbside pickup with modifications.  \n  \nReview the guidance, prepare a plan, and post the [checklist for shopping centers](https://covid19.ca.gov/pdf/checklist-shopping-centers.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C198" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Casinos</v>
+        <v>Take-out restaurants</v>
       </c>
       <c r="B199" t="str">
-        <v>In working with tribal governments, CDPH and DIR have released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for casinos](https://files.covid19.ca.gov/pdf/checklist-casinos.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for restaurants providing take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C199" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Movie theaters and family entertainment centers</v>
+        <v>Dine-in restaurants</v>
       </c>
       <c r="B200" t="str">
-        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for movie theaters and family entertainment centers](https://files.covid19.ca.gov/pdf/checklist-family-entertainment.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for dine-in restaurants](https://covid19.ca.gov/pdf/guidance-dine-in-restaurants.pdf) provides guidelines to create a safer environment for workers and customers.  \nReview the guidance, prepare a plan, and post the [checklist for dine-in restaurants](https://covid19.ca.gov/pdf/checklist-dine-in-restaurants.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C200" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5582,10 +5582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Restaurants, wineries, and bars</v>
+        <v>Hair salons and barbershops</v>
       </c>
       <c r="B201" t="str">
-        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for restaurants, wineries, and bars](https://files.covid19.ca.gov/pdf/checklist-restaurants-bars.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>This [guidance for hair salons and barbershops](https://covid19.ca.gov/pdf/guidance-hair-salons.pdf) provides guidelines to create a safer environment for workers and customers. Review the guidance, prepare a plan, and post the [checklist for hair salons](https://files.covid19.ca.gov/pdf/checklist-hair-salons.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nFor counties that have been on the Monitoring List for 3 consecutive days, find guidance for providing hair services outdoors in the list of [guidance for counties on the Monitoring List](https://covid19.ca.gov/industry-guidance/#guidance-monitor).\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C201" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5608,10 +5608,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Zoos and museums</v>
+        <v>Casinos</v>
       </c>
       <c r="B202" t="str">
-        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for zoos, museums](https://files.covid19.ca.gov/pdf/checklist-zoos-museums.pdf), galleries, and aquariums in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>In working with tribal governments, CDPH and DIR have released guidance on how to reopen casinos with reduced risk of transmission. Tribal governments should make determinations on when to reopen based on how they align with the current local public health conditions and the statewide stage of reopening and the Governor respectfully requests that until a surrounding or neighboring local jurisdiction has progressed into Stage 3, tribal casinos remain closed.\n\nFollow this [guidance for casinos](https://covid19.ca.gov/pdf/guidance-casinos.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for casinos](https://files.covid19.ca.gov/pdf/checklist-casinos.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C202" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Gyms and fitness centers</v>
+        <v>Movie theaters and family entertainment centers</v>
       </c>
       <c r="B203" t="str">
-        <v>Follow this [guidance for gyms and fitness centers](https://files.covid19.ca.gov/pdf/guidance-fitness--en.pdf), including yoga and dance studios, to create a safer environment for workers and patrons. Guidance last updated July 1, 2020. Review the guidance, prepare a plan, and post the [checklist for gyms and fitness centers](https://files.covid19.ca.gov/pdf/checklist-fitness.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this guidance for [movie theaters and family entertainment centers](http://covid19.ca.gov/pdf/guidance-family-entertainment.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for movie theaters and family entertainment centers](https://files.covid19.ca.gov/pdf/checklist-family-entertainment.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C203" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Hotels (for tourism and individual travel)</v>
+        <v>Restaurants, wineries, and bars</v>
       </c>
       <c r="B204" t="str">
-        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nThis guidance is applicable only within counties with variance attestation. Hotel and lodging services in all other counties should adhere to the guidance limitations provided by [statewide guidance](https://covid19.ca.gov/pdf/guidance-hotels.pdf), where hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>Follow this [guidance for restaurants, wineries, and bars](http://covid19.ca.gov/pdf/guidance-restaurants-bars.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for restaurants, wineries, and bars](https://files.covid19.ca.gov/pdf/checklist-restaurants-bars.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C204" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Cardrooms and racetracks</v>
+        <v>Zoos and museums</v>
       </c>
       <c r="B205" t="str">
-        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for cardrooms](https://files.covid19.ca.gov/pdf/checklist-cardrooms-racetracks.pdf), race tracks, and satellite wagering in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for zoos, museums](http://covid19.ca.gov/pdf/guidance-zoos-museums.pdf), galleries, and aquariums to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for zoos, museums](https://files.covid19.ca.gov/pdf/checklist-zoos-museums.pdf), galleries, and aquariums in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C205" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Campgrounds and outdoor recreation</v>
+        <v>Gyms and fitness centers</v>
       </c>
       <c r="B206" t="str">
-        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the checklist for campgrounds in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, wedding, hike, walk, bike, exercise, nature, birdwatch, guided, tour, hunt, boat, cabin, bonfire, campsite, amphitheater, sport, court, rental, public, trail, marina, bonfire, campsite,  --&gt;</v>
+        <v>Follow this [guidance for gyms and fitness centers](https://files.covid19.ca.gov/pdf/guidance-fitness--en.pdf), including yoga and dance studios, to create a safer environment for workers and patrons. Guidance last updated July 1, 2020. Review the guidance, prepare a plan, and post the [checklist for gyms and fitness centers](https://files.covid19.ca.gov/pdf/checklist-fitness.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.  \n  \nRecreational team sports are not permitted and will be subject to separate guidance.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C206" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Personal care services</v>
+        <v>Hotels (for tourism and individual travel)</v>
       </c>
       <c r="B207" t="str">
-        <v>Follow this [guidance for personal care services](https://files.covid19.ca.gov/pdf/expanded-personal-services--en.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for personal care services](https://files.covid19.ca.gov/pdf/checklist-expanded-personal-care-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for hotels and short term rentals](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for tourism and individual travel to create a safer environment for workers and patrons.\n\nThis guidance is applicable only within counties with variance attestation. Hotel and lodging services in all other counties should adhere to the guidance limitations provided by [statewide guidance](https://covid19.ca.gov/pdf/guidance-hotels.pdf), where hotels should only open for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or providing housing solutions, including measures to protect homeless populations.\n\nReview the guidance, prepare a plan, and post the [checklist for hotels and lodging](http://covid19.ca.gov/pdf/checklist-hotels.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C207" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Outdoor dining</v>
+        <v>Cardrooms and racetracks</v>
       </c>
       <c r="B208" t="str">
-        <v>Follow this [guidance for restaurants providing outdoor dining, take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
+        <v>Follow this [guidance for cardrooms](https://covid19.ca.gov/pdf/guidance-cardrooms-racetracks.pdf), race tracks, and satellite wagering to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for cardrooms](https://files.covid19.ca.gov/pdf/checklist-cardrooms-racetracks.pdf), race tracks, and satellite wagering in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C208" t="str">
         <v>https://covid19.ca.gov/industry-guidance/</v>
@@ -5790,13 +5790,13 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Is there a convalescent blood plasma donation center near me?</v>
+        <v>Campgrounds and outdoor recreation</v>
       </c>
       <c r="B209" t="str">
-        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
+        <v>Follow this [guidance for campgrounds](http://covid19.ca.gov/pdf/guidance-campgrounds.pdf) to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the checklist for campgrounds in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)&lt;!-- park, visitor center, travel, museum, recreation, outdoor recreation, sports, RV, tent, camp, fish, beach, lake, river, event, wedding, hike, walk, bike, exercise, nature, birdwatch, guided, tour, hunt, boat, cabin, bonfire, campsite, amphitheater, sport, court, rental, public, trail, marina, bonfire, campsite,  --&gt;</v>
       </c>
       <c r="C209" t="str">
-        <v>https://covid19.ca.gov/plasma/</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D209" t="str">
         <v xml:space="preserve"> </v>
@@ -5816,13 +5816,13 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Where can I apply for unemployment?</v>
+        <v>Personal care services</v>
       </c>
       <c r="B210" t="str">
-        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Follow this [guidance for personal care services](https://files.covid19.ca.gov/pdf/expanded-personal-services--en.pdf) like nail salons, tattoo parlors, and body waxing to create a safer environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for personal care services](https://files.covid19.ca.gov/pdf/checklist-expanded-personal-care-services.pdf) in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nFor counties that have been on the Monitoring List for 3 consecutive days, find guidance for providing some personal care services outdoors in the list of [guidance for counties on the Monitoring List](https://covid19.ca.gov/industry-guidance/#guidance-monitor).\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C210" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D210" t="str">
         <v xml:space="preserve"> </v>
@@ -5842,13 +5842,13 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Are hotels allowed to open?</v>
+        <v>Outdoor dining</v>
       </c>
       <c r="B211" t="str">
-        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations. &lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>Follow this [guidance for restaurants providing outdoor dining, take-out, drive-through, and delivery](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf) to create a safer environment for workers and patrons. Review the guidance and prepare a plan in your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C211" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D211" t="str">
         <v xml:space="preserve"> </v>
@@ -5868,13 +5868,13 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
+        <v>Outdoor services for hair salons and barbershops</v>
       </c>
       <c r="B212" t="str">
-        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
+        <v>Follow this [guidance for hair salons and barbershops providing services outdoors](https://files.covid19.ca.gov/pdf/guidance-outdoor-hair-salons--en.pdf) to support an outdoor safe, clean environment for workers and patrons. Review the guidance, prepare a plan, and post the [checklist for hair salons providing services outdoors](https://files.covid19.ca.gov/pdf/checklist-outdoor-hair-salons--en.pdf) at your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C212" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D212" t="str">
         <v xml:space="preserve"> </v>
@@ -5894,13 +5894,13 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>What is Larry David's advice?</v>
+        <v>Outdoor services for personal care services</v>
       </c>
       <c r="B213" t="str">
-        <v>&lt;blockquote class="twitter-tweet"&gt;&lt;p lang="en" dir="ltr"&gt;“You’re hurting old people like me. Well, not me... I’ll never see you.”&lt;br&gt;&lt;br&gt;Larry David wants everyone to stay home to protect older Californians from &lt;a href="https://twitter.com/hashtag/COVID19?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#COVID19&lt;/a&gt;! &lt;br&gt;He does not do these things. &lt;br&gt;Listen to Larry.&lt;a href="https://twitter.com/hashtag/StayHomeSaveLives?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#StayHomeSaveLives&lt;/a&gt;&lt;a href="https://t.co/snYe5v55Rw"&gt;https://t.co/snYe5v55Rw&lt;/a&gt; &lt;a href="https://t.co/C5cKOaAufE"&gt;pic.twitter.com/C5cKOaAufE&lt;/a&gt;&lt;/p&gt;&amp;mdash; Office of the Governor of California (@CAgovernor) &lt;a href="https://twitter.com/CAgovernor/status/1245110728199045120?ref_src=twsrc%5Etfw"&gt;March 31, 2020&lt;/a&gt;&lt;/blockquote&gt; &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</v>
+        <v>Follow this [guidance for personal care services provided outdoors](https://files.covid19.ca.gov/pdf/guidance-outdoor-personal-care--en.pdf) to support an outdoor safe, clean environment for workers and patrons. This guidance applies to services that require touching a client’s face, like facials and waxing. This guidance also applies to esthetic services, skin care, cosmetology, nail services, and massage therapy. Review the guidance, prepare a plan, and post the [checklist for personal care services provided outdoors](https://files.covid19.ca.gov/pdf/checklist-outdoor-personal-care--en.pdf) at your workplace to show customers and employees that you’ve reduced the risk and are open for business.\n\nMore info: [Industry guidance to reduce risk](https://covid19.ca.gov/industry-guidance/)</v>
       </c>
       <c r="C213" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/industry-guidance/</v>
       </c>
       <c r="D213" t="str">
         <v xml:space="preserve"> </v>
@@ -5920,13 +5920,13 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Can I get my nails done? Can I get a massage? Can I get a facial? Can I get a tattoo?</v>
+        <v>Is there a convalescent blood plasma donation center near me?</v>
       </c>
       <c r="B214" t="str">
-        <v>It depends. All indoor operations of nail salons, tattoo parlors, and massage places have closed in counties on the county monitoring list for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
+        <v>Locate a donation center\n------------------------\n\nFind the blood center near you collecting COVID-19 blood plasma.\n\n[See the plasma donation center lookup](https://covid19.ca.gov/plasma#plasma-lookup)\n\nMore info: [Survivors of COVID-19: Donate your plasma](https://covid19.ca.gov/plasma/)</v>
       </c>
       <c r="C214" t="str">
-        <v>Editorial</v>
+        <v>https://covid19.ca.gov/plasma/</v>
       </c>
       <c r="D214" t="str">
         <v xml:space="preserve"> </v>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v xml:space="preserve">Can I go to the movies? </v>
+        <v>Where can I apply for unemployment?</v>
       </c>
       <c r="B215" t="str">
-        <v xml:space="preserve">Effective July 13, 2020, indoor movie theaters are closed in all counties. Drive-in movie theaters with modifications to support physical distancing may be open.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+        <v>If you lost your job or had your hours reduced, and meet eligibility requirements, you may be eligible to receive Unemployment Insurance (UI) benefits from California’s Employment Development Department (EDD). Check the [guide to applying for unemployment benefits](https://unemployment.edd.ca.gov/guide).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C215" t="str">
         <v>Editorial</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Can I go to a restaurant? Can I go to a winery or a brewery?</v>
+        <v>Are hotels allowed to open?</v>
       </c>
       <c r="B216" t="str">
-        <v xml:space="preserve">Indoor operations of all dine-in restaurants are closed in all counties. Restaurants across the state can be open for take out, drive through, delivery, and outdoor dining. \n\nIndoor operations for wineries and tasting rooms are closed in all counties. All bars, brewpubs, breweries, and pubs are closed statewide for both indoor and outdoor operations, unless they offer sit-down, outdoor dine-in meals. Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+        <v>[Counties that have received approval from the State](https://www.cdph.ca.gov/Programs/CID/DCDC/Pages/COVID-19/County_Variance_Attestation_Form.aspx) may open hotels, lodging and short term rentals for tourism and individual travel as long as they follow [state guidance](https://covid19.ca.gov/pdf/guidance-hotels-lodging-rentals.pdf) for public health and safety. Large meeting venues, banquet halls or convention centers should remain closed. All other counties [should only open hotels and lodging](https://covid19.ca.gov/pdf/guidance-hotels.pdf) for COVID-19 mitigation and containment measures, treatment measures, providing accommodation for essential workers, or housing solutions, including measures to protect homeless populations. &lt;!-- motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C216" t="str">
         <v>Editorial</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Are restaurants allowed to open?</v>
+        <v>Can my pet test positive for coronavirus? Can I take my pet to the vet?</v>
       </c>
       <c r="B217" t="str">
-        <v xml:space="preserve">Restaurants across the state can be open for [take out, drive through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf). Indoor operations for dine-in restaurants are closed in all counties. Bars, brewpubs, breweries, and pubs must close both indoor and outdoor operations unless they are offering [sit-down, outdoor dine-in meals](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf). Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Industry guidance](https://covid19.ca.gov/industry-guidance/) and [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+        <v>While we are still learning about coronavirus, the risk of your pet testing positive for coronavirus is low. Because [there is still a risk](https://www.cdc.gov/coronavirus/2019-ncov/animals/pets-other-animals.html), keep your pets away from other pets and people outside of your household. Do not put face coverings on pets as this could harm your pet.\n\nYou can go to the vet or pet hospital if your pet is sick. Remember to wear a cloth face covering and to distance yourself at least 6 feet from other pets and owners.</v>
       </c>
       <c r="C217" t="str">
         <v>Editorial</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Where can I find the list of essential critical infrastructure sectors?</v>
+        <v>What is Larry David's advice?</v>
       </c>
       <c r="B218" t="str">
-        <v xml:space="preserve">Visit [Essential workforce](https://covid19.ca.gov/essential-workforce/) to learn about what workers and sectors are included. </v>
+        <v>&lt;blockquote class="twitter-tweet"&gt;&lt;p lang="en" dir="ltr"&gt;“You’re hurting old people like me. Well, not me... I’ll never see you.”&lt;br&gt;&lt;br&gt;Larry David wants everyone to stay home to protect older Californians from &lt;a href="https://twitter.com/hashtag/COVID19?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#COVID19&lt;/a&gt;! &lt;br&gt;He does not do these things. &lt;br&gt;Listen to Larry.&lt;a href="https://twitter.com/hashtag/StayHomeSaveLives?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#StayHomeSaveLives&lt;/a&gt;&lt;a href="https://t.co/snYe5v55Rw"&gt;https://t.co/snYe5v55Rw&lt;/a&gt; &lt;a href="https://t.co/C5cKOaAufE"&gt;pic.twitter.com/C5cKOaAufE&lt;/a&gt;&lt;/p&gt;&amp;mdash; Office of the Governor of California (@CAgovernor) &lt;a href="https://twitter.com/CAgovernor/status/1245110728199045120?ref_src=twsrc%5Etfw"&gt;March 31, 2020&lt;/a&gt;&lt;/blockquote&gt; &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</v>
       </c>
       <c r="C218" t="str">
         <v>Editorial</v>
@@ -6048,9 +6048,165 @@
         <v>217</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v xml:space="preserve">Can I go to the movies? </v>
+      </c>
+      <c r="B219" t="str">
+        <v xml:space="preserve">Effective July 13, 2020, indoor movie theaters are closed in all counties. Drive-in movie theaters with modifications to support physical distancing may be open.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C219" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D219" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E219" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F219" t="str">
+        <v>false</v>
+      </c>
+      <c r="G219" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H219" t="str">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Can I go to a restaurant? Can I go to a winery or a brewery?</v>
+      </c>
+      <c r="B220" t="str">
+        <v xml:space="preserve">Indoor operations of all dine-in restaurants are closed in all counties. Restaurants across the state can be open for take out, drive through, delivery, and outdoor dining. \n\nIndoor operations for wineries and tasting rooms are closed in all counties. All bars, brewpubs, breweries, and pubs are closed statewide for both indoor and outdoor operations, unless they offer sit-down, outdoor dine-in meals. Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C220" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D220" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E220" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F220" t="str">
+        <v>false</v>
+      </c>
+      <c r="G220" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H220" t="str">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Are restaurants allowed to open?</v>
+      </c>
+      <c r="B221" t="str">
+        <v xml:space="preserve">Restaurants across the state can be open for [take out, drive through, and delivery](https://files.covid19.ca.gov/pdf/guidance-takeout-restaurants.pdf). Indoor operations for dine-in restaurants are closed in all counties. Bars, brewpubs, breweries, and pubs must close both indoor and outdoor operations unless they are offering [sit-down, outdoor dine-in meals](https://files.covid19.ca.gov/pdf/guidance-outdoor-restaurants.pdf). Alcohol can only be sold in the same transaction as a meal.\n\nMore info: [Industry guidance](https://covid19.ca.gov/industry-guidance/) and [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) </v>
+      </c>
+      <c r="C221" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D221" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E221" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F221" t="str">
+        <v>false</v>
+      </c>
+      <c r="G221" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H221" t="str">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Where can I find the list of essential critical infrastructure sectors?</v>
+      </c>
+      <c r="B222" t="str">
+        <v xml:space="preserve">Visit [Essential workforce](https://covid19.ca.gov/essential-workforce/) to learn about what workers and sectors are included. </v>
+      </c>
+      <c r="C222" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D222" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E222" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F222" t="str">
+        <v>false</v>
+      </c>
+      <c r="G222" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H222" t="str">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Can I get my nails done? Can I get a massage? Can I get a facial?</v>
+      </c>
+      <c r="B223" t="str">
+        <v>It depends. Services like nails, waxing, facials, and massage therapy can be open in counties not on the Monitoring List. For counties on the Monitoring List for 3 consecutive days, some services may be provided outdoors, like nails, waxing, facials, and massage. All indoor operations of nail salons, skin care, waxing, and massage are closed in counties on the Monitoring List for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D223" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E223" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F223" t="str">
+        <v>false</v>
+      </c>
+      <c r="G223" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H223" t="str">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Can I get a tattoo or piercing? Can I get electrolysis?</v>
+      </c>
+      <c r="B224" t="str">
+        <v>It depends. Tattoo, piercing, and electrolysis services can be open in counties not on the Monitoring List. All indoor and outdoor services for tattooing, piercing, and electrolysis are closed in counties on the Monitoring List for 3 consecutive days. [Learn more about which counties are on the list](https://covid19.ca.gov/roadmap-counties/).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/) &lt;!-- spa, esthetician, electrolysis, waxing, cosmetology services, electrology, body art --&gt;</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Editorial</v>
+      </c>
+      <c r="D224" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E224" t="str">
+        <v>[]</v>
+      </c>
+      <c r="F224" t="str">
+        <v>false</v>
+      </c>
+      <c r="G224" t="str">
+        <v>[]</v>
+      </c>
+      <c r="H224" t="str">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H218"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H224"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/qnacrawler/merged.xlsx
+++ b/qnacrawler/merged.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>Who are high risk people for COVID-19?</v>
       </c>
       <c r="B4" t="str">
-        <v>### Some people are at higher risk to get very sick from COVID-19, including:\n\n*   people over 65 years old\n*   people with compromised immune systems\n*   Individuals who have serious chronic medical conditions like:\n    *   Heart disease\n    *   Diabetes\n    *   Lung disease\n*   [Smokers](https://www.nejm.org/doi/full/10.1056/NEJMoa2002032)\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
+        <v>#### Some people are at [higher risk](https://www.cdc.gov/coronavirus/2019-ncov/need-extra-precautions/people-at-increased-risk.html) to get very sick from COVID-19, including:\n\nMore info: [Symptoms and risks](https://covid19.ca.gov/symptoms-and-risks/)</v>
       </c>
       <c r="C4" t="str">
         <v>https://covid19.ca.gov/symptoms-and-risks/</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>I want to express my political views.  How can I make my voice heard without raising public health concerns?</v>
+        <v>Are safety protocols being enforced? How do I report a business that isn’t complying?</v>
       </c>
       <c r="B19" t="str">
-        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you comply with any other applicable public health directives. When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car activities to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>They are being enforced, and you can report it. Report unsafe conditions or businesses that shouldn’t be open to your local Alcohol Beverage Control, Labor Commissioner’s office, or regional Cal/OSHA office, depending on the type of business. To find these local contacts, see Appendix B of the [Employer Playbook for a Safe Reopening (PDF)](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C19" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Can I engage in political protest gatherings?</v>
+        <v>I want to express my political views.  How can I make my voice heard without raising public health concerns?</v>
       </c>
       <c r="B20" t="str">
-        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through 6 feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as you maintain a physical distance of 6 feet between persons or groups of persons from different households at all times. When you can’t maintain a safe physical distance of 6 feet from people not in your household, you must wear a face covering or mask. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are strongly recommended.\n\nIn counties that have been on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/) for three consecutive days, indoor protests are not currently permitted. State public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, (2) physical distancing of 6 feet between persons or groups of persons from different households is maintained at all times, and (3) singing and chanting activities are discontinued. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are required in compliance with CDPH directives.\n\nParticipants must maintain a physical distance of 6 feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>There are many ways for you to express your political views without holding a physical, in-person gathering.  For example, you may continue to call or write elected officials, write letters to the editor of news publications, display lawn or window signs, or use online and other electronic media (including Zoom rooms, Twitter feeds, Facebook pages, and other digital forums) to express your views.  \n\nAdditionally, as noted above, you may leave your home for any reason as long as you comply with any other applicable public health directives. When you are otherwise out in public, public health directives do not prevent you from engaging in political expression—such as by wearing or carrying a sign.\n\nIf collective action in physical space is important to you, consider whether you and other participants can safely protest from within your cars.  The State Public Health Officer does not consider in-car activities to be gatherings, if participants stay in their cars and otherwise remain apart from individuals who are not part of their households.  Many activists have organized car-based protests (honking horns, flying flags, displaying signs, and so on) to express their political views while complying with State public health directives.  \n\nWhenever you are considering a protest (including an in-car protest), make sure you comply with all other applicable laws, including any local public-health measures that may be more restrictive than statewide directives and any other applicable local laws.\n\nIf you do wish to engage in in-person protest outside of your car with a group of any size, you must follow the guidelines for political protest gatherings below.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C20" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>How do I vote?</v>
+        <v>Can I engage in political protest gatherings?</v>
       </c>
       <c r="B21" t="str">
-        <v>Elections are an essential activity. The Governor has issued [executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Most counties will provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) in-person starting the Saturday before the election.Open ballot drop-box locations will be available between October 6 and November 3, 2020. Existing laws addressing the use of vote-by-mail ballots in California elections remain in effect except where suspended by Executive Order. Find [guidance for the safe administration of elections](https://elections.cdn.sos.ca.gov/ccrov/pdf/2020/july/20154jl.pdf) during COVID-19.\n\n Visit [online voter registration](https://registertovote.ca.gov/) to register to vote or check your voter registration status. \n\nPractice physical distancing and follow other applicable public health directives while engaged in election-related activities. These include collection and drop-off of ballots, and collection of signatures to qualify candidates or measures for the ballot.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes, although in-person protests present special public health concerns. \n\nEven with adherence to physical distancing, bringing members of different households together to engage in in-person protest carries a higher risk of widespread transmission of COVID-19.  Such gatherings may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like chanting, shouting, singing, and group recitation negate the risk-reduction achieved through 6 feet of physical distancing. For this reason, people engaging in these activities should wear face coverings at all times.\n\nTherefore, it is strongly recommended that those exercising their right to engage in political expression (including, for example, their right to petition the government) should utilize alternative channels, such as the many online and broadcasting platforms available in the digital age, in place of in-person gatherings. \n\nHowever, state public health directives do not prohibit in-person _outdoor_ protests as long as you maintain a physical distance of 6 feet between persons or groups of persons from different households at all times. When you can’t maintain a safe physical distance of 6 feet from people not in your household, you must wear a face covering or mask. Local Health Officers are advised to consider appropriate limitations on outdoor attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are strongly recommended.\n\nIn counties that have been on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/) for three consecutive days, indoor protests are not currently permitted. State public health directives do not prohibit in-person _indoor_ protests as long as (1) attendance is limited to 25% of the relevant area’s maximum occupancy, as defined by the relevant local permitting authority or other relevant authority, or a maximum of 100 attendees, whichever is lower, (2) physical distancing of 6 feet between persons or groups of persons from different households is maintained at all times, and (3) singing and chanting activities are discontinued. Failure to maintain adequate physical distancing may result in an order to disperse or other enforcement action. Masks and face coverings are required in compliance with CDPH directives.\n\nParticipants must maintain a physical distance of 6 feet from any uniformed peace officers and other public safety personnel present, unless otherwise directed, and follow all other requirements and directives imposed by local health officers and law enforcement, or other applicable authorities.\n\nThis limitation on attendance will be reviewed regularly. This review will assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of gatherings that implicate the First Amendment.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C21" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Can I go to church?</v>
+        <v>How do I vote?</v>
       </c>
       <c r="B22" t="str">
-        <v>Yes. Places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). In counties on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/), indoor services in places of worship must be discontinued but outdoor and online services are permitted.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Elections are an essential activity. The Governor has issued [executive orders to ensure elections are safe and accessible](https://www.gov.ca.gov/2020/05/08/governor-newsom-issues-executive-order-to-protect-public-health-by-mailing-every-registered-voter-a-ballot-ahead-of-the-november-general-election/). Vote-by-mail ballots will be sent to all registered voters for the November 3, 2020 General Election. Most counties will provide [three days of early voting](https://www.gov.ca.gov/2020/06/03/governor-newsom-signs-executive-order-on-safe-secure-and-accessible-general-election-in-november/) in-person starting the Saturday before the election.Open ballot drop-box locations will be available between October 6 and November 3, 2020. Existing laws addressing the use of vote-by-mail ballots in California elections remain in effect except where suspended by Executive Order. Find [guidance for the safe administration of elections](https://elections.cdn.sos.ca.gov/ccrov/pdf/2020/july/20154jl.pdf) during COVID-19.\n\n Visit [online voter registration](https://registertovote.ca.gov/) to register to vote or check your voter registration status. \n\nPractice physical distancing and follow other applicable public health directives while engaged in election-related activities. These include collection and drop-off of ballots, and collection of signatures to qualify candidates or measures for the ballot.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C22" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Can I practice my religious faith?</v>
+        <v>Can I go to church?</v>
       </c>
       <c r="B23" t="str">
-        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, temple, wedding, funeral, baptism --&gt;</v>
+        <v>Yes. Places of worship such as churches, mosques, temples, and synagogues can open throughout the state, with [modifications for safety (PDF)](https://files.covid19.ca.gov/pdf/guidance-places-of-worship.pdf). In counties on the [County Monitoring List](https://covid19.ca.gov/roadmap-counties/), indoor services in places of worship must be discontinued but outdoor and online services are permitted.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C23" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>What conditions must be met to resume religious services and cultural ceremonies at places of worship?</v>
+        <v>Can I practice my religious faith?</v>
       </c>
       <c r="B24" t="str">
-        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, singing and chanting activities must be discontinued at indoor services, and congregants engaging in group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower, and singing and chanting activities must be discontinued in indoor services. In counties on the County Monitoring List for three consecutive days, places of worship must discontinue indoor services.\n\nLocal Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of 6 feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be regularly reviewed by the California Department of Public Health.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Yes. Practicing your faith is a constitutionally-protected activity and may manifest in many different forms.\n\nAlthough in-person religious gatherings—like other in-person gatherings—have been restricted to prevent the transmission of COVID-19, on May 25, 2020, the State Public Health Officer began to ease restrictions on in-person religious gatherings. In particular, the State Public Health Officer now authorizes County Departments of Public Health to allow collective activities at places of worship, subject to conditions to support a safe, clean environment for employees, interns and trainees, volunteers, scholars, and all other types of workers as well as congregants, worshippers, and visitors.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- church, mosque, synagogue, temple, wedding, funeral, baptism --&gt;</v>
       </c>
       <c r="C24" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
+        <v>What conditions must be met to resume religious services and cultural ceremonies at places of worship?</v>
       </c>
       <c r="B25" t="str">
-        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least 6 feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Information on conditions imposed by the state can be found at [guidance for places of worship (PDF)](https://files.covid19.ca.gov/pdf/guidance-places-of-worship.pdf). Additional conditions may be imposed by local public health officials. This guidance does not obligate places of worship to resume in-person activity. It is strongly recommended that places of worship continue to facilitate remote services and other alternatives to in-person religious practice for those who are vulnerable to COVID19.\n\nEven with adherence to physical distancing, convening in a congregational setting of multiple households to practice a personal faith carries a higher risk of widespread transmission of COVID-19, and may result in increased rates of infection, hospitalization, and death, especially among more vulnerable populations. In particular, activities like singing and group recitation dramatically increase the risk of COVID-19 transmission. For this reason, singing and chanting activities must be discontinued at indoor services, and congregants engaging in group recitation should wear face coverings at all times.\n\nPlaces of worship must therefore limit _indoor_ attendance to 25% of building capacity or a maximum of 100 attendees, whichever is lower, and singing and chanting activities must be discontinued in indoor services. In counties on the County Monitoring List for three consecutive days, places of worship must discontinue indoor services.\n\nLocal Health Officers are advised to consider appropriate limitations on _outdoor_ attendance capacities, factoring their jurisdiction’s key COVID-19 health indicators. At a minimum, outdoor attendance should be limited naturally through implementation of strict physical distancing measures of a minimum of 6 feet between attendees from different households, in addition to other relevant protocols within this document.\n\nThis limitation will be regularly reviewed by the California Department of Public Health.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C25" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>When will these conditions change for places of worship?</v>
+        <v>Can children attend group activities (like Sunday school or Hebrew school) at places of worship?</v>
       </c>
       <c r="B26" t="str">
-        <v>The California Department of Public Health, in consultation with county Departments of Public Health, will regularly review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>At this time, no. Children should remain in the care of those in their household unit and not interact with children of other parties at all times while visiting facilities. Places of worship must discontinue activities and services for children (for example, shared play areas) where physical distancing of at least 6 feet cannot be maintained.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C26" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
+        <v>When will these conditions change for places of worship?</v>
       </c>
       <c r="B27" t="str">
-        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of 6 feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>The California Department of Public Health, in consultation with county Departments of Public Health, will regularly review and assess the impacts of these imposed limits on public health and provide further direction as part of a phased-in restoration of activities in places of worship.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C27" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Can I walk my dog? Take my pet to the vet?</v>
+        <v>Can I still exercise? Take my kids to the park for fresh air? Take a walk around the block?</v>
       </c>
       <c r="B28" t="str">
-        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to wear a face covering and distance yourself at least 6 feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>It’s okay to go outside to go for a walk, to exercise, and participate in healthy activities as long as you **maintain a safe physical distance of 6 feet and gather only with members of your household.** You can also participate in activities at [outdoor recreational facilities](https://files.covid19.ca.gov/pdf/guidance-campgrounds.pdf) that are allowed to open. [Parks may be closed](https://covid19.ca.gov/public-recreation/) to help slow the spread of the virus. Check with local officials about park closures in your area. Californians should not travel significant distances for recreation and should stay close to home.\n\nBelow is a list of some outdoor recreational activities.\n\n*   Badminton (singles)\n*   Throwing a baseball/softball\n*   BMX biking\n*   Canoeing (singles)\n*   Crabbing\n*   Cycling\n*   Exploring rock pools\n*   Gardening (not in groups)\n*   Golfing (doubles, only if cart has protective partition)\n*   Hiking (trails/ paths allowing distancing)\n*   Horse riding (singles)\n*   Jogging and running\n*   Kite boarding and kitesurfing\n*   Meditation\n*   Outdoor photography\n*   Picnics (with your household members only)\n*   Quad biking\n*   Rock climbing\n*   Roller skating and rollerblading\n*   Rowing (singles)\n*   Scootering (not in groups)\n*   Skateboarding (not in groups)\n*   Soft martial arts – tai chi, chi kung (not in groups)\n*   Surfing\n*   Tennis and table tennis (singles)\n*   Throwing a football, kicking a soccer ball (not in groups)\n*   Trail running\n*   Trampolining\n*   Tree climbing\n*   Volleyball (singles)\n*   Walk the dog\n*   Wash the car\n*   Watch the sunrise or sunset\n*   Yoga\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C28" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Can I visit State Parks? What outdoor spaces are open?</v>
+        <v>Can I walk my dog? Take my pet to the vet?</v>
       </c>
       <c r="B29" t="str">
-        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
+        <v>You can walk your dog. You can go to the vet or pet hospital if your pet is sick. Remember to wear a face covering and distance yourself at least 6 feet from other pets and owners.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C29" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Can I travel?</v>
+        <v>Can I visit State Parks? What outdoor spaces are open?</v>
       </c>
       <c r="B30" t="str">
-        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nYou should check with the local health department where you are starting from, along your route, and at your planned destination for information. Know that local rules are constantly changing and may change even after you start your trip. [Check for travel updates](https://www.visitcalifornia.com/latest-covid-19-coronavirus) before you leave your home.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, travel, gathering, tourism, funeral, motel, vacation, airbnb, vrbo, rental home --&gt;</v>
+        <v>State Parks, campgrounds, museums, and visitor centers [may continue to be closed](https://www.parks.ca.gov/?page_id=30350) to help slow the spread of the virus. Starting June 12, some counties may open campgrounds and RV parks. Be sure to check [parks in your area before you travel](https://covid19.ca.gov/public-recreation/). Californians should not travel significant distances for pleasure or recreation and should stay close to home. If you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.\n\nYou can walk, run, hike and bike in your local neighborhoods as long as they continue to practice physical distancing of 6 feet. This means avoiding crowded trails and parking lots.\n\nFor information on National Parks, please the [National Park Service website](https://www.nps.gov/aboutus/news/public-health-update.htm).\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- park, visitor center, travel, museum, RV parks, recreation, outdoor recreation, sports, RV, tent camping, tent camp, fish, beach, lake, river, event, outdoor event, event planning, hike, walk, bike, exercise, nature, bird watching, public →&lt;/p&gt;--&gt;</v>
       </c>
       <c r="C30" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
+        <v>Can I travel?</v>
       </c>
       <c r="B31" t="str">
-        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n*   On June 26, the DMV will begin behind-the-wheel driving tests. The DMV will reschedule all cancelled driving test appointments. New behind-the-wheel driving tests will not be available until all cancelled appointments are completed. \n    *   [For the health and safety of drivers and DMV staff](https://www.dmv.ca.gov/portal/news-and-media/dmv-resumes-behind-the-wheel-drive-tests-with-new-protocols-on-friday/), you must wear a face covering and will have your temperature checked before the test.\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   Drivers 70 years of age and older with licenses expiring between March 1 through December 31, 2020 are valid for one year from the original expiration date.\n*   Drivers 69 years of age and younger with licenses expiring between March 1 through July 31, 2020 can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive.\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020.\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago.\n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>You can travel for urgent matters or if such travel is essential to your permitted work. Even though businesses around the state are opening up, avoid travelling long distances for vacations or pleasure as much as possible. This is to slow the spread of the coronavirus. Do not travel if you are sick, or if someone in your household has had coronavirus in the last two weeks. Do not travel with someone who is sick.\n\nYou should check with the local health department where you are starting from, along your route, and at your planned destination for information. Know that local rules are constantly changing and may change even after you start your trip. [Check for travel updates](https://www.visitcalifornia.com/latest-covid-19-coronavirus) before you leave your home.\n\nBefore travelling away from your community, consider these questions from the [Center for Disease Control (CDC) travel guidance](https://www.cdc.gov/coronavirus/2019-ncov/travelers/travel-in-the-us.html):\n\n*   Is coronavirus spreading where you are traveling?\n*   Are you or those you are traveling with more likely to get very sick from coronavirus?\n*   Will you be able to keep 6 feet of physical distance from others during or after your trip?\n\nIf you do travel, take steps to keep everyone safe like wearing a face covering, keeping 6 feet of physical distance from those not in your household, and washing your hands frequently.  \n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)&lt;!-- wedding, travel, gathering, tourism, funeral, motel, vacation, airbnb, vrbo, rental home --&gt;</v>
       </c>
       <c r="C31" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Can I get my car smog checked?</v>
+        <v>Can I go to the Department of Motor Vehicles (DMV)?</v>
       </c>
       <c r="B32" t="str">
-        <v>It depends. Some smog check locations may be closed. The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, you can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
+        <v>Beginning June 11, [all DMV offices](https://www.dmv.ca.gov/portal/news-and-media/dmv-reopens-remaining-field-offices-to-public/) are open to the public to help with appointments that require an in-person visit. You will be required to wear a mask and must remain 6 feet apart in line. In-person appointments are limited to:\n\n*   Paying registration for a vehicle impounded because of registration-related issues\n*   Reinstating a suspended or revoked driver license\n*   Applying for a reduced-fee or no-fee identification card\n*   Processing commercial driver license transactions\n*   Applying for a disabled person parking placards\n*   Adding an ambulance certificate or firefighter endorsement to a driver license\n*   Verifying a transit training document to drive a transit bus\n*   Processing DMV Express customers for REAL ID transactions, if time and space allows\n*   On June 26, the DMV will begin behind-the-wheel driving tests. The DMV will reschedule all cancelled driving test appointments. New behind-the-wheel driving tests will not be available until all cancelled appointments are completed. \n    *   [For the health and safety of drivers and DMV staff](https://www.dmv.ca.gov/portal/news-and-media/dmv-resumes-behind-the-wheel-drive-tests-with-new-protocols-on-friday/), you must wear a face covering and will have your temperature checked before the test.\n\nDMV services that do not require an in-person office visit can be accessed through the [DMV Virtual Field Office](https://virtual.dmv.ca.gov/), including driver’s license renewals, vehicle registrations, title changes, and more.\n\nDMV has extended deadlines for:\n\n*   Drivers 70 years of age and older with licenses expiring between March 1 through December 31, 2020 are valid for one year from the original expiration date.\n*   Drivers 69 years of age and younger with licenses expiring between March 1 through July 31, 2020 can request a free temporary [extension online](https://www.dmv.ca.gov/portal/dmv-virtual-office/temporary-driver-license-extension/), though one is not needed to drive.\n*   Expiring commercial licenses, endorsements, and certificates are valid through June 30, 2020.\n*   In-person renewals for vehicle registrations that expire between the dates of March 16, 2020, and May 31, 2020.\n*   In-person renewals for those with safe driving records whose last DMV visit was 15 years ago.\n*   Driver license permits expiring between June through August 2020 are extended six months or to a date 24 months from the date of application, whichever is earlier.\n*   Commercial learner’s permits expiring between March and June 2020 are now valid through June 30, 2020.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C32" t="str">
         <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Should I wear a face covering or mask to protect against COVID-19?</v>
+        <v>Can I get my car smog checked?</v>
       </c>
       <c r="B33" t="str">
-        <v>Yes. Californians must wear face coverings when in public spaces, especially indoors and other areas where physical distancing is not possible. Face coverings help reduce the spread of COVID-19. \n\nThe California Department of Public Health (CDPH) has released a [Guidance](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Guidance-for-Face-Coverings_06-18-2020.pdf) for the use of face covering.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Maintain six feet of physical distance from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>It depends. Some smog check locations may be closed. The [Bureau of Automotive Repair](https://www.bar.ca.gov/COVID-19_Impacts_on_BAR_Programs_and_Services.aspx) advises drivers to still pay DMV vehicle registration fees to avoid any late fees. However, you will not receive your new registration or year sticker until the smog information has been received by DMV. Once state and local orders or directives are no longer in effect, you can then obtain the required smog check certificate to complete the DMV vehicle registration process.\n\nMore info: [Stay home Q&amp;A](https://covid19.ca.gov/stay-home-except-for-essential-needs/)</v>
       </c>
       <c r="C33" t="str">
-        <v>https://covid19.ca.gov/healthcare/</v>
+        <v>https://covid19.ca.gov/stay-home-except-for-essential-needs/</v>
       </c>
       <c r="D33" t="str">
         <v xml:space="preserve"> </v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>How well do face coverings prevent spread of COVID-19?</v>
+        <v>Should I wear a face covering or mask to protect against COVID-19?</v>
       </c>
       <c r="B34" t="str">
-        <v>There is scientific evidence to suggest that use of face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Californians must wear face coverings when in public spaces, especially indoors and other areas where physical distancing is not possible. Face coverings help reduce the spread of COVID-19. \n\nThe California Department of Public Health (CDPH) has released a [Guidance](https://www.cdph.ca.gov/Programs/CID/DCDC/CDPH%20Document%20Library/COVID-19/Guidance-for-Face-Coverings_06-18-2020.pdf) for the use of face covering.\n\nThe guidance reminds Californians that the best defense against COVID-19 continues to be: \n\n*   Maintain six feet of physical distance from others \n*   Wash hands frequently\n*   Avoid touching eyes, nose and mouth with unwashed hands\n*   Avoid being around people with COVID-19 symptoms\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C34" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>What is a face covering?</v>
+        <v>How well do face coverings prevent spread of COVID-19?</v>
       </c>
       <c r="B35" t="str">
-        <v>A face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>There is scientific evidence to suggest that use of face coverings by the public during a pandemic could help reduce disease transmission. Their primary role is to reduce the release of infectious particles into the air when someone speaks, coughs, or sneezes, including someone who has COVID-19 but feels well. Face coverings are not a substitute for physical distancing, washing hands, and staying home when ill, but they may be helpful when combined with these primary interventions.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C35" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>How should I care for a face covering?</v>
+        <v>What is a face covering?</v>
       </c>
       <c r="B36" t="str">
-        <v>It’s a good idea to [wash your face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>A face covering is [material that covers the nose and mouth](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html). It can be secured to the head with ties or straps or simply wrapped around the lower face. It can be made of a variety of materials, such as cotton, silk, or linen. A face covering may be factory-made or sewn by hand, or can be improvised from household items such as scarfs, T-shirts, sweatshirts, or towels.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C36" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>What if I don’t have health insurance and I need screening, testing, or treatment for COVID-19?</v>
+        <v>How should I care for a face covering?</v>
       </c>
       <c r="B37" t="str">
-        <v>The cost of medically necessary screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free medically necessary [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>It’s a good idea to [wash your face covering](https://www.cdc.gov/coronavirus/2019-ncov/prevent-getting-sick/diy-cloth-face-coverings.html) frequently, ideally after each use. Have a bag or bin to keep face coverings in until they can be laundered with detergent and hot water and dried on a hot cycle. If you must re-wear your face covering before washing, wash your hands immediately after putting it back on and avoid touching your face. Discard coverings that:\n\n*   No longer cover the nose and mouth\n*   Have stretched out or damaged ties or straps\n*   Cannot stay on the face\n*   Have holes or tears in the fabric\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C37" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Does my health plan have to cover my COVID-19 test?</v>
+        <v>What if I don’t have health insurance and I need screening, testing, or treatment for COVID-19?</v>
       </c>
       <c r="B38" t="str">
-        <v>Yes, if you’re experiencing COVID-19 symptoms, you think you were exposed to someone who has COVID-19, or the test is otherwise medically necessary for your situation. \n\nIf you have symptoms of COVID-19 or you think you’ve been exposed to someone with COVID-19, under federal law, you can obtain a COVID-19 test anywhere and your health plan must pay for the test. \n\nIf you don’t have symptoms and don’t think you’ve been exposed to someone with COVID-19, but you are an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, your health plan must cover your COVID-19 test. However, you must contact your health plan before getting testing. \n\nIf you don’t have symptoms, don’t think you’ve been exposed to someone with COVID-19, and aren’t an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, and you think you need a test, please contact your health plan or health care provider for further guidance.\n\nAs a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>The cost of medically necessary screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). You can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/). You can also get free medically necessary [testing](https://covid19.ca.gov/testing-and-treatment/) through [Verily’s Project Baseline](https://www.projectbaseline.com/study/covid-19/eligibility/) or [OptumServe](https://lhi.care/covidtesting).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C38" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>How long will I have to wait to get a test?</v>
+        <v>Does my health plan have to cover my COVID-19 test?</v>
       </c>
       <c r="B39" t="str">
-        <v>Your wait time depends on why you are seeking a test. \n\n**If you have symptoms of COVID-19 or think you were exposed,** under federal law, you can go immediately to any available testing site. Find a testing site on our [Testing page,](https://covid19.ca.gov/testing-and-treatment/#top) or call your health plan so they can direct you to an available testing location. \n\n**If you don’t have symptoms or suspected exposure, and you are an** [**essential worker**](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf)**,** your health plan must offer you a test appointment within 48 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, then you can go to any available testing site and your health plan will pay for the test. \n\n**If you don’t have symptoms or suspected exposure, and you are not an essential worker,** if your provider determines a COVID-19 test is medically necessary for you, your health plan must offer you a test appointment within 96 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, you can go to any available testing site.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes, if you’re experiencing COVID-19 symptoms, you think you were exposed to someone who has COVID-19, or the test is otherwise medically necessary for your situation. \n\nIf you have symptoms of COVID-19 or you think you’ve been exposed to someone with COVID-19, under federal law, you can obtain a COVID-19 test anywhere and your health plan must pay for the test. \n\nIf you don’t have symptoms and don’t think you’ve been exposed to someone with COVID-19, but you are an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, your health plan must cover your COVID-19 test. However, you must contact your health plan before getting testing. \n\nIf you don’t have symptoms, don’t think you’ve been exposed to someone with COVID-19, and aren’t an [essential worker](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) as defined for COVID-19 testing coverage, and you think you need a test, please contact your health plan or health care provider for further guidance.\n\nAs a first step, you can check your symptoms using the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) or by contacting your doctor through [telehealth](https://covid19.ca.gov/telehealth/).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C39" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>I get my health care coverage through my employer, who has a “self-insured” plan. Do the California Department of Managed Health Care (DMHC) regulations apply to me?</v>
+        <v>How long will I have to wait to get a test?</v>
       </c>
       <c r="B40" t="str">
-        <v>Self-insured plans are regulated by the federal government, rather than the state. If you have symptoms of COVID-19 or you were exposed to someone who you know or suspect has COVID-19, under federal law, your employer’s self-insured plan must cover your test. In all other instances, you should talk to your employer’s self-insured plan to find out whether they will cover COVID-19 testing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Your wait time depends on why you are seeking a test. \n\n**If you have symptoms of COVID-19 or think you were exposed,** under federal law, you can go immediately to any available testing site. Find a testing site on our [Testing page,](https://covid19.ca.gov/testing-and-treatment/#top) or call your health plan so they can direct you to an available testing location. \n\n**If you don’t have symptoms or suspected exposure, and you are an** [**essential worker**](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf)**,** your health plan must offer you a test appointment within 48 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, then you can go to any available testing site and your health plan will pay for the test. \n\n**If you don’t have symptoms or suspected exposure, and you are not an essential worker,** if your provider determines a COVID-19 test is medically necessary for you, your health plan must offer you a test appointment within 96 hours. The testing site must be within 15 miles or 30 minutes of your residence or workplace. If the health plan can’t find you an available appointment within that time and distance, you can go to any available testing site.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C40" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>How does my health plan know if I’m an essential worker?</v>
+        <v>I get my health care coverage through my employer, who has a “self-insured” plan. Do the California Department of Managed Health Care (DMHC) regulations apply to me?</v>
       </c>
       <c r="B41" t="str">
-        <v>Your health plan can ask you questions about why you want a COVID-19 test and about the nature of your work. They can ask these questions to help determine whether a COVID-19 test is medically necessary for you. \n\nHowever, your health plan can’t ask you to provide further documentation or evidence of your work status. For example, your health plan can’t ask you to provide written proof of where you work or the conditions of your workplace.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Self-insured plans are regulated by the federal government, rather than the state. If you have symptoms of COVID-19 or you were exposed to someone who you know or suspect has COVID-19, under federal law, your employer’s self-insured plan must cover your test. In all other instances, you should talk to your employer’s self-insured plan to find out whether they will cover COVID-19 testing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C41" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
+        <v>How does my health plan know if I’m an essential worker?</v>
       </c>
       <c r="B42" t="str">
-        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Your health plan can ask you questions about why you want a COVID-19 test and about the nature of your work. They can ask these questions to help determine whether a COVID-19 test is medically necessary for you. \n\nHowever, your health plan can’t ask you to provide further documentation or evidence of your work status. For example, your health plan can’t ask you to provide written proof of where you work or the conditions of your workplace.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C42" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
+        <v>I have a concern or complaint about getting care for COVID-19 under my health insurance. What can I do?</v>
       </c>
       <c r="B43" t="str">
-        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you are having trouble accessing care, or were inappropriately charged for medically necessary screening, testing, or treatment for COVID-19, follow up directly with your health plan by calling the member phone number listed on your health plan card. If your health plan doesn’t resolve the issue, contact the [California Department of Managed Health Care (DMHC)](http://www.dmhc.ca.gov/?referral=healthhelp.ca.gov) Help Center for assistance at 1-888-466-2219.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C43" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Can I use telehealth if I am on Medicare?</v>
+        <v>Do Medicare or Medicare Advantage Plans cover coronavirus tests or coronavirus antibody tests?</v>
       </c>
       <c r="B44" t="str">
-        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Both [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C44" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>I am nervous or scared. What can I do?</v>
+        <v>Can I use telehealth if I am on Medicare?</v>
       </c>
       <c r="B45" t="str">
-        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. Medicare has temporarily expanded its coverage of [telehealth services (medical care via phone, video chat, or online portal)](https://www.medicare.gov/coverage/telehealth) to respond to the current Public Health Emergency. You can now use a wide range of communication tools (including smartphone) from home to interact with a range of providers, like doctors, nurse practitioners, clinical psychologists, licensed clinical social workers, physical therapists, occupational therapists, and speech language pathologists. If you have original Medicare, you can get many services without a copayment through [telehealth,](https://covid19.ca.gov/telehealth/) including evaluation and management visits (common office visits), mental health counseling, and preventive health screenings.\n\nIf you have a [Medicare Advantage Plan](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans), you have access to these same benefits. Many plans offer additional [telehealth](https://covid19.ca.gov/telehealth/) benefits and expanded benefits, like meal delivery or medical transport services. Check with your plan about your coverage and costs.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C45" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
+        <v>I am nervous or scared. What can I do?</v>
       </c>
       <c r="B46" t="str">
-        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You are not alone. The California Surgeon General released [two playbooks for managing stress](https://covid19.ca.gov/manage-stress-for-health/#top) and tips for care-givers and kids. If you feel like you need to talk to someone and want emotional support see this [list of resources](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/#top).\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C46" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>What if I need to visit a health care provider?</v>
+        <v>My safety net eligibility (like CalFresh, Medi-Cal) is expiring and I am under the statewide stay home order for COVID-19. Do I need to renew my eligibility now?</v>
       </c>
       <c r="B47" t="str">
-        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>****No, you will not need to renew until August 17, 2020.**** Governor Gavin Newsom issued an [executive order](https://www.gov.ca.gov/wp-content/uploads/2020/06/6.15.20-EO-N-69-20-text.pdf) to ensure that health care, food assistance, and in-home supportive services continue during the COVID-19 outbreak.\n\nThe order waives eligibility re-determinations for 150 days for participants in:\n\n*   Medi-Cal health coverage\n*   CalFresh food assistance\n*   CalWORKs\n*   Cash Assistance for Immigrants\n*   In-Home Supportive Services\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C47" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
+        <v>What if I need to visit a health care provider?</v>
       </c>
       <c r="B48" t="str">
-        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>If you have [coronavirus symptoms](https://covid19.ca.gov/symptoms-and-risks/#top), please contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) or use the [Symptom Screener](https://www.cdc.gov/coronavirus/2019-ncov/symptoms-testing/symptoms.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fsymptoms-testing%2Findex.html) self-checker.\n\nIf you have other illnesses or chronic conditions, use [telehealth](https://covid19.ca.gov/telehealth/) to get care from home.\n\nIf you need to go to the hospital, call ahead so they can prepare for your arrival. If you call 911, tell the 911 operator your exact symptoms so the ambulance provider can be ready to treat you safely.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C48" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Can I get my prescriptions filled?</v>
+        <v>What about routine, elective, or non-urgent medical or dental appointments?</v>
       </c>
       <c r="B49" t="str">
-        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Preventive care services and non-emergency surgeries, like organ replacements and tumor removals, can take place if hospitals have enough capacity and protective equipment to do so safely. Eye exams, and elective procedures should be cancelled or rescheduled. If possible, health care visits should be done remotely. [Dental services and preventive dental care](https://www.cdc.gov/coronavirus/2019-ncov/hcp/dental-settings.html) may be resumed. Contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to see what services they are providing.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C49" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
+        <v>Can I get my prescriptions filled?</v>
       </c>
       <c r="B50" t="str">
-        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Yes. You may leave your home to get prescriptions or cannabis from dispensaries with medical permits.\n\nYou can contact your doctor through [telehealth](https://covid19.ca.gov/telehealth/) to get a new prescription or adjust your existing prescriptions. \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C50" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
+        <v>I am an older Californian who is isolating at home and I need non-urgent assistance. What can I do?</v>
       </c>
       <c r="B51" t="str">
-        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>You can call the statewide hotline for older Californians at [1-833-544-2374](tel:1-833-544-2374) for your non-urgent medical needs, to get meals delivered, to track down prescriptions, and more. The most important thing you can do is stay home for your health and wellbeing. If you are experiencing an emergency please call 911.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C51" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
+        <v>How can I make sure the older Californians in my life are safe and healthy during the stay home order?</v>
       </c>
       <c r="B52" t="str">
-        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
+        <v>You should check in on your older neighbors and loved ones with a call, text, or physically-distanced door knock to make sure they are okay. You can also teach them how to use FaceTime, Zoom, Google Duo or Facebook video to communicate. The most important thing you can do is to keep in touch with older loved ones for their mental health and safety.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C52" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
+        <v>Can I leave home to care for my elderly parents or friends who require assistance? Or a friend or family member who has disabilities?</v>
       </c>
       <c r="B53" t="str">
-        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
+        <v>Yes. Be sure that you protect them and yourself by following physical distancing guidelines such as wearing a mask, washing hands before and after, using hand sanitizer, maintaining at least six feet of distance when possible, and covering your cough or sneeze. If you have early signs of a cold, please stay away from your older loved ones.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- disability, senior --&gt;</v>
       </c>
       <c r="C53" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Can I get free COVID-19 testing or treatment if I am a senior over 65, disabled, uninsured, or an undocumented immigrant?</v>
+        <v>Can I visit loved ones in the hospital, nursing home, skilled nursing facility, or other residential care facility?</v>
       </c>
       <c r="B54" t="str">
-        <v>All patients with full-service Medi-Cal or commercial insurance in California will have [copays, coinsurance and deductibles waived](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of medically necessary coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
+        <v>Generally, no. There are limited exceptions, such as if you are going to the hospital with a minor who is under 18 or someone who is developmentally disabled and needs assistance. For most other situations, the order prohibits visitation to these kinds of facilities. This is difficult, but necessary to protect hospital staff and other patients. Check the [frequently asked questions for friends and family with a loved one in a skilled nursing or residential care facility](https://www.aging.ca.gov/download.ashx?lE0rcNUV0zaaXLD5JZ%2f6Uw%3d%3d) for more detailed information.\n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)&lt;!-- elderly, disability, senior --&gt;</v>
       </c>
       <c r="C54" t="str">
         <v>https://covid19.ca.gov/healthcare/</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
+        <v>Can I get free COVID-19 testing or treatment if I am a senior over 65, disabled, uninsured, or an undocumented immigrant?</v>
       </c>
       <c r="B55" t="str">
-        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>All patients with full-service Medi-Cal or commercial insurance in California will have [copays, coinsurance and deductibles waived](https://www.dmhc.ca.gov/Portals/0/Docs/DO/DMHC-FAQForHealthCoverageOfCOVID-19Testing.pdf) for COVID-19 [testing](https://covid19.ca.gov/testing-and-treatment/) and screening.  [Medicare](https://www.medicare.gov/medicare-coronavirus) and [Medicare Advantage Plans](https://www.medicare.gov/sign-up-change-plans/types-of-medicare-health-plans/medicare-advantage-plans) cover [coronavirus tests](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-tests) and [antibody](https://www.medicare.gov/coverage/coronavirus-disease-2019-covid-19-antibody-test) tests, with no out-of-pocket costs. The cost of medically necessary coronavirus screening, testing, and treatment for the uninsured is paid for by the [government](https://www.hrsa.gov/CovidUninsuredClaim). \n\nMore info: [Health care](https://covid19.ca.gov/healthcare/)</v>
       </c>
       <c r="C55" t="str">
-        <v>https://covid19.ca.gov/business-and-employers/</v>
+        <v>https://covid19.ca.gov/healthcare/</v>
       </c>
       <c r="D55" t="str">
         <v xml:space="preserve"> </v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>When will taxpayers start on these payment plans?</v>
+        <v>What do taxpayers need to do if they want to take advantage of relief from the California Department of Tax and Fee Administration?</v>
       </c>
       <c r="B56" t="str">
-        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested taxpayers should contact CDTFA by visiting the [CDTFA website](http://cdtfa.ca.gov/) or calling [800-400-7115](tel:800-400-7115).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C56" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>How will the payment plans work?</v>
+        <v>When will taxpayers start on these payment plans?</v>
       </c>
       <c r="B57" t="str">
-        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Given that the April deadline to file and pay sales and use tax returns has been extended to late July for all but the largest taxpayers, CDTFA expects that most participating taxpayers will begin their payment arrangements in late July of this year.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C57" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
+        <v>How will the payment plans work?</v>
       </c>
       <c r="B58" t="str">
-        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Qualifying sales and use taxpayers with deferred liabilities up to $50,000 will pay their tax due in 12 equal monthly installments. No interest or penalties will be assessed against the liability.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C58" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
+        <v>Is this only for tax payments due for the 1st quarter of 2020?</v>
       </c>
       <c r="B59" t="str">
-        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>If taxpayers choose to use this program to distribute the burden of their May or June prepayments or their July return, CDTFA will work to accommodate those taxpayers.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C59" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
+        <v>What if taxpayers owe more than the $50,000 limit on the relief?</v>
       </c>
       <c r="B60" t="str">
-        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The maximum amount that any taxpayer can defer interest-free under this relief effort is $50,000.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C60" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Is the deadline for filing California tax returns extended?</v>
+        <v>What if taxpayers with more than $5 million in annual taxable sales need this relief?</v>
       </c>
       <c r="B61" t="str">
-        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>We recognize that some taxpayers, particularly in low margin businesses, with annual taxable sales over $5 million may also need this relief. Those taxpayers are encouraged to reach out to CDTFA, which will work with them to provide relief where appropriate.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C61" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>What is a loan guarantee?</v>
+        <v>Is the deadline for filing California tax returns extended?</v>
       </c>
       <c r="B62" t="str">
-        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes. All California taxpayers (individuals and businesses) can file and pay by July 15, 2020. See [information from the CA Franchise Tax Board](https://www.ftb.ca.gov/about-ftb/newsroom/news-releases/2020-3-state-postpones-tax-deadlines-until-july-15-due-to-the-covid-19-pandemic.html) for more information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C62" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Who is eligible to apply?</v>
+        <v>What is a loan guarantee?</v>
       </c>
       <c r="B63" t="str">
-        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>A loan guarantee is a credit enhancement that helps mitigate the risk assumed by a lending institution when making a loan. With the Small Business Finance Center’s Disaster Relief Loan Guarantee Program, IBank agrees to guarantee up to 95% of the loan, removing the barriers to capital that often exist for small business borrowers that may not otherwise be eligible for traditional lending. This program also can assist those who may not be eligible for a U.S. Small Business Administration (SBA) loan.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C63" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>What do you consider a small business?</v>
+        <v>Who is eligible to apply?</v>
       </c>
       <c r="B64" t="str">
-        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small business entities that have been affected by loss, damage or other economic injury due to the COVID-19 pandemic and meet the program’s eligibility requirements. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C64" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>What are excluded businesses?</v>
+        <v>What do you consider a small business?</v>
       </c>
       <c r="B65" t="str">
-        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The business must have between 1-750 employees and be established as an entity, including:\n\n*   Sole Proprietor – Individual using legal name as business name that files a Schedule C, Schedule F, or has a fictitious business name or DBA statement\n    *   If the loan appears to be in the name of an individual, evidence of Sole Proprietorship will be required and may include a Schedule C, Schedule F, Seller’s Permit, and/or fictitious business name or DBA statement\n*   Limited Liability Company \n*   Cooperative\n*   Corporation\n*   Partnership\n*   S-Corporation\n*   Not-for-profit\n\nThe program will not accept an _individual_ as the borrower. It is permissible for an individual to be a guarantor or co-borrower on the loan, but the primary borrower must be a small business. It does not consider citizenship or immigration status for eligibility requirements**,** as long as the entity/individual meets the above criteria. Trucking owners/operators are eligible as long as they are registered as a legal business entity.\n\n**AND**\n\n*   The business activity must be eligible under the program and in one of the industries listed in the [North American Industry Classification System (NAICS) codes list](http://www.census.gov/eos/www/naics), and\n*   It must be located in a declared disaster area. A major disaster area declaration was made for the state of California on March 22, 2020 in regards to the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C65" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
+        <v>What are excluded businesses?</v>
       </c>
       <c r="B66" t="str">
-        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Businesses that are not eligible include passive real estate businesses (rental income, etc.).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C66" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>How much can I borrow?</v>
+        <v>Can I apply for a loan guarantee only if I am ineligible for federal disaster fund financing, such as a SBA loan?</v>
       </c>
       <c r="B67" t="str">
-        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Yes, this program is designed for those who do not qualify for federal programs. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C67" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>What are the loan terms?</v>
+        <v>How much can I borrow?</v>
       </c>
       <c r="B68" t="str">
-        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center’s Disaster Relief Loan Guarantee Program allows a maximum loan of $1.25 million and a maximum guarantee of $1 million. To serve as many California small businesses as possible, the COVID-19 disaster program is focused on serving small businesses, especially those in low-wealth and immigrant communities with needs from $500 to $50,000. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C68" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>How can I apply?</v>
+        <v>What are the loan terms?</v>
       </c>
       <c r="B69" t="str">
-        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The length of the loan can be negotiated with your lender, but the guarantee is good for up to seven years. The interest rate and loan criteria will be determined by the lender and could depend on the credit strength of the business. The guarantee is designed to lower the interest rate in exchange for a higher guarantee to your lender. \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C69" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>What is the timing for the funding of loans?</v>
+        <v>How can I apply?</v>
       </c>
       <c r="B70" t="str">
-        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The Small Business Finance Center partners with Community Development Financial Institutions (CDFIs), Community Lending Institutions, and Financial Development Corporations (FDCs) to provide loan guarantees for small businesses.  To apply,\n\n*   View the [list of FDCs and participating lenders](http://www.ibank.ca.gov/small-business-finance-center/) interested in this Small Business Disaster Relief Loan Guarantee Program. \n*   Contact the lender on the list nearest to your business to apply.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C70" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>What can the money be used for?</v>
+        <v>What is the timing for the funding of loans?</v>
       </c>
       <c r="B71" t="str">
-        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The program is in place and businesses can apply immediately. Once you provide your lender with complete information, you could be funded in a matter of days.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C71" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>How will this program assist low-wealth and minority communities?</v>
+        <v>What can the money be used for?</v>
       </c>
       <c r="B72" t="str">
-        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The funds are meant to help small businesses through this challenging time. Loan proceeds can be used for business continuance or to cure “economic injury” as a result of COVID-19.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C72" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
+        <v>How will this program assist low-wealth and minority communities?</v>
       </c>
       <c r="B73" t="str">
-        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>By working with the Community Development Financial Institutions (CDFIs) throughout the state of California, this disaster relief program can play an important role in generating economic growth and opportunity in some of our most distressed communities. CDFIs and mission-based lenders play a vital role across the state and have experience steering lending and investment to where it is needed and will matter the most, in particular in low-wealth and immigrant communities. CDFIs and our partner Financial Development Corporations (FDCs) that process the loan guarantees are embedded in communities across the state, speak several languages, and are invested in the community successfully managing its way through this pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C73" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>What SBA programs are available to small businesses right now?</v>
+        <v>Are faith-based businesses eligible for this loan guarantee program?</v>
       </c>
       <c r="B74" t="str">
-        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1%. For all loans made on or after June 5, the minimum term is five years. For loans made before June 5, the two-year minimum maturity remains in effect unless both the borrower and the lender agree to extend it to five years. The loan is forgivable if 60% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before December 31, 2020. In addition to payroll and benefits costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off.\n\nThe SBA is accepting PPP loan applications from approved lenders. The new deadline to apply for a PPP loan is August 8, 2020. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away. See [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. \n\nMore about **Economic Injury Disaster Loan and Advance (EIDL and EIDL Advance):**\n\nAs of June 15, the U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan and Advance applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. Applicants can get an **Advance** of up to $10,000 upon request within days of a successful application. This advance doesn’t have to be repaid. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Faith-based businesses (non-profit or otherwise) that have business activity outside of worship are eligible as long as they are a legal business that has been affected by the COVID-19 pandemic.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C74" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
+        <v>What SBA programs are available to small businesses right now?</v>
       </c>
       <c r="B75" t="str">
-        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>The U.S. SBA offers the **Paycheck Protection Program (PPP)** and **Economic Injury Disaster Loan (EIDL)**.\n\nMore about **Paycheck Protection Program (PPP)**:\n\nThe PPP is a loan program for small businesses, self-employed, independent contractors, nonprofits with a maximum of 500 employees, and it is intended to keep workers paid and employed. The loan amount is calculated based on payroll expenses with a maximum amount of $10 million at a rate of 1%. For all loans made on or after June 5, the minimum term is five years. For loans made before June 5, the two-year minimum maturity remains in effect unless both the borrower and the lender agree to extend it to five years. The loan is forgivable if 60% of the loan amount is used for payroll, and no employees are laid off, or if laid-off employees are rehired before December 31, 2020. In addition to payroll and benefits costs, allowable expenses include mortgage interest, rent, and utilities. Submit your application as soon as possible, even if you need to rehire employees that have been laid off.\n\nThe SBA is accepting PPP loan applications from approved lenders. The new deadline to apply for a PPP loan is August 8, 2020. You must apply directly through a lender. [Find a PPP lender in your area](https://www.sba.gov/paycheckprotection/find) to contact right away. See [SBA.gov](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program#section-header-0) for more details. \n\nMore about **Economic Injury Disaster Loan (EIDL):**\n\nThe U.S. SBA is accepting new applications from all eligible businesses, and will continue to process **EIDL Loan applications** already submitted on a first come, first-served basis. Check the U.S. SBA’s [Disaster Loan Applications website](https://www.sba.gov/page/disaster-loan-applications#section-header-0) for more information.\n\nThe EIDL is a direct loan for up to $2 million at a rate of 3.75% for small businesses and 2.75% for nonprofits. [Apply directly with the SBA](https://covid19relief.sba.gov/#/). For questions, you can contact SBA’s Customer Service Line at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or send an email to [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nThe **Economic Injury Disaster Loan (**EIDL) **Advance** has been [discontinued](https://www.sba.gov/page/disaster-loan-applications#section-header-0). EIDL loan applications will still be processed even though the Advance is no longer available.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C75" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
+        <v>Which banks are offering the Paycheck Protection Program forgivable loans?</v>
       </c>
       <c r="B76" t="str">
-        <v>You can find this on the Paycheck Protection Program’s [Loan Forgiveness Application](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20%28Revised%206.16.2020%29-fillable_0-508.pdf). The application provides detailed [instructions](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20Instructions%20%28Revised%206.16.2020%29-508.pdf) on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the Loan Forgiveness Application and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Interested borrowers can contact any SBA participating bank, credit union, or nonprofit lenders to apply for the [PPP](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/paycheck-protection-program). For more information, contact your local bank or reach out to [SBA’s local district offices](https://www.sba.gov/local-assistance/find/?type=SBA%20District%20Office&amp;pageNumber=1) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C76" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
+        <v>Where do I find more information on allowable expenses for a forgivable loan under the Paycheck Protection Program?</v>
       </c>
       <c r="B77" t="str">
-        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program and the EIDL Advance. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>You can find this on the Paycheck Protection Program’s [Loan Forgiveness Application](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20%28Revised%206.16.2020%29-fillable_0-508.pdf). The application provides detailed [instructions](https://www.sba.gov/sites/default/files/2020-06/PPP%20Loan%20Forgiveness%20Application%20Instructions%20%28Revised%206.16.2020%29-508.pdf) on how to apply for forgiveness of PPP loans. Once your business has expended the PPP funds and is ready to pursue loan forgiveness, please review the Loan Forgiveness Application and consult with your accountant, lender, or one of California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) for assistance.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C77" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>How do I reach SBA for any questions or assistance?</v>
+        <v>How does a business know if it is eligible for an SBA loan or loan guarantee program?</v>
       </c>
       <c r="B78" t="str">
-        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Small businesses with 500 employees or less are eligible to apply for the Paycheck Protection Program (PPP) and/or the Small Business Debt Relief Program. Small businesses are also eligible to apply for the Economic Injury Disaster Loan (EIDL) program. Visit SBA’s comprehensive [COVID-19 support website](https://www.sba.gov/page/coronavirus-covid-19-small-business-guidance-loan-resources#section-header-4%20.) to find out more about SBA’s eligibility requirements for each program.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C78" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
+        <v>How do I reach SBA for any questions or assistance?</v>
       </c>
       <c r="B79" t="str">
-        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has district offices in California that are open to answer questions. You can use the [SBA’s Local Assistance Directory](https://www.sba.gov/local-assistance) to locate the office nearest you. You can also contact the SBA by phone at [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or by email at [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).  \n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C79" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
+        <v>How does a small business know which SBA loan or loan guarantee program is the right one? Can a small business apply to more than one?</v>
       </c>
       <c r="B80" t="str">
-        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>Call or email the SBA to find out which program is right for you. While businesses can apply for and receive more than one form of capital assistance through the SBA, they cannot be used for the same purpose. The SBA can advise you on your options. Call [1-800-659-2955](tel:1-800-659-2955) / [1-800-877-8339](tel:1-800-877-8339) (TTY), or email [disastercustomerservice@sba.gov](mailto:disastercustomerservice@sba.gov).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C80" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
+        <v>How do I get SBA to cover my loan payments on my existing 7(a), 504, or microloan if I cannot pay due to COVID-19?</v>
       </c>
       <c r="B81" t="str">
-        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>SBA has a [Debt Relief program](https://www.sba.gov/funding-programs/loans/coronavirus-relief-options/sba-debt-relief) and will pay the principal and interest of existing SBA loans. Please contact your lender for information.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C81" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>How do I maintain a safe workplace?</v>
+        <v>If I need help to figure out which program is best for me or to submit an application, where can I find support?</v>
       </c>
       <c r="B82" t="str">
-        <v>As California [reopens](https://covid19.ca.gov/roadmap/), every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>California’s network of small business support centers can help you figure out which loans and programs are best for your business, develop resiliency strategies, and find other resources. Go to California’s [small business centers](https://business.ca.gov/advantages/small-business-innovation-and-entrepreneurship/how-we-can-help/covid-19-resources-map/) to find the closest center.\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C82" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>What precautions should healthcare workers and organizations take?</v>
+        <v>How do I maintain a safe workplace?</v>
       </c>
       <c r="B83" t="str">
-        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>As California reopens, every business will need to create a safer, low-risk environment. If you own or manage a business, follow the [industry-specific guidance](https://covid19.ca.gov/industry-guidance/) that applies to protect your workers and customers.\n\nIf your business is approved to reopen, you should take steps to ensure the safety and health of your workers. It’s important that employees with COVID-19 know they should stay home. Your sick leave policies need to support that. \n\n*   Encourage sick employees to stay home if they are sick. See government programs supporting [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [workers’ compensation](https://www.labor.ca.gov/coronavirus2019/#chart).\n*   Establish routine cleaning throughout the workplace.\n*   Reduce travel. If possible, encourage video conferencing and limit larger gatherings.\n*   See [Cal/OSHA interim guidelines for general industry](https://www.dir.ca.gov/dosh/coronavirus/General-Industry.html).\n*   Follow [CDC guidance on keeping the workplace safe (PDF)](https://www.cdc.gov/coronavirus/2019-ncov/downloads/workplace-school-and-home-guidance.pdf).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C83" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
+        <v>What precautions should healthcare workers and organizations take?</v>
       </c>
       <c r="B84" t="str">
-        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
+        <v>See [Cal/OSHA’s guidance on protecting workers from coronavirus](https://www.dir.ca.gov/dosh/coronavirus/Health-Care-General-Industry.html).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C84" t="str">
         <v>https://covid19.ca.gov/business-and-employers/</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>What action is the state taking to ensure all schools are providing meaningful instruction during the pandemic whether they are physically open or closed?</v>
+        <v>How can I avoid laying off employees if my business is impacted by COVID-19?</v>
       </c>
       <c r="B85" t="str">
-        <v>*   California has made $5.3 billion in investments to support safe reopening and rigorous distance learning.\n*   Funds prioritize low-income students, English language learners, and special education students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Apply for the [Unemployment Insurance (UI) Work Sharing Program](https://www.edd.ca.gov/Unemployment/Work_Sharing_Program.htm).\n\nMore info: [Businesses and employers](https://covid19.ca.gov/business-and-employers/)</v>
       </c>
       <c r="C85" t="str">
-        <v>https://covid19.ca.gov/education/</v>
+        <v>https://covid19.ca.gov/business-and-employers/</v>
       </c>
       <c r="D85" t="str">
         <v xml:space="preserve"> </v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>What determines whether schools are conducting in-person learning or distance learning?</v>
+        <v>What action is the state taking to ensure all schools are providing meaningful instruction during the pandemic whether they are physically open or closed?</v>
       </c>
       <c r="B86" t="str">
-        <v>Using health data, schools can physically open when its county has been off the Monitoring List for 14 days and only if they follow strict health and safety requirements like masks and physical distancing. [Find the County Monitoring List here.](https://covid19.ca.gov/roadmap-counties/#track-data)\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   California has made $5.3 billion in investments to support safe reopening and rigorous distance learning.\n*   Funds prioritize low-income students, English language learners, and special education students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C86" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>What are the health and safety requirements for schools doing in-person learning?</v>
+        <v>What determines whether schools are conducting in-person learning or distance learning?</v>
       </c>
       <c r="B87" t="str">
-        <v>*   Everyone entering the school must do daily health checks.\n*   If someone experiences symptoms while at school, they will be sent home.\n*   Masks are required for all staff and students 3rd grade and above. Younger students should be encouraged to wear masks.\n*   Staff members must maintain 6ft distance from each other and students. Students should maintain 6ft distance as practicable.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Using health data, schools can physically open when its county has been off the Monitoring List for 14 days and only if they follow strict health and safety requirements like masks and physical distancing. [Find the County Monitoring List here.](https://covid19.ca.gov/roadmap-counties/#track-data)\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C87" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>What happens if someone gets COVID-19 at my child’s school?</v>
+        <v>What are the health and safety requirements for schools doing in-person learning?</v>
       </c>
       <c r="B88" t="str">
-        <v>*   A classroom goes home when there is a confirmed case\n*   A school should switch to distance learning when there are multiple positive cases in multiple classroom cohorts\n*   A district should switch to distance learning if 25% of schools in the district are closed within a 14-day period\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   Everyone entering the school must do daily health checks.\n*   If someone experiences symptoms while at school, they will be sent home.\n*   Masks are required for all staff and students 3rd grade and above. Younger students should be encouraged to wear masks.\n*   Staff members must maintain 6ft distance from each other and students. Students should maintain 6ft distance as practicable.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C88" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>If my child’s school is engaged in distance learning, what should I expect?</v>
+        <v>What happens if someone gets COVID-19 at my child’s school?</v>
       </c>
       <c r="B89" t="str">
-        <v>*   New statewide requirements include:\n    *   Access to devices and connectivity for all students\n    *   Daily live interaction with teachers and other students\n    *   Classes and assignments that are challenging and are equivalent to in-person instruction\n    *   Special requirements for English language learners and special education students\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   A classroom goes home when there is a confirmed case\n*   A school should switch to distance learning when there are multiple positive cases in multiple classroom cohorts\n*   A district should switch to distance learning if 25% of schools in the district are closed within a 14-day period\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C89" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Is there financial help for student loans?</v>
+        <v>If my child’s school is engaged in distance learning, what should I expect?</v>
       </c>
       <c r="B90" t="str">
-        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>*   New statewide requirements include:\n    *   Access to devices and connectivity for all students\n    *   Daily live interaction with teachers and other students\n    *   Classes and assignments that are challenging and are equivalent to in-person instruction\n    *   Special requirements for English language learners and special education students\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C90" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>My school provides free grab-and-go meals. Are those still available?</v>
+        <v>Is there financial help for student loans?</v>
       </c>
       <c r="B91" t="str">
-        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The [governor has ordered](https://www.gov.ca.gov/2020/04/23/governor-newsom-announces-additional-relief-for-californians-impacted-by-covid-19/) relief for students with federal loans. Check with your lender to see what options are available for you.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C91" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>What if I don’t have internet access at home?</v>
+        <v>My school provides free grab-and-go meals. Are those still available?</v>
       </c>
       <c r="B92" t="str">
-        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Yes. It is essential to keep children fed. Check with your local school district for days and times meals are offered.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C92" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>How will students with disabilities receive services during school closures?</v>
+        <v>What if I don’t have internet access at home?</v>
       </c>
       <c r="B93" t="str">
-        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>Check with your local school district or college to see what resources are available for you.  List of providers offering free internet access currently:\n\n[Spectrum mobile](https://mobile.spectrum.com/support/article/360040980371/coronavirus-covid19-update)  has opened wifi hotspots and are working on assisting school districts with facilitating home internet access. \n\n[Comcast](https://corporate.comcast.com/covid-19) has opened free Xfinity WiFi hotspot access across the country. Xfinity has also paused data plans, late fees, and disconnects for the next 60 days. Families with limited income can receive internet services for free for the next 60 days (usually $9.95 per month). \n\n[AT&amp;T](https://about.att.com/pages/COVID-19.html)  has opened all public WiFi hotspots and will not charge customers for any late fees or overages. AT&amp;T also offers internet access for [$10/month for households on limited income](https://www.att.com/shop/internet/access/index.html?source=ECmj0000000000mbU&amp;wtExtndSource=access#!/#%2F).\n\n[Low-cost Internet access plans](https://www.cde.ca.gov/ls/he/hn/availableinternetplans.asp) are also available.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C93" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Will there be standardized testing? When?</v>
+        <v>How will students with disabilities receive services during school closures?</v>
       </c>
       <c r="B94" t="str">
-        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
+        <v>The Department of Education has released [guidance on distance learning](https://www.cde.ca.gov/ls/he/hn/distancelearning.asp) to support schools. This guidance includes recommendations to ensure equity and access for all students.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C94" t="str">
         <v>https://covid19.ca.gov/education/</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Am I allowed to work during the outbreak?</v>
+        <v>Will there be standardized testing? When?</v>
       </c>
       <c r="B95" t="str">
-        <v>It depends what your job is. Workers in [essential sectors (pdf)](https://covid19.ca.gov/img/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to reopen, visit [industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Probably not: on March 18, 2020, Governor Newsom issued an [executive order](https://www.gov.ca.gov/2020/03/18/governor-newsom-issues-executive-order-to-suspend-standardized-testing-for-students-in-response-to-covid-19-outbreak/)  to waive this year’s statewide testing for K-12 schools.\n\nMore info: [Education](https://covid19.ca.gov/education/)</v>
       </c>
       <c r="C95" t="str">
-        <v>https://covid19.ca.gov/workers/</v>
+        <v>https://covid19.ca.gov/education/</v>
       </c>
       <c r="D95" t="str">
         <v xml:space="preserve"> </v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>What can I do if my work hours are reduced because of COVID-19?</v>
+        <v>Am I allowed to work during the outbreak?</v>
       </c>
       <c r="B96" t="str">
-        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>It depends what your job is. Workers in [essential sectors (PDF)](https://files.covid19.ca.gov/pdf/EssentialCriticalInfrastructureWorkers.pdf) are allowed to work during the [stay home order](https://covid19.ca.gov/stay-home-except-for-essential-needs/#top). And anyone is allowed to work from their home that has arranged to do so with their employer.\n\nFor information on businesses and industry sectors that are allowed to reopen, visit [industry guidance](https://covid19.ca.gov/industry-guidance/).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C96" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
+        <v>What can I do if my work hours are reduced because of COVID-19?</v>
       </c>
       <c r="B97" t="str">
-        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C97" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
+        <v>Do I need a note or certificate from a medical provider to file for unemployment?</v>
       </c>
       <c r="B98" t="str">
-        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>No, a medical certificate is not required.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C98" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Can I file a workplace safety complaint?</v>
+        <v>How long will it take to process a claim for unemployment or insurance benefits and to receive a payment?</v>
       </c>
       <c r="B99" t="str">
-        <v>Yes, you have the right to file a complaint. Find [information and instructions](https://www.dir.ca.gov/dosh/complaint.htm) for how to file a complaint. If you submit a complaint, your name must be kept confidential by law.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>After your claim is submitted, it will take at least three weeks to be processed. It may take longer if your information doesn’t match wage records or your identity can’t be verified. \n\nThe Governor has [waived the one-week waiting period](https://www.gov.ca.gov/2020/03/12/governor-newsom-issues-new-executive-order-further-enhancing-state-and-local-governments-ability-to-respond-to-covid-19-pandemic/). This means you can collect benefits for the first week that you were out of work or had reduced hours.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C99" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What can I do if I miss work because of school closures?</v>
+        <v>Can I file a workplace safety complaint?</v>
       </c>
       <c r="B100" t="str">
-        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>Yes, you have the right to file a complaint. Find [information and instructions](https://www.dir.ca.gov/dosh/complaint.htm) for how to file a complaint. If you submit a complaint, your name must be kept confidential by law.\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C100" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
+        <v>What can I do if I miss work because of school closures?</v>
       </c>
       <c r="B101" t="str">
-        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You can file for [Unemployment Insurance (UI)](https://www.edd.ca.gov/Unemployment/Filing_a_Claim.htm).\n*   Other options may be available. See [Benefits for Workers Impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C101" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
+        <v>What if I can’t work because I’m taking care of someone who’s sick or quarantined?</v>
       </c>
       <c r="B102" t="str">
-        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law. \n*   You can [file a Paid Family Leave (PFL) claim](https://www.edd.ca.gov/Disability/How_to_File_a_PFL_Claim_in_SDI_Online.htm).\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C102" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>What if I don’t have any available sick leave to use?</v>
+        <v>What can I do if I can’t work because I’m sick or quarantined because of COVID-19?</v>
       </c>
       <c r="B103" t="str">
-        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
+        <v>*   You may be able to use [paid sick leave](https://www.dir.ca.gov/dlse/2019-Novel-Coronavirus.htm). The Labor and Workforce Development Agency has created a [chart detailing the available paid sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n*   If you’re unable to work due to having or being exposed to COVID-19, you can [file a Disability Insurance (DI) claim](https://www.edd.ca.gov/Disability/How_to_File_a_DI_Claim_in_SDI_Online.htm).\n*   You may also file a [Workers’ Compensation Claim](https://www.dir.ca.gov/dwc/FileAClaim.htm) if you suffered a COVID-19 illness that arose from an exposure during the course of your work. Check the California Department of Industrial Relations’ [COVID-19 Resources and Workers’ Compensation](https://www.dir.ca.gov/dwc/Covid-19/Index.html) for more information.\n*   Unpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C103" t="str">
         <v>https://covid19.ca.gov/workers/</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>What effect will this have on my credit report?</v>
+        <v>What if I don’t have any available sick leave to use?</v>
       </c>
       <c r="B104" t="str">
-        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Check the Labor and Workforce Development Agency’s [chart detailing the available sick leave](https://www.labor.ca.gov/wp-content/uploads/2020/04/Side-by-Side-CA-Paid-Leave-FFCRA-Paid-Leave-4.9.20.pdf) under state and federal law and emergency paid family and medical leave under federal law.\n\nUnpaid leave may be available to you through the California Family Rights Act. Check the California Department of Fair Employment and Housing’s [frequently asked questions](https://www.dfeh.ca.gov/wp-content/uploads/sites/32/2020/03/DFEH-Employment-Information-on-COVID-19-FAQ_ENG.pdf).\n\nMore info: [Workers](https://covid19.ca.gov/workers/)</v>
       </c>
       <c r="C104" t="str">
-        <v>https://covid19.ca.gov/get-financial-help/</v>
+        <v>https://covid19.ca.gov/workers/</v>
       </c>
       <c r="D104" t="str">
         <v xml:space="preserve"> </v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>How long will these programs last?</v>
+        <v>What effect will this have on my credit report?</v>
       </c>
       <c r="B105" t="str">
-        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Financial institutions will not report derogatory information (like late payments) to credit reporting agencies but may report a forbearance. Typically this does not negatively affect a credit score on its own.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C105" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>What if my financial institution isn’t offering this relief?</v>
+        <v>How long will these programs last?</v>
       </c>
       <c r="B106" t="str">
-        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>It is still unclear how severe or how long the COVID-19 impact will be. Financial institutions have committed to necessary relief and will be assessing the ongoing conditions and need for continuing relief.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C106" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
+        <v>What if my financial institution isn’t offering this relief?</v>
       </c>
       <c r="B107" t="str">
-        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Call or check their website to be sure. At this time, JP Morgan Chase, US Bank, Wells Fargo and Citigroup, [and nearly 200 state-chartered banks](https://dbo.ca.gov/covid19-updates-fi/), credit unions are supporting these commitments. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C107" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Is mortgage relief available to businesses?</v>
+        <v>What if I already made a payment or was hit with a fee because of COVID-19?</v>
       </c>
       <c r="B108" t="str">
-        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>Talk to your financial institution. These measures go into effect as of March 25, 2020.  \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C108" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>What if my mortgage servicer is not communicative or cooperative?</v>
+        <v>Is mortgage relief available to businesses?</v>
       </c>
       <c r="B109" t="str">
-        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>The relief is currently only available for residential mortgages.\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C109" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Can I get child care during the stay home order?</v>
+        <v>What if my mortgage servicer is not communicative or cooperative?</v>
       </c>
       <c r="B110" t="str">
-        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
+        <v>You can file a complaint with the Department of Business Oversight:\n\n*   File on their [website](https://gcc02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdbo.ca.gov%2Ffile-a-complaint%2F&amp;data=02%7C01%7CManuel.Alvarez%40dbo.ca.gov%7Ce2673837ec6f42fce84508d7d114ed59%7Cd6910b1745b44b7bbb66cb7936fabafe%7C1%7C0%7C637207760136603083&amp;sdata=VR6CdqCvrBGkfC%2Bm%2B6Yj9emco9ldVY5BLWSiLpe3f4c%3D&amp;reserved=0)\n*    Call their Consumer Services Office at [(866) 275-2677](tel:(866) 275-2677) or [(916) 327-7585](tel:(916) 327-7585) \n*   Or email Ask.DBO@dbo.ca.gov\n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C110" t="str">
         <v>https://covid19.ca.gov/get-financial-help/</v>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
+        <v>Can I get child care during the stay home order?</v>
       </c>
       <c r="B111" t="str">
-        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>[Child care options](https://covid19.ca.gov/childcare/) are available if you work at an [essential job](https://covid19.ca.gov/essential-workforce/) or a permitted job in the [current roadmap stage](https://covid19.ca.gov/roadmap/). If you are not working at a job like this, it is important to keep children at home. \n\nMore info: [Get financial help](https://covid19.ca.gov/get-financial-help/)</v>
       </c>
       <c r="C111" t="str">
-        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
+        <v>https://covid19.ca.gov/get-financial-help/</v>
       </c>
       <c r="D111" t="str">
         <v xml:space="preserve"> </v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
+        <v>I am homeless and I may have come in contact with coronavirus. How can I self-isolate with nowhere to go and services closing down?</v>
       </c>
       <c r="B112" t="str">
-        <v>There is an [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>A motel or hotel room may be available for you and your family. Contact your local homeless [continuum of care](https://www.bcsh.ca.gov/hcfc/documents/coc_poc.pdf) to connect you to this service.\n\nMore info: [Housing and homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C112" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
+        <v>Will there be a rent freeze or waiver for renters? Are evictions allowed during the stay at home order?</v>
       </c>
       <c r="B113" t="str">
-        <v>Yes, there are protections in effect through September 30, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>There is an [order](https://www.gov.ca.gov/2020/06/30/governor-newsom-signs-executive-order-on-actions-in-response-to-covid-19-6-30-20/) in place to halt evictions and protect renters. If you are financially affected by COVID-19 and [can’t pay your full rent](https://bcsh.ca.gov/coronavirus19/graphic_rent.pdf), let your landlord know in writing within seven days of the rent due date. Save documentation as proof. The order does not relieve you from the obligation to pay rent. It also does not restrict the landlord from recovering rent that is due.\n\nMore info: [Housing and homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C113" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>How do I get mortgage relief and/or forbearance?</v>
+        <v>Can landlords delay their payments while their tenants cannot pay rent?</v>
       </c>
       <c r="B114" t="str">
-        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>Yes, there are protections in effect through September 30, 2020 for landlords. The [order](https://www.gov.ca.gov/2020/03/16/governor-newsom-issues-executive-order-to-protect-renters-and-homeowners-during-covid-19-pandemic/) requests lenders to halt foreclosures and related evictions during this time. Property owners should contact their financial institutions.\n\nMore info: [Housing and homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C114" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>How long will the forbearance last?</v>
+        <v>How do I get mortgage relief and/or forbearance?</v>
       </c>
       <c r="B115" t="str">
-        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and Homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
+        <v>You should contact and work directly with your mortgage servicer to learn about and apply for available relief. Please note that financial institutions and their servicers are experiencing high volumes of inquiries.\n\nMore info: [Housing and homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C115" t="str">
         <v>https://covid19.ca.gov/housing-and-homelessness/</v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
+        <v>How long will the forbearance last?</v>
       </c>
       <c r="B116" t="str">
-        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>The terms of a forbearance will be agreed to between you and your mortgage service. Financial institutions will confirm approval of and terms of the forbearance program.\n\nMore info: [Housing and homelessness](https://covid19.ca.gov/housing-and-homelessness/)</v>
       </c>
       <c r="C116" t="str">
-        <v>https://covid19.ca.gov/childcare/</v>
+        <v>https://covid19.ca.gov/housing-and-homelessness/</v>
       </c>
       <c r="D116" t="str">
         <v xml:space="preserve"> </v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
+        <v>What if a provider says they have availability on MyChildCare.ca.gov but when I connect with them they have no space?</v>
       </c>
       <c r="B117" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
+        <v>The information on [MyChildCare.ca.gov](http://mychildcare.ca.gov/) will be updated twice each week but it is possible that vacancies are filled between updates. Contact your [local childcare resource and referral agency](http://rrnetwork.org/family-services/find-child-care) to find more vacancies. \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C117" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>How can I find help paying for childcare?</v>
+        <v>How can I find out more about the provider listed in MyChildCare.ca.gov?</v>
       </c>
       <c r="B118" t="str">
-        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020, or 60 calendar days after the date of the child’s enrollment, whichever is longer. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) includes each provider’s facility/license number. This number can be searched at [CDSS Community Care Licensing Database](https://www.ccld.dss.ca.gov/carefacilitysearch/) to find more information about the provider, like information on inspections and complaints.  \n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)</v>
       </c>
       <c r="C118" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Can I get childcare during the stay home order?</v>
+        <v>How can I find help paying for childcare?</v>
       </c>
       <c r="B119" t="str">
-        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>[MyChildCare.ca.gov](http://mychildcare.ca.gov/) provides information on all licensed center-based and family childcare homes. This includes both private-pay and subsidized childcare. Children of essential workers are now eligible to enroll in subsidized emergency childcare through June 30, 2020, or 60 calendar days after the date of the child’s enrollment, whichever is longer. This is subject to capacity and eligibility requirements. Your [local childcare resource and referral agency](https://rrnetwork.org/index.php?p=family-services/find-child-care) can answer more questions about childcare subsidies.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C119" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Can my babysitter still come to the house?</v>
+        <v>Can I get childcare during the stay home order?</v>
       </c>
       <c r="B120" t="str">
-        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
+        <v>Yes, all childcare facilities can open with necessary modifications.\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C120" t="str">
         <v>https://covid19.ca.gov/childcare/</v>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>County websites:</v>
+        <v>Can my babysitter still come to the house?</v>
       </c>
       <c r="B121" t="str">
-        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Yes, a childcare worker can come to your home if necessary and should practice basic prevention guidelines (like handwashing for at least 20 seconds, physical distancing, and staying home if feeling ill).\n\nMore info: [Find childcare options near you](https://covid19.ca.gov/childcare/)&lt;!-- child care, childcare, daycare, day care --&gt;</v>
       </c>
       <c r="C121" t="str">
-        <v>https://covid19.ca.gov/state-local-resources/</v>
+        <v>https://covid19.ca.gov/childcare/</v>
       </c>
       <c r="D121" t="str">
         <v xml:space="preserve"> </v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>What are the restrictions in my area?</v>
+        <v>County websites:</v>
       </c>
       <c r="B122" t="str">
-        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a cloth mask. Your actions save lives.\n\nSee what [industries are open or closed](https://covid19.ca.gov/roadmap-counties/#track-data) in your county.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>*   [Alameda County](http://www.acphd.org/2019-ncov.aspx)\n*   [Alpine County](http://alpinecountyca.gov/Index.aspx?NID=516)\n*   [Amador County](https://www.amadorgov.org/services/covid-19)\n*   [Butte County](https://www.buttecounty.net/publichealth)\n*   [Calaveras County](https://covid19.calaverasgov.us/)\n*   [Colusa County](https://www.countyofcolusa.org/99/Public-Health)\n*   [Contra Costa County](https://www.coronavirus.cchealth.org/)\n*   [Del Norte County](http://www.co.del-norte.ca.us/departments/health-human-services/public-health)\n*   [El Dorado County](https://www.edcgov.us/Government/hhsa/Pages/EDCCOVID-19.aspx)\n*   [Fresno County](https://www.co.fresno.ca.us/departments/public-health/covid-19)\n*   [Glenn County](https://www.countyofglenn.net/dept/health-human-services/public-health/covid-19)\n*   [Humboldt County](https://humboldtgov.org/2018/Humboldt-Health-Alert)\n*   [Imperial County](http://www.icphd.org/health-information-and-resources/healthy-facts/covid-19/)\n*   [Inyo County](https://www.inyocounty.us/coronavirus-covid-19-response)\n*   [Kern County](https://kernpublichealth.com/2019-novel-coronavirus/)\n*   [Kings County](https://www.countyofkings.com/departments/health-welfare/public-health/coronavirus-disease-2019-covid-19/-fsiteid-1)\n*   [Lake County](http://health.co.lake.ca.us/Coronavirus.htm)\n*   [Lassen County](http://www.co.lassen.ca.us/)\n*   [Los Angeles County](http://publichealth.lacounty.gov/media/Coronavirus/)\n*   [Madera County](https://www.maderacounty.com/government/public-health/health-updates/corona-virus)\n*   [Marin County](https://coronavirus.marinhhs.org/)\n*   [Mariposa County](http://www.mariposacounty.org/1592/COVID-19-Information)\n*   [Mendocino County](https://www.mendocinocounty.org/community/novel-coronavirus)\n*   [Merced County](https://www.co.merced.ca.us/3350/Coronavirus-Disease-2019)\n*   [Modoc County](http://www.co.modoc.ca.us/)\n*   [Mono County](https://coronavirus.monocounty.ca.gov/)\n*   [Monterey County](https://www.co.monterey.ca.us/government/departments-a-h/health/diseases/2019-novel-coronavirus-covid-19)\n*   [Napa County](https://www.countyofnapa.org/2739/Coronavirus)\n*   [Nevada County](https://www.mynevadacounty.com/2924/Coronavirus)\n*   [Orange County](https://www.ochealthinfo.com/phs/about/epidasmt/epi/dip/prevention/novel_coronavirus)\n*   [Placer County](https://www.placer.ca.gov/coronavirus)\n*   [Plumas County](https://www.plumascounty.us/2669/Novel-Coronavirus-2019-COVID-19)\n*   [Riverside County](https://www.rivcoph.org/coronavirus)\n*   [Sacramento County](https://dhs.saccounty.net/PUB/Pages/PUB-Home.aspx)\n*   [San Benito County](https://hhsa.cosb.us/publichealth/communicable-disease/coronavirus/)\n*   [San Bernardino County](http://wp.sbcounty.gov/dph/coronavirus/)\n*   [San Diego County](https://www.sandiegocounty.gov/coronavirus.html)\n*   [San Francisco City and County](https://sf.gov/topics/coronavirus-covid-19)\n*   [San Joaquin County](https://www.sjgov.org/covid19/)\n*   [San Luis Obispo County](https://www.emergencyslo.org/en/covid19.aspx)\n*   [San Mateo County](https://www.smchealth.org/coronavirus)\n*   [Santa Barbara County](https://publichealthsbc.org/)\n*   [Santa Clara County](https://www.sccgov.org/sites/phd/DiseaseInformation/novel-coronavirus/Pages/home.aspx)\n*   [Santa Cruz County](https://www.santacruzhealth.org/HSAHome/HSADivisions/PublicHealth/CommunicableDiseaseControl/Coronavirus.aspx)\n*   [Shasta County](https://www.co.shasta.ca.us/index/hhsa/health-safety/current-heath-concerns/coronavirus)\n*   [Sierra County](http://sierracounty.ca.gov/582/Coronavirus-COVID-19)\n*   [Siskiyou County](https://www.co.siskiyou.ca.us/publichealth/page/coronavirus-covid-19-what-siskiyou-county-residents-need-know)\n*   [Solano County](http://www.solanocounty.com/depts/ph/ncov.asp)\n*   [Sonoma County](https://socoemergency.org/emergency/novel-coronavirus/)\n*   [Stanislaus County](http://schsa.org/publichealth/pages/corona-virus/)\n*   [Sutter County](https://www.suttercounty.org/doc/government/depts/cao/em/coronavirus)\n*   [Tehama County](https://www.tehamacohealthservices.net/services/communicable-diseases/#current-events)\n*   [Trinity County](https://www.trinitycounty.org/)\n*   [Tulare County](https://tchhsa.org/eng/index.cfm/public-health/covid-19-updates-novel-coronavirus/)\n*   [Tuolumne County](https://www.tuolumnecounty.ca.gov/250/Public-Health)\n*   [Ventura County](https://www.vcemergency.com/)\n*   [Yolo County](https://www.yolocounty.org/health-human-services/adults/communicable-disease-investigation-and-control/novel-coronavirus-2019)\n*   [Yuba County](https://www.yuba.org/coronavirus/)\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C122" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>How are we helping the homeless?</v>
+        <v>What are the restrictions in my area?</v>
       </c>
       <c r="B123" t="str">
-        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>While each county may have different restrictions, it is important to stay home as much as possible. If you do go out, stay 6 feet away from others who are not in your household and wear a mask or face covering. Your actions save lives.\n\nSee what [industries are open or closed](https://covid19.ca.gov/roadmap-counties/#track-data) in your county.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C123" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>How is the state protecting incarcerated people in California?</v>
+        <v>How are we helping the homeless?</v>
       </c>
       <c r="B124" t="str">
-        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) is dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR also requires ongoing testing for all staff working in adult institutions, suspended non-essential transfer of inmates, and suspended volunteer services and in-person visiting.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>Each county and local government in California has [increased resources](https://covid19.ca.gov/housing-and-homelessness/#top) to protect people experiencing homelessness during COVID-19. [Financial protections](https://covid19.ca.gov/housing-and-homelessness/#top) were added to prevent others from losing their homes during the outbreak.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C124" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Who can I contact about my child custody order and child visitation rights?</v>
+        <v>How is the state protecting incarcerated people in California?</v>
       </c>
       <c r="B125" t="str">
-        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
+        <v>[California Department of Corrections and Rehabilitation (CDCR)](https://www.cdcr.ca.gov/covid19/) is dedicated to the safety of everyone who lives in, works in, and visits state prisons. CDCR has given all staff and inmates 2 reusable cloth masks to wear while moving between cells, dorms, meetings with others, or health care appointments. CDCR also requires ongoing testing for all staff working in adult institutions, suspended non-essential transfer of inmates, and suspended volunteer services and in-person visiting.\n\nSee [CDCR’s COVID-19 Response Efforts](https://www.cdcr.ca.gov/covid19/covid-19-response-efforts/) for more detailed information.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C125" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Do I have to report to jury duty if summoned?</v>
+        <v>Who can I contact about my child custody order and child visitation rights?</v>
       </c>
       <c r="B126" t="str">
-        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information about jury duty.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)&lt;!-- jury duty, summons, courts, court, court operations--&gt;</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information. \n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)</v>
       </c>
       <c r="C126" t="str">
         <v>https://covid19.ca.gov/state-local-resources/</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>When is the disaster relief assistance available?</v>
+        <v>Do I have to report to jury duty if summoned?</v>
       </c>
       <c r="B127" t="str">
-        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Court operations vary from county to county. You can use the [California Courts Self-Help Center](https://www.courts.ca.gov/selfhelp.htm) or reach out to your [local government office](https://www.courts.ca.gov/find-my-court.htm?query=browse_courts) for more information about jury duty.\n\nMore info: [Get local information](https://covid19.ca.gov/state-local-resources/)&lt;!-- jury duty, summons, courts, court, court operations--&gt;</v>
       </c>
       <c r="C127" t="str">
-        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
+        <v>https://covid19.ca.gov/state-local-resources/</v>
       </c>
       <c r="D127" t="str">
         <v xml:space="preserve"> </v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Who is eligible for this disaster relief assistance?</v>
+        <v>When is the disaster relief assistance available?</v>
       </c>
       <c r="B128" t="str">
-        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Individuals may begin applying on May 18, 2020. Assistance will be available until the funding is spent or until June 30, 2020, at the latest. Applicants will be considered on a first-come, first-served basis. Applicants may only apply with the nonprofit organization(s) in their county of residency.\n\n**Please note:**\n\n*   Funding is limited, and disaster relief application services and assistance are not guaranteed.\n*   Nonprofit organizations will not be assisting individuals before May 18. Individuals _should not_ contact them ahead of time regarding disaster relief assistance.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C128" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
+        <v>Who is eligible for this disaster relief assistance?</v>
       </c>
       <c r="B129" t="str">
-        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](https://files.covid19.ca.gov/pdf/COVID_immigrant_guidance--en.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Eligible individuals must be able to provide information that they:\n\n*   Are an undocumented adult (person over the age of 18)\n*   Are not eligible for federal COVID-19 assistance, like the CARES Act stimulus payments or pandemic unemployment benefits, and\n*   Have experienced hardship as a result of COVID-19.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C129" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Is the personal information I provide to the nonprofits protected?</v>
+        <v>Can getting this assistance affect my ability to get a green card or to become a U.S. Citizen? Will receiving it make me a public charge?</v>
       </c>
       <c r="B130" t="str">
-        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>This disaster relief assistance is not means-tested and is one-time assistance. The federal government does not list this assistance as a public benefit for a public charge consideration. However, USCIS has not issued specific guidance related to this assistance.\n\nIf you have questions about your immigration status and this program, please consult an attorney. A list of free and low-cost immigration services providers is available in the [Guide for Immigrant Californians (PDF)](https://files.covid19.ca.gov/pdf/COVID_immigrant_guidance--en.pdf).\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C130" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>How do I apply?</v>
+        <v>Is the personal information I provide to the nonprofits protected?</v>
       </c>
       <c r="B131" t="str">
-        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Your information is only used to confirm eligibility and provide the assistance. No personal information (like name or address) will be given to any government agency. Only general information like age, gender, and preferred language will be shared with the State of California.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C131" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>How many people in a household can receive this assistance?</v>
+        <v>How do I apply?</v>
       </c>
       <c r="B132" t="str">
-        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>The California Department of Social Services (CDSS) has identified non-profit where you can apply for disaster assistance. Find the [nonprofit where you can apply in your area](https://cdss.ca.gov/inforesources/immigration/covid-19-drai).\n\nApply _no sooner than May 18, and only to the organization in your area._ They will assist you with applying, confirm your eligibility, and deliver a payment card if you are approved. Applications will be considered on a first-come, first-served basis.\n\nFunding is limited, and disaster relief application services and assistance are not guaranteed.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C132" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>How do eligible individuals receive this assistance?</v>
+        <v>How many people in a household can receive this assistance?</v>
       </c>
       <c r="B133" t="str">
-        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>A maximum of two adults per household can qualify for this assistance, for a total of $1,000 per household. A household is defined as individuals who live, shop, and prepare meals together.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C133" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>How long do I have to apply?</v>
+        <v>How do eligible individuals receive this assistance?</v>
       </c>
       <c r="B134" t="str">
-        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>You will get a payment card either in person or through the mail. The organization in your area can give you more information.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C134" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
+        <v>How long do I have to apply?</v>
       </c>
       <c r="B135" t="str">
-        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Payments will be distributed beginning on May 18, 2020. They will continue until the $75 million in funding is spent, or until June 30, 2020 at the latest. We expect that this disaster relief assistance will run out very quickly. Apply as soon as you can, but not before May 18.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C135" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
+        <v>If I am unable to apply for this program, are there other organizations that can help me?</v>
       </c>
       <c r="B136" t="str">
-        <v>Check the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
+        <v>Yes. The California Immigrant Resilience Fund is raising $50 million to provide cash assistance to undocumented Californians who are ineligible for other COVID-19 programs. Visit the [California Immigrant Resilience Fund](http://www.immigrantfundca.org) website to see if you can benefit from this program.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C136" t="str">
         <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Youth and Teens</v>
+        <v>What other government programs may I be eligible for during the COVID-19 pandemic?</v>
       </c>
       <c r="B137" t="str">
-        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>Check the [Guide for Immigrant Californians (PDF)](/wp-content/uploads/2020/04/LISTOS_COVID_19_immigrant_guidance_EN_dAf.pdf). It has information about jobs, wages, benefits, and small business and housing support.\n\nMore info: [Help for immigrants](https://covid19.ca.gov/guide-immigrant-californians/)</v>
       </c>
       <c r="C137" t="str">
-        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
+        <v>https://covid19.ca.gov/guide-immigrant-californians/</v>
       </c>
       <c r="D137" t="str">
         <v xml:space="preserve"> </v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Veterans</v>
+        <v>Youth and Teens</v>
       </c>
       <c r="B138" t="str">
-        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [California Youth Crisis Line](https://calyouth.org/cycl/)**:** Youth ages 12-24 can call or text [800-843-5200](tel:800-843-5200) or [chat online](https://m2.icarol.com/ConsumerRegistration.aspx?org=53141&amp;pid=326&amp;cc=en-US) for 24/7 crisis support.\n*   [TEEN LINE](https://teenlineonline.org/talk-now/): Teens can talk to another teen by texting “TEEN” to [839863](sms:839863) from 6pm – 9pm, or call [800-852-8336](tel:800-852-8336) from 6pm – 10pm.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C138" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>First Responders and Law Enforcement</v>
+        <v>Veterans</v>
       </c>
       <c r="B139" t="str">
-        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[Veterans Crisis Line](https://www.veteranscrisisline.net): Call [800-273-8255](tel:800-273-8255) and Press 1 or text [838255](sms:838255) for 24/7 support.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C139" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Older Californians</v>
+        <v>First Responders and Law Enforcement</v>
       </c>
       <c r="B140" t="str">
-        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Fire/EMS helpline](https://www.nvfc.org/fireems-helpline/): Call [888-731-FIRE](tel:888-731-FIRE) to get 24/7 help for a variety of behavioral health issues.\n*   [COPLINE](https://www.copline.org/): Call [800-267-5463](tel:800-267-5463) to find support 24/7 for law enforcement officers.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C140" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Deaf and Hard of Hearing Individuals</v>
+        <v>Older Californians</v>
       </c>
       <c r="B141" t="str">
-        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [Friendship Line](https://www.ioaging.org/services/all-inclusive-health-care/friendship-line): Call [888-670-1360](tel:888-670-1360) for 24/7 support if you are 60 years or older, or an adult living with disabilities.  \n*   California Aging and Adult Information Line: Call [800-510-2020](tel:800-510-2020) for help finding local assistance. \n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C141" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Services for Substance Use Disorders</v>
+        <v>Deaf and Hard of Hearing Individuals</v>
       </c>
       <c r="B142" t="str">
-        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>[National Suicide Prevention Deaf and Hard of Hearing Hotline](https://suicidepreventionlifeline.org/help-yourself/for-deaf-hard-of-hearing/): Access 24/7 video relay service by dialing [800-273-8255](tel:800-273-8255) (TTY [800-799-4889](tel:800-799-4889)).\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C142" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>LGBTQ Individuals</v>
+        <v>Services for Substance Use Disorders</v>
       </c>
       <c r="B143" t="str">
-        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
+        <v>*   [SAMHSA National Helpline](https://www.samhsa.gov/find-help/national-helpline): Call [800-662-HELP](tel:1-800-662-4357) for 24/7 information and referrals in English and Spanish. \n*   [SAMHSA Treatment Locator](https://findtreatment.samhsa.gov)**:**  Find drug or alcohol treatment programs. \n*   [Local county access lines](https://gcc01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.dhcs.ca.gov%2Findividuals%2FPages%2FSUD_County_Access_Lines.aspx&amp;data=02%7C01%7CJanne.Olson-Morgan%40osg.ca.gov%7C122307be91754d12e5dc08d7d984f958%7C265c2dcd2a6e43aab2e826421a8c8526%7C0%7C0%7C637217037446186621&amp;sdata=5sx4UdIlVkRL%2BEJR7FrpK0gYAn20yE71TyBDFIw1kJM%3D&amp;reserved=0): Find your local number for help seeking substance use disorder services.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C143" t="str">
         <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>What is a close contact?</v>
+        <v>LGBTQ Individuals</v>
       </c>
       <c r="B144" t="str">
-        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>*   [Trevor Project](https://www.thetrevorproject.org): Call [866-488-7386](tel:866-488-7386) or text START to [678678](sms:678678) for 24/7 information and suicide prevention resources for LGBTQ youth.\n*   [Lesbian, Gay, Bisexual and Transgender National Hotline](https://www.glbthotline.org/hotline.html): Call [800-273-8255](tel:800-273-8255) from 1pm – 9pm for support, information or help finding resources.\n*   [Victims of Crime Resource Center](https://1800victims.org/): Call or text [800-842-8467](tel:800-842-8467) or [chat online](https://1800victims.org/) for information about LGTBQ rights, legal protections, and local resources.\n\nMore info: [Resources for emotional support and well-being](https://covid19.ca.gov/resources-for-emotional-support-and-well-being/)</v>
       </c>
       <c r="C144" t="str">
-        <v>https://covid19.ca.gov/contact-tracing/</v>
+        <v>https://covid19.ca.gov/resources-for-emotional-support-and-well-being/</v>
       </c>
       <c r="D144" t="str">
         <v xml:space="preserve"> </v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Will contact tracers track my location?</v>
+        <v>What is a close contact?</v>
       </c>
       <c r="B145" t="str">
-        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>A close contact is someone who was within 6 feet of a person with COVID-19 for at least 15 minutes. This usually includes household members, intimate contacts, and caregivers, but can include others.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C145" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Is contact tracing help available in my language?</v>
+        <v>Will contact tracers track my location?</v>
       </c>
       <c r="B146" t="str">
-        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>California’s contact tracing program does not use any cell phone tracking technology. Someone from your local public health department will simply speak privately with you. All information is confidential and protected by California’s strict privacy laws. They may stay in touch to make sure your symptoms aren’t worsening.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C146" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Who should get tested?</v>
+        <v>Is contact tracing help available in my language?</v>
       </c>
       <c r="B147" t="str">
-        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>Your [local health department](https://covid19.ca.gov/state-local-resources/#top) can communicate with you in many different languages.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C147" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>How do I find a testing location?</v>
+        <v>Who should get tested?</v>
       </c>
       <c r="B148" t="str">
-        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should get tested if you:\n\n*   Are a close contact of anyone who has or may have COVID-19, or\n*   Think you may have been exposed, or\n*   Are having [COVID-19 symptoms](https://covid19.ca.gov/symptoms-and-risks/). \n\nFind a [testing site in your area](https://covid19.ca.gov/testing-and-treatment/).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C148" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
+        <v>How do I find a testing location?</v>
       </c>
       <c r="B149" t="str">
-        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>To learn more about testing and care, visit the [Testing and treatment page](https://covid19.ca.gov/testing-and-treatment/). You can search for testing locations there using your zip code. \n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C149" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
+        <v>What if I have COVID-19 symptoms and have not been contacted by the health department?</v>
       </c>
       <c r="B150" t="str">
-        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) yourself while waiting for your test results.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>[Get tested](https://covid19.ca.gov/testing-and-treatment/) immediately, contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) yourself until:\n\n*   at least 10 days have passed since symptoms started, **AND**\n*    your fever has been gone for 24 hours without the aid of medication, **AND** \n*   your [symptoms](https://covid19.ca.gov/symptoms-and-risks/#top) (like cough and shortness of breath) have improved.\n\nThis is true whether you’ve tested positive, negative, or are untested. Read more in the [Employer Playbook for a Safe Reopening (PDF)](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C150" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>How do I become a contact tracer?</v>
+        <v>What if I came in contact with someone who has COVID-19 symptoms, but my local health department is not aware of it?</v>
       </c>
       <c r="B151" t="str">
-        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
+        <v>You should [get tested](https://covid19.ca.gov/testing-and-treatment/). Contact your [local health department](https://covid19.ca.gov/get-local-information/) for contact tracing, and [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) yourself while waiting for your test results.\n\n**If you tested positive but have no symptoms**, you should [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) at home for at least 10 days.\n\n**If you develop symptoms**, you should stay home until:\n\n*   at least 10 days have passed since symptoms started, **AND**\n*   your fever has been gone for 24 hours without the aid of medication, **AND** \n*   your [symptoms](https://covid19.ca.gov/symptoms-and-risks/#top) (like cough and shortness of breath) have improved.\n\nThis is true whether you’ve tested positive, negative, or are untested.\n\n**If you had close contact with someone who tested positive but you tested negative**, you should still [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) at home for at least 14 days.\n\nRead more in the [Employer Playbook for a Safe Reopening (PDF)](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C151" t="str">
         <v>https://covid19.ca.gov/contact-tracing/</v>
@@ -4308,13 +4308,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>County Monitoring List</v>
+        <v>How do I become a contact tracer?</v>
       </c>
       <c r="B152" t="str">
-        <v>*   Alameda\n*   Butte (on the list less than 3 days)\n*   Colusa\n*   Contra Costa\n*   Fresno\n*   Glenn\n*   Imperial\n*   Kern (on the list less than 3 days)\n*   Kings\n*   Los Angeles\n*   Madera\n*   Marin\n*   Merced\n*   Monterey\n*   Napa\n*   Orange\n*   Placer\n*   Riverside\n*   Sacramento\n*   San Benito\n*   San Bernardino\n*   San Diego\n*   San Francisco\n*   San Joaquin\n*   San Luis Obispo\n*   Santa Barbara\n*   Santa Clara\n*   Solano\n*   Sonoma\n*   Stanislaus\n*   Sutter\n*   Tulare\n*   Ventura\n*   Yolo\n*   Yuba\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>The initial phase of California Connected, the state’s contact tracing program, will utilize existing resources and redirect state employees to begin contact tracing efforts. Offers of additional support from the private sector and qualified members of the public are appreciated, but contact tracers from outside state government may not be needed until a future phase. Thank you for wanting to share your expertise and resources with your fellow Californians.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C152" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D152" t="str">
         <v xml:space="preserve"> </v>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>For attested counties not on Monitoring List</v>
+        <v>Is there extra sick leave available for workers who have COVID-19 symptoms or are waiting for test results?</v>
       </c>
       <c r="B153" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Dine-in restaurants (outdoors only)\n*   Wineries and tasting rooms (outdoors only)\n*   Family entertainment centers (outdoors only)\n*   Zoos and museums (outdoors only)\n*   Cardrooms (outdoors only)\n*   Casinos\n*   Gyms and fitness centers\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n*   Personal care services, like nail salons and body waxing\n*   Hair salons and barbershops\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Yes. There are extra federal, state, and in some cases, local sick leaves available for people experiencing COVID-19 symptoms, seeking a medical diagnosis or in quarantine:\n\n*   **Federal paid sick leave:** Up to 80 hours under the Families First Coronavirus Response Act ([FFCRA](https://www.dol.gov/agencies/whd/pandemic/ffcra-employee-paid-leave)) for businesses with less than 500 workers. See [more information on FFCRA in its FAQs](https://www.dol.gov/agencies/whd/pandemic/ffcra-questions).\n*   **California COVID-19 supplemental paid sick leave:** Food businesses with more than 500 workers must give up to 80 hours of [paid sick leave](https://www.gov.ca.gov/wp-content/uploads/2020/04/4.16.20-EO-N-51-20.pdf).  See [more information on supplemental paid sick leave](https://www.dir.ca.gov/dlse/FAQ-for-PSL.html). \n*   **Local paid sick leave ordinances:** Certain local areas also have paid sick leave ordinances.  Consult with the local enforcement agency in your area.\n\nTo understand what resources may be available, see the side-by-side comparison of [COVID-19 sick leave](https://www.dir.ca.gov/dlse/Comparison-COVID-19-Paid-Leave.html) and [benefits for workers impacted by COVID-19](https://www.labor.ca.gov/coronavirus2019/#chart).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C153" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D153" t="str">
         <v xml:space="preserve"> </v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>For counties on Monitoring List for 3 consecutive days</v>
+        <v>Can I return to work once my isolation or quarantine is over?</v>
       </c>
       <c r="B154" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n*   Casinos\n*   Hotels (for tourism and individual travel)\n*   Campgrounds and outdoor recreation\n\nThe following industries must close indoor operations, but they may be modified to operate outside or by pick-up:\n\n*   Dine-in restaurants\n*   Wineries and tasting rooms\n*   Movie theaters \n*   Family entertainment centers (for example: bowling alleys, miniature golf, batting cages and arcades)\n*   Zoos and museums\n*   Cardrooms\n*   Gyms and fitness centers\n*   Personal care services, like nail salons and body waxing\n*   Places of worship and cultural ceremonies, like weddings and funerals\n*   Offices for non-critical infrastructure sectors\n*   Shopping malls \n\nNOTE: Imperial County is open to the essential workforce only (Stage One). Alameda County does not have an attestation and can only have open those industries which are open statewide.\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>Yes, but when you return depends on your situation.\n\n**If you have symptoms**, you should stay home until:\n\n*   at least 10 days have passed since symptoms started, **AND**\n*    your fever has been gone for 24 hours without the aid of medication, **AND** \n*   your [symptoms](https://covid19.ca.gov/symptoms-and-risks/#top) (like cough and shortness of breath) have improved.\n\nThis is true whether you’ve tested positive, negative, or are untested.\n\n**If you have tested positive but have no symptoms**, you should [isolate](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/isolation.html) at home for at least 10 days.\n\n**If you had close contact with someone who tested positive but you have tested negative**, you should still [quarantine](https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/quarantine.html) at home for at least 14 days.\n\nGet tested as soon as possible if you have symptoms or have come in contact with someone who has tested positive or has symptoms.\n\nRead more in the [Employer Playbook for a Safe Reopening (PDF)](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf).\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C154" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> </v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>For counties without attestations</v>
+        <v>What steps are required when a business has an employee who tests positive?</v>
       </c>
       <c r="B155" t="str">
-        <v>*   [Industries open statewide](https://covid19.ca.gov/industry-guidance/)\n\nMore info: [County variance info](https://covid19.ca.gov/roadmap-counties/)</v>
+        <v>If an employer discovers a worker has tested positive for COVID-19 or has symptoms, they should send the worker home. Then the employer should [follow guidance](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf) about isolation or quarantine, testing, and when it is appropriate for the worker to return to work. Employers should support the need for workers to stay home for the protection of others with flexible leave policies. For more details, see “What to do if there is a Case of COVID-19 in the Workplace” in the [Employer Playbook for a Safe Reopening (PDF)](https://files.covid19.ca.gov/pdf/employer-playbook-for-safe-reopening--en.pdf) and check with your local health department.\n\nMore info: [Contact tracing](https://covid19.ca.gov/contact-tracing/)</v>
       </c>
       <c r="C155" t="str">
-        <v>https://covid19.ca.gov/roadmap-counties/</v>
+        <v>https://covid19.ca.gov/contact-tracing/</v>
       </c>
       <c r="D155" t="str">
         <v xml:space="preserve"> </v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Northern California</v>
+        <v>Can people who recover from COVID-19 be re-infected?</v>
       </c>
       <c r="B156" t="str">
-        <v>*   Alturas (Modoc County)\n*   American Canyon (Napa County)\n*   Antioch (Contra Costa County)\n*   Atascadero (San Luis Obispo County)\n*   Bear Valley (Alpine County)\n*   Bieber (Lassen County)\n*   Bishop (Inyo County)\n*   Calistoga (Napa County)\n*   Calpine (Sierra County)\n*   Cedarville (Modoc County)\n*   Ceres (Sanislaus County)\n*   Chowchilla (Madera County)\n*   Clearlake (Lake County)\n*   Coleville (Mono County)\n*   Corcoran (King County)\n*   Corona (King County)\n*   Crescent City (Del Norte County)\n*   Daly City (San Mateo County)\n*   Dinuba (Tulare County)\n*   Downieville (Sierra County)\n*   Doyle (Lassen County)\n*   East Palo Alto (San Mateo County)\n*   Elk Grove (Sacramento County)\n*   Exeter (Tulare County)\n*   Farmersville (Tulare County)\n*   French Camp (San Joaquin County)\n*   Fresno (Fresno County)\n*   Gridley (Butte County)\n*   Half Moon Bay (San Mateo County)\n*   Hanford (King County)\n*   Hayfork (Trinity County)\n*   Herlong (Lassen County)\n*   Jackson (Amador County)\n*   Kerman (Fresno County)\n*   Lakeport (Lake County)\n*   Lemoore (King County)\n*   Lewiston (Trinity County)\n*   Livingston (Merced County)\n*   Lone Pine (Inyo County)\n*   Loyalton (Sierra County)\n*   Magalia (Butte County)\n*   Mammoth Lakes (Mono County)\n*   Markleeville (Alpine County)\n*   Mendota (Fresno County)\n*   Merced (Merced County)\n*   Middletown (Lake County)\n*   Napa (Napa County)\n*   North San Juan (Nevada County)\n*   Oakland (Alameda County)\n*   Placerville (El Dorado County)\n*   Porterville (Tulare County)\n*   Redding (Shasta County)\n*   Redwood City (San Mateo County)\n*   Reedley (Fresno County)\n*   Rio Linda (Sacramento County)\n*   Sacramento (Sacramento County)\n*   Salida (Stanislaus County)\n*   San Bruno (San Mateo County)\n*   San Francisco (San Francisco)\n*   San Jose (Santa Clara County)\n*   San Mateo (San Mateo County)\n*   Santa Rosa (Sonoma County)\n*   Selma (Fresno County)\n*   St. Helena (Napa County)\n*   Stockton (San Joaquin County)\n*   Susanville (Lassen County)\n*   Tracy (San Joaquin County)\n*   Tulare (Tulare County)\n*   Turlock (Stanislaus County)\n*   Upper Lake (Lake County)\n*   Vallejo (Solano County)\n*   Visalia (Tulare County)\n*   Willow Creek (Humboldt County)\n*   Weaverville (Trinity County)\n*   Westwood (Lassen County)\n\n*   Woodlake (Tulare County)\n*   Woodland (Yolo County)\n*   Yosemite Valley (Mariposa County)\n\nMore info: [Testing and treatment](https://covid19.ca.gov/testing-and-treatment/)</v>
+        <v>We don’t yet know. The duration of immunity to coronavirus infection is not yet understood. Patients infected with other similar coronavirus